--- a/力扣做题情况.xlsx
+++ b/力扣做题情况.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20371"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CDC0D34-E017-46FE-AA6F-4365C41517B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C46ECCA-EAD3-40C2-B0A9-55DE9376DC05}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="16152" windowHeight="8508" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="280">
   <si>
     <t>种花问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1108,6 +1108,22 @@
   </si>
   <si>
     <t>困难</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本计算器II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1909,7 +1925,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -6728,7 +6744,7 @@
   <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -6989,6 +7005,21 @@
       <c r="A12" s="7">
         <v>44266</v>
       </c>
+      <c r="B12">
+        <v>227</v>
+      </c>
+      <c r="C12" t="s">
+        <v>276</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="E12" t="s">
+        <v>278</v>
+      </c>
+      <c r="F12" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
@@ -7099,7 +7130,7 @@
       </c>
       <c r="B34">
         <f>COUNTIF(E2:E32,"自己做出")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">

--- a/力扣做题情况.xlsx
+++ b/力扣做题情况.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20371"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C46ECCA-EAD3-40C2-B0A9-55DE9376DC05}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539B0754-2EE0-4B6F-B652-EB716E4008DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="16152" windowHeight="8508" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="290">
   <si>
     <t>种花问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1128,6 +1128,46 @@
   </si>
   <si>
     <t>栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证二叉树的前序序列化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计哈希集合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈希</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list的使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计哈希映射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pair的运用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1925,7 +1965,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -6744,7 +6784,7 @@
   <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -7025,16 +7065,67 @@
       <c r="A13" s="7">
         <v>44267</v>
       </c>
+      <c r="B13">
+        <v>331</v>
+      </c>
+      <c r="C13" t="s">
+        <v>280</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="E13" t="s">
+        <v>282</v>
+      </c>
+      <c r="F13" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>44268</v>
       </c>
+      <c r="B14">
+        <v>705</v>
+      </c>
+      <c r="C14" t="s">
+        <v>284</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="E14" t="s">
+        <v>282</v>
+      </c>
+      <c r="F14" t="s">
+        <v>286</v>
+      </c>
+      <c r="G14" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>44269</v>
       </c>
+      <c r="B15">
+        <v>706</v>
+      </c>
+      <c r="C15" t="s">
+        <v>288</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="E15" t="s">
+        <v>282</v>
+      </c>
+      <c r="F15" t="s">
+        <v>286</v>
+      </c>
+      <c r="G15" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
@@ -7130,7 +7221,7 @@
       </c>
       <c r="B34">
         <f>COUNTIF(E2:E32,"自己做出")</f>
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">

--- a/力扣做题情况.xlsx
+++ b/力扣做题情况.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20371"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20372"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539B0754-2EE0-4B6F-B652-EB716E4008DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FBC62E-4E53-4FF5-AF47-828677406DDB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="16152" windowHeight="8508" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="302">
   <si>
     <t>种花问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1168,6 +1168,54 @@
   </si>
   <si>
     <t>pair的运用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>螺旋矩阵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>螺旋矩阵II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不同的子序列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>困难</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CV后没看懂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广度优先搜索的比较直观的题大概都做了下，稍微看了点线段树。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1965,7 +2013,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -1974,7 +2022,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6783,8 +6831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E3CE38-BCB5-47B2-9D37-77FB04031B7A}">
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -7131,83 +7179,122 @@
       <c r="A16" s="7">
         <v>44270</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s">
+        <v>290</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="E16" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>44271</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>59</v>
+      </c>
+      <c r="C17" t="s">
+        <v>293</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="E17" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>44272</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>115</v>
+      </c>
+      <c r="C18" t="s">
+        <v>296</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="E18" t="s">
+        <v>298</v>
+      </c>
+      <c r="F18" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>44273</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>44274</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>44275</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>44276</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>44277</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>44278</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>44279</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>44280</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>44281</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>44282</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>44283</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>44284</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>44285</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>44286</v>
       </c>
@@ -7221,7 +7308,7 @@
       </c>
       <c r="B34">
         <f>COUNTIF(E2:E32,"自己做出")</f>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -7248,7 +7335,7 @@
       </c>
       <c r="B37">
         <f>COUNTIF(E2:E32,"CV后没看懂")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -7264,10 +7351,14 @@
       <c r="A41" s="7"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="7"/>
+      <c r="A42" s="7" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="7"/>
+      <c r="A43" s="7" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>

--- a/力扣做题情况.xlsx
+++ b/力扣做题情况.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20372"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FBC62E-4E53-4FF5-AF47-828677406DDB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41EF8F0-7C47-4916-BEB2-483B8DBAA0A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16152" windowHeight="8508" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="21年1月" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="316">
   <si>
     <t>种花问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1216,6 +1216,62 @@
   </si>
   <si>
     <t>广度优先搜索的比较直观的题大概都做了下，稍微看了点线段树。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反转链表II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计停车系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逆波兰表达式求值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矩阵置零</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2013,7 +2069,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>12</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -5115,17 +5171,17 @@
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="52.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="52.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -5151,7 +5207,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>44197</v>
       </c>
@@ -5174,7 +5230,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="6">
         <v>44198</v>
       </c>
@@ -5200,7 +5256,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>44199</v>
       </c>
@@ -5217,7 +5273,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>44200</v>
       </c>
@@ -5234,7 +5290,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>44201</v>
       </c>
@@ -5251,7 +5307,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>44202</v>
       </c>
@@ -5277,7 +5333,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>44203</v>
       </c>
@@ -5303,7 +5359,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <v>44204</v>
       </c>
@@ -5323,7 +5379,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>44205</v>
       </c>
@@ -5346,7 +5402,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>44206</v>
       </c>
@@ -5363,7 +5419,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>44207</v>
       </c>
@@ -5389,7 +5445,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>44208</v>
       </c>
@@ -5412,7 +5468,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>44209</v>
       </c>
@@ -5435,7 +5491,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
         <v>44210</v>
       </c>
@@ -5452,7 +5508,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
         <v>44211</v>
       </c>
@@ -5475,7 +5531,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
         <v>44212</v>
       </c>
@@ -5498,7 +5554,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
         <v>44213</v>
       </c>
@@ -5518,7 +5574,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="6">
         <v>44214</v>
       </c>
@@ -5541,7 +5597,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="6">
         <v>44215</v>
       </c>
@@ -5564,7 +5620,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="6">
         <v>44216</v>
       </c>
@@ -5584,7 +5640,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="6">
         <v>44217</v>
       </c>
@@ -5610,7 +5666,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="6">
         <v>44218</v>
       </c>
@@ -5630,7 +5686,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="6">
         <v>44219</v>
       </c>
@@ -5650,7 +5706,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="6">
         <v>44220</v>
       </c>
@@ -5670,7 +5726,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="6">
         <v>44221</v>
       </c>
@@ -5690,7 +5746,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="6">
         <v>44222</v>
       </c>
@@ -5713,7 +5769,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="6">
         <v>44223</v>
       </c>
@@ -5733,7 +5789,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="6">
         <v>44224</v>
       </c>
@@ -5750,7 +5806,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="6">
         <v>44225</v>
       </c>
@@ -5776,7 +5832,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="6">
         <v>44226</v>
       </c>
@@ -5793,7 +5849,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="6">
         <v>44227</v>
       </c>
@@ -5813,10 +5869,10 @@
         <v>126</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>17</v>
       </c>
@@ -5825,7 +5881,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>18</v>
       </c>
@@ -5834,7 +5890,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>161</v>
       </c>
@@ -5843,7 +5899,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>159</v>
       </c>
@@ -5852,18 +5908,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="8" t="s">
         <v>127</v>
       </c>
@@ -5872,36 +5928,36 @@
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
     </row>
-    <row r="44" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="9" t="s">
         <v>121</v>
       </c>
@@ -5910,96 +5966,96 @@
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="9"/>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" s="9"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" s="9"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" s="1"/>
       <c r="B52" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="1"/>
     </row>
   </sheetData>
@@ -6033,17 +6089,17 @@
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -6069,7 +6125,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>44228</v>
       </c>
@@ -6089,7 +6145,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="6">
         <v>44229</v>
       </c>
@@ -6109,7 +6165,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>44230</v>
       </c>
@@ -6135,7 +6191,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>44231</v>
       </c>
@@ -6155,7 +6211,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>44232</v>
       </c>
@@ -6175,7 +6231,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>44233</v>
       </c>
@@ -6198,7 +6254,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>44234</v>
       </c>
@@ -6218,7 +6274,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <v>44235</v>
       </c>
@@ -6238,7 +6294,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>44236</v>
       </c>
@@ -6258,7 +6314,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>44237</v>
       </c>
@@ -6278,7 +6334,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>44238</v>
       </c>
@@ -6301,7 +6357,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>44239</v>
       </c>
@@ -6318,7 +6374,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>44240</v>
       </c>
@@ -6341,7 +6397,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
         <v>44241</v>
       </c>
@@ -6364,7 +6420,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
         <v>44242</v>
       </c>
@@ -6381,7 +6437,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
         <v>44243</v>
       </c>
@@ -6398,7 +6454,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
         <v>44244</v>
       </c>
@@ -6421,7 +6477,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="6">
         <v>44245</v>
       </c>
@@ -6441,7 +6497,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="6">
         <v>44246</v>
       </c>
@@ -6458,7 +6514,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="6">
         <v>44247</v>
       </c>
@@ -6478,7 +6534,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="6">
         <v>44248</v>
       </c>
@@ -6498,7 +6554,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="6">
         <v>44249</v>
       </c>
@@ -6515,7 +6571,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="6">
         <v>44250</v>
       </c>
@@ -6533,7 +6589,7 @@
       </c>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="6">
         <v>44251</v>
       </c>
@@ -6550,7 +6606,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="6">
         <v>44252</v>
       </c>
@@ -6567,7 +6623,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="6">
         <v>44253</v>
       </c>
@@ -6593,7 +6649,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="6">
         <v>44254</v>
       </c>
@@ -6616,7 +6672,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="6">
         <v>44255</v>
       </c>
@@ -6636,19 +6692,19 @@
         <v>154</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="2"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
         <v>12</v>
       </c>
@@ -6657,7 +6713,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
         <v>18</v>
       </c>
@@ -6666,7 +6722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
         <v>161</v>
       </c>
@@ -6675,7 +6731,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
         <v>159</v>
       </c>
@@ -6684,18 +6740,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="10" t="s">
         <v>225</v>
       </c>
@@ -6704,105 +6760,105 @@
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
     </row>
-    <row r="42" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="1"/>
     </row>
   </sheetData>
@@ -6831,21 +6887,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E3CE38-BCB5-47B2-9D37-77FB04031B7A}">
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -6871,7 +6927,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="7">
         <v>44256</v>
       </c>
@@ -6894,7 +6950,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="7">
         <v>44257</v>
       </c>
@@ -6917,7 +6973,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
         <v>44258</v>
       </c>
@@ -6943,7 +6999,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
         <v>44259</v>
       </c>
@@ -6966,7 +7022,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
         <v>44260</v>
       </c>
@@ -6986,7 +7042,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
         <v>44261</v>
       </c>
@@ -7006,7 +7062,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="7">
         <v>44262</v>
       </c>
@@ -7029,7 +7085,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
         <v>44263</v>
       </c>
@@ -7049,7 +7105,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
         <v>44264</v>
       </c>
@@ -7069,7 +7125,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
         <v>44265</v>
       </c>
@@ -7089,7 +7145,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="7">
         <v>44266</v>
       </c>
@@ -7109,7 +7165,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
         <v>44267</v>
       </c>
@@ -7129,7 +7185,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="7">
         <v>44268</v>
       </c>
@@ -7152,7 +7208,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="7">
         <v>44269</v>
       </c>
@@ -7175,7 +7231,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="7">
         <v>44270</v>
       </c>
@@ -7192,7 +7248,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="7">
         <v>44271</v>
       </c>
@@ -7209,7 +7265,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="7">
         <v>44272</v>
       </c>
@@ -7229,89 +7285,143 @@
         <v>299</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="7">
         <v>44273</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>92</v>
+      </c>
+      <c r="C19" t="s">
+        <v>302</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="E19" t="s">
+        <v>304</v>
+      </c>
+      <c r="F19" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="7">
         <v>44274</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>1603</v>
+      </c>
+      <c r="C20" t="s">
+        <v>306</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="E20" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="7">
         <v>44275</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>150</v>
+      </c>
+      <c r="C21" t="s">
+        <v>309</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="E21" t="s">
+        <v>311</v>
+      </c>
+      <c r="F21" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="7">
         <v>44276</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>73</v>
+      </c>
+      <c r="C22" t="s">
+        <v>313</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="E22" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="7">
         <v>44277</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="7">
         <v>44278</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="7">
         <v>44279</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="7">
         <v>44280</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="7">
         <v>44281</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="7">
         <v>44282</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="7">
         <v>44283</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="7">
         <v>44284</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="7">
         <v>44285</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="7">
         <v>44286</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="7"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B34">
         <f>COUNTIF(E2:E32,"自己做出")</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="7" t="s">
         <v>18</v>
       </c>
@@ -7320,7 +7430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="7" t="s">
         <v>161</v>
       </c>
@@ -7329,7 +7439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="7" t="s">
         <v>159</v>
       </c>
@@ -7338,113 +7448,113 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="7"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="7"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="7"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="7"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="7" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="7" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="7"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="7"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="7"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="7"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="7"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="7"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="7"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="7"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="7"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="7"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="7"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="7"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="7"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="7"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="7"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="7"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="7"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="7"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="7"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="7"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="7"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="7"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="7"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="7"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="7"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="7"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="7"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="7"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="7"/>
     </row>
   </sheetData>
@@ -7474,16 +7584,16 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -7509,105 +7619,105 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>43831</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
         <v>12</v>
       </c>
@@ -7616,7 +7726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
         <v>18</v>
       </c>
@@ -7625,7 +7735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
         <v>161</v>
       </c>
@@ -7634,7 +7744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
         <v>159</v>
       </c>
@@ -7643,109 +7753,109 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="1"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="1"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="1"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="1"/>
     </row>
   </sheetData>

--- a/力扣做题情况.xlsx
+++ b/力扣做题情况.xlsx
@@ -3,22 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20372"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41EF8F0-7C47-4916-BEB2-483B8DBAA0A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8936155-3109-4C36-A2B0-AC699E091004}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="16152" windowHeight="8508" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="21年1月" sheetId="2" r:id="rId1"/>
     <sheet name="21年2月" sheetId="3" r:id="rId2"/>
     <sheet name="21年3月" sheetId="7" r:id="rId3"/>
-    <sheet name="模板" sheetId="5" r:id="rId4"/>
+    <sheet name="第233场周赛" sheetId="12" r:id="rId4"/>
+    <sheet name="模板" sheetId="5" r:id="rId5"/>
+    <sheet name="竞赛模板" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="347">
   <si>
     <t>种花问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1272,6 +1274,129 @@
   </si>
   <si>
     <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位1的个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞赛名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第233场周赛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大升序子数组和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第场周赛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全国排名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>积压订单中的订单总数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞赛中自己做出</t>
+  </si>
+  <si>
+    <t>优先级队列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有界数组中指定下标处的最大值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均撒豆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计异或值在范围内的数对有多少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扁平化嵌套列表迭代器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CV后没看懂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深度优先搜索/dfs&amp;&amp;迭代器与接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二分法求解/平均撒豆模拟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典树/AVX2指令集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这次有点不甘。第3第4题都是能做做的题，可惜由于第2题耗了点时间加上没理解第3题先做了第4题花费了大量时间，导致第3题只有5分钟了。不过事后看第3题按照我做的二分法也需要再对一个分段等差数列求和，我事后做也WA了好几次，估计比赛当中做的话也要点时间，也就释怀了些。不过第3题居然可以模拟，我倒是完全没想到。第4题的题解再次为我打开了新的天空。我完全不剪枝的暴力未能通过，之后一直在尝试剪枝，结果越剪越糟……在评论区惊讶地发现js暴力居然能过，我原来一直以为c++是竞赛最佳语言来着。不过最重要的是第4题有大佬用avx2指令集来暴力，这个名词是我之前从未听说的领域，堪比上次看到pbds一样，结果居然非常快！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>132模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单调栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除排序链表中的重复元素II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1327,7 +1452,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1352,6 +1477,12 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1360,6 +1491,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2069,7 +2203,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>16</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -2078,7 +2212,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5171,17 +5305,17 @@
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="52.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="52.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -5207,7 +5341,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44197</v>
       </c>
@@ -5230,7 +5364,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>44198</v>
       </c>
@@ -5256,7 +5390,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>44199</v>
       </c>
@@ -5273,7 +5407,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>44200</v>
       </c>
@@ -5290,7 +5424,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>44201</v>
       </c>
@@ -5307,7 +5441,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>44202</v>
       </c>
@@ -5333,7 +5467,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>44203</v>
       </c>
@@ -5359,7 +5493,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>44204</v>
       </c>
@@ -5379,7 +5513,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>44205</v>
       </c>
@@ -5402,7 +5536,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>44206</v>
       </c>
@@ -5419,7 +5553,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>44207</v>
       </c>
@@ -5445,7 +5579,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>44208</v>
       </c>
@@ -5468,7 +5602,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>44209</v>
       </c>
@@ -5491,7 +5625,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>44210</v>
       </c>
@@ -5508,7 +5642,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>44211</v>
       </c>
@@ -5531,7 +5665,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>44212</v>
       </c>
@@ -5554,7 +5688,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>44213</v>
       </c>
@@ -5574,7 +5708,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>44214</v>
       </c>
@@ -5597,7 +5731,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>44215</v>
       </c>
@@ -5620,7 +5754,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>44216</v>
       </c>
@@ -5640,7 +5774,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>44217</v>
       </c>
@@ -5666,7 +5800,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>44218</v>
       </c>
@@ -5686,7 +5820,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>44219</v>
       </c>
@@ -5706,7 +5840,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>44220</v>
       </c>
@@ -5726,7 +5860,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>44221</v>
       </c>
@@ -5746,7 +5880,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>44222</v>
       </c>
@@ -5769,7 +5903,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>44223</v>
       </c>
@@ -5789,7 +5923,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>44224</v>
       </c>
@@ -5806,7 +5940,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>44225</v>
       </c>
@@ -5832,7 +5966,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>44226</v>
       </c>
@@ -5849,7 +5983,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>44227</v>
       </c>
@@ -5869,10 +6003,10 @@
         <v>126</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>17</v>
       </c>
@@ -5881,7 +6015,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>18</v>
       </c>
@@ -5890,7 +6024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>161</v>
       </c>
@@ -5899,7 +6033,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>159</v>
       </c>
@@ -5908,154 +6042,154 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A41" s="8" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-    </row>
-    <row r="44" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+    </row>
+    <row r="44" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A47" s="9" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A48" s="9"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A49" s="9"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A50" s="9"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="11"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="11"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="11"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
     </row>
   </sheetData>
@@ -6085,21 +6219,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -6125,7 +6259,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44228</v>
       </c>
@@ -6145,7 +6279,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>44229</v>
       </c>
@@ -6165,7 +6299,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>44230</v>
       </c>
@@ -6191,7 +6325,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>44231</v>
       </c>
@@ -6211,7 +6345,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>44232</v>
       </c>
@@ -6231,7 +6365,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>44233</v>
       </c>
@@ -6254,7 +6388,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>44234</v>
       </c>
@@ -6274,7 +6408,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>44235</v>
       </c>
@@ -6294,7 +6428,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>44236</v>
       </c>
@@ -6314,7 +6448,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>44237</v>
       </c>
@@ -6334,7 +6468,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>44238</v>
       </c>
@@ -6357,7 +6491,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>44239</v>
       </c>
@@ -6374,7 +6508,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>44240</v>
       </c>
@@ -6397,7 +6531,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>44241</v>
       </c>
@@ -6420,7 +6554,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>44242</v>
       </c>
@@ -6437,7 +6571,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>44243</v>
       </c>
@@ -6454,7 +6588,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>44244</v>
       </c>
@@ -6477,7 +6611,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>44245</v>
       </c>
@@ -6497,7 +6631,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>44246</v>
       </c>
@@ -6514,7 +6648,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>44247</v>
       </c>
@@ -6534,7 +6668,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>44248</v>
       </c>
@@ -6554,7 +6688,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>44249</v>
       </c>
@@ -6571,7 +6705,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>44250</v>
       </c>
@@ -6589,7 +6723,7 @@
       </c>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>44251</v>
       </c>
@@ -6606,7 +6740,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>44252</v>
       </c>
@@ -6623,7 +6757,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>44253</v>
       </c>
@@ -6649,7 +6783,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>44254</v>
       </c>
@@ -6672,7 +6806,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>44255</v>
       </c>
@@ -6692,19 +6826,19 @@
         <v>154</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>12</v>
       </c>
@@ -6713,7 +6847,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>18</v>
       </c>
@@ -6722,7 +6856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>161</v>
       </c>
@@ -6731,7 +6865,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>159</v>
       </c>
@@ -6740,125 +6874,125 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A41" s="10" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-    </row>
-    <row r="42" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="10"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+    </row>
+    <row r="42" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="12"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
     </row>
   </sheetData>
@@ -6888,20 +7022,20 @@
   <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -6927,7 +7061,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>44256</v>
       </c>
@@ -6950,7 +7084,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>44257</v>
       </c>
@@ -6973,7 +7107,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>44258</v>
       </c>
@@ -6999,7 +7133,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>44259</v>
       </c>
@@ -7022,7 +7156,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>44260</v>
       </c>
@@ -7042,7 +7176,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>44261</v>
       </c>
@@ -7062,7 +7196,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>44262</v>
       </c>
@@ -7085,7 +7219,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>44263</v>
       </c>
@@ -7105,7 +7239,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>44264</v>
       </c>
@@ -7125,7 +7259,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>44265</v>
       </c>
@@ -7145,7 +7279,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>44266</v>
       </c>
@@ -7165,7 +7299,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>44267</v>
       </c>
@@ -7185,7 +7319,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>44268</v>
       </c>
@@ -7208,7 +7342,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>44269</v>
       </c>
@@ -7231,7 +7365,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>44270</v>
       </c>
@@ -7248,7 +7382,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>44271</v>
       </c>
@@ -7265,7 +7399,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>44272</v>
       </c>
@@ -7285,7 +7419,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>44273</v>
       </c>
@@ -7305,7 +7439,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>44274</v>
       </c>
@@ -7322,7 +7456,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>44275</v>
       </c>
@@ -7342,7 +7476,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>44276</v>
       </c>
@@ -7359,69 +7493,129 @@
         <v>315</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>44277</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B23">
+        <v>191</v>
+      </c>
+      <c r="C23" t="s">
+        <v>316</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="E23" t="s">
+        <v>318</v>
+      </c>
+      <c r="G23" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>44278</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B24">
+        <v>341</v>
+      </c>
+      <c r="C24" t="s">
+        <v>332</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="E24" t="s">
+        <v>334</v>
+      </c>
+      <c r="F24" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>44279</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B25">
+        <v>456</v>
+      </c>
+      <c r="C25" t="s">
+        <v>339</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="E25" t="s">
+        <v>341</v>
+      </c>
+      <c r="F25" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>44280</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B26">
+        <v>82</v>
+      </c>
+      <c r="C26" t="s">
+        <v>343</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="E26" t="s">
+        <v>345</v>
+      </c>
+      <c r="F26" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>44281</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>44282</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>44283</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>44284</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>44285</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>44286</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B34">
         <f>COUNTIF(E2:E32,"自己做出")</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>18</v>
       </c>
@@ -7430,7 +7624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>161</v>
       </c>
@@ -7439,122 +7633,122 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>159</v>
       </c>
       <c r="B37">
         <f>COUNTIF(E2:E32,"CV后没看懂")</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="7"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="7"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="7"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="7"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="7"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="7"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="7"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="7"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="7"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="7"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="7"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="7"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="7"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="7"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="7"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="7"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="7"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="7"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="7"/>
     </row>
   </sheetData>
@@ -7577,6 +7771,203 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7E155D1-3726-47FD-AAAF-A8D96547A548}">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.88671875" customWidth="1"/>
+    <col min="6" max="6" width="43.77734375" customWidth="1"/>
+    <col min="7" max="7" width="38.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="9">
+        <v>44276</v>
+      </c>
+      <c r="D1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1800</v>
+      </c>
+      <c r="B4" t="s">
+        <v>321</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1801</v>
+      </c>
+      <c r="B5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>327</v>
+      </c>
+      <c r="E5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1802</v>
+      </c>
+      <c r="B6" t="s">
+        <v>329</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>160</v>
+      </c>
+      <c r="E6" t="s">
+        <v>336</v>
+      </c>
+      <c r="F6" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1803</v>
+      </c>
+      <c r="B7" t="s">
+        <v>331</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E7" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>324</v>
+      </c>
+      <c r="B12">
+        <v>751</v>
+      </c>
+      <c r="C12" t="s">
+        <v>325</v>
+      </c>
+      <c r="D12">
+        <v>5009</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>323</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B14:F18"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3" xr:uid="{8EF3AFFC-EF64-4ED4-96A5-DC41611CC656}">
+      <formula1>"自己做出,CV,看思路写出"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D10" xr:uid="{996D2821-8576-43BB-9779-63E75D8F444F}">
+      <formula1>"竞赛中自己做出,竞赛后自己做出,CV后看懂,CV后没看懂,看思路写出"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 C5:C10" xr:uid="{8FD6FF24-1A23-4478-A0D5-6CE5AFF2B79C}">
+      <formula1>"简单,中等,困难"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5F7AB7F-19BA-433D-94B4-F40C8CC2BB92}">
   <dimension ref="A1:H72"/>
   <sheetViews>
@@ -7584,16 +7975,16 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -7619,105 +8010,105 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43831</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>12</v>
       </c>
@@ -7726,7 +8117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>18</v>
       </c>
@@ -7735,7 +8126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>161</v>
       </c>
@@ -7744,7 +8135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>159</v>
       </c>
@@ -7753,109 +8144,109 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
     </row>
   </sheetData>
@@ -7874,4 +8265,123 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAB84B29-E993-41B4-A125-3B08DA58CFA6}">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.88671875" customWidth="1"/>
+    <col min="6" max="6" width="43.77734375" customWidth="1"/>
+    <col min="7" max="7" width="38.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="D1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>324</v>
+      </c>
+      <c r="C12" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>323</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B14:F18"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C10" xr:uid="{5704F41B-B049-4AB6-9F48-014707C5834A}">
+      <formula1>"简单,中等,困难"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3" xr:uid="{B8F76278-C9B0-4A6F-872E-2276B481700D}">
+      <formula1>"自己做出,CV,看思路写出"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D10" xr:uid="{6C3D821E-4578-4981-9FE0-B7BEB6C18383}">
+      <formula1>"竞赛中自己做出,竞赛后自己做出,CV后看懂,CV后没看懂,看思路写出"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/力扣做题情况.xlsx
+++ b/力扣做题情况.xlsx
@@ -3,24 +3,26 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20372"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8936155-3109-4C36-A2B0-AC699E091004}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7BC077E-4815-4DEB-8CAC-7464C4EEAA08}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16152" windowHeight="8508" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="21年1月" sheetId="2" r:id="rId1"/>
     <sheet name="21年2月" sheetId="3" r:id="rId2"/>
     <sheet name="21年3月" sheetId="7" r:id="rId3"/>
-    <sheet name="第233场周赛" sheetId="12" r:id="rId4"/>
-    <sheet name="模板" sheetId="5" r:id="rId5"/>
-    <sheet name="竞赛模板" sheetId="9" r:id="rId6"/>
+    <sheet name="汇总" sheetId="13" r:id="rId4"/>
+    <sheet name="第233场周赛" sheetId="12" r:id="rId5"/>
+    <sheet name="第234场周赛" sheetId="15" r:id="rId6"/>
+    <sheet name="模板" sheetId="5" r:id="rId7"/>
+    <sheet name="竞赛模板" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="368">
   <si>
     <t>种花问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1397,6 +1399,90 @@
   </si>
   <si>
     <t>链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除排序链表中的重复元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋转链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二叉搜索树迭代器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CV后没看懂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迭代器&amp;&amp;中序遍历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第234场周赛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串中不同整数的数目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正则表达式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还原排列的最少操作步数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞赛中自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>替换字符串中的括号内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧拉定理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好因子的最大数目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速幂&amp;&amp;转化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一次力扣竞赛全AC，还说啥呢，只有高兴咯。虽然题目确实简单点，排名比之前最好一次（484）还下降了，但现在就是非常兴奋啊。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1452,7 +1538,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1469,6 +1555,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -2203,7 +2292,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>19</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -2212,7 +2301,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5305,17 +5394,17 @@
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="52.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="52.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -5341,7 +5430,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>44197</v>
       </c>
@@ -5364,7 +5453,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="6">
         <v>44198</v>
       </c>
@@ -5390,7 +5479,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>44199</v>
       </c>
@@ -5407,7 +5496,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>44200</v>
       </c>
@@ -5424,7 +5513,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>44201</v>
       </c>
@@ -5441,7 +5530,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>44202</v>
       </c>
@@ -5467,7 +5556,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>44203</v>
       </c>
@@ -5493,7 +5582,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <v>44204</v>
       </c>
@@ -5513,7 +5602,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>44205</v>
       </c>
@@ -5536,7 +5625,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>44206</v>
       </c>
@@ -5553,7 +5642,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>44207</v>
       </c>
@@ -5579,7 +5668,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>44208</v>
       </c>
@@ -5602,7 +5691,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>44209</v>
       </c>
@@ -5625,7 +5714,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
         <v>44210</v>
       </c>
@@ -5642,7 +5731,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
         <v>44211</v>
       </c>
@@ -5665,7 +5754,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
         <v>44212</v>
       </c>
@@ -5688,7 +5777,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
         <v>44213</v>
       </c>
@@ -5708,7 +5797,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="6">
         <v>44214</v>
       </c>
@@ -5731,7 +5820,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="6">
         <v>44215</v>
       </c>
@@ -5754,7 +5843,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="6">
         <v>44216</v>
       </c>
@@ -5774,7 +5863,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="6">
         <v>44217</v>
       </c>
@@ -5800,7 +5889,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="6">
         <v>44218</v>
       </c>
@@ -5820,7 +5909,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="6">
         <v>44219</v>
       </c>
@@ -5840,7 +5929,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="6">
         <v>44220</v>
       </c>
@@ -5860,7 +5949,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="6">
         <v>44221</v>
       </c>
@@ -5880,7 +5969,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="6">
         <v>44222</v>
       </c>
@@ -5903,7 +5992,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="6">
         <v>44223</v>
       </c>
@@ -5923,7 +6012,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="6">
         <v>44224</v>
       </c>
@@ -5940,7 +6029,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="6">
         <v>44225</v>
       </c>
@@ -5966,7 +6055,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="6">
         <v>44226</v>
       </c>
@@ -5983,7 +6072,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="6">
         <v>44227</v>
       </c>
@@ -6003,10 +6092,10 @@
         <v>126</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>17</v>
       </c>
@@ -6015,7 +6104,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>18</v>
       </c>
@@ -6024,7 +6113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>161</v>
       </c>
@@ -6033,7 +6122,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>159</v>
       </c>
@@ -6042,154 +6131,154 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="10" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="10"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-    </row>
-    <row r="44" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="10"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+    </row>
+    <row r="44" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="11" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A47" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="11"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="11"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="11"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A48" s="12"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A49" s="12"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A50" s="12"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" s="1"/>
       <c r="B52" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="1"/>
     </row>
   </sheetData>
@@ -6223,17 +6312,17 @@
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -6259,7 +6348,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>44228</v>
       </c>
@@ -6279,7 +6368,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="6">
         <v>44229</v>
       </c>
@@ -6299,7 +6388,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>44230</v>
       </c>
@@ -6325,7 +6414,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>44231</v>
       </c>
@@ -6345,7 +6434,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>44232</v>
       </c>
@@ -6365,7 +6454,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>44233</v>
       </c>
@@ -6388,7 +6477,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>44234</v>
       </c>
@@ -6408,7 +6497,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <v>44235</v>
       </c>
@@ -6428,7 +6517,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>44236</v>
       </c>
@@ -6448,7 +6537,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>44237</v>
       </c>
@@ -6468,7 +6557,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>44238</v>
       </c>
@@ -6491,7 +6580,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>44239</v>
       </c>
@@ -6508,7 +6597,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>44240</v>
       </c>
@@ -6531,7 +6620,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
         <v>44241</v>
       </c>
@@ -6554,7 +6643,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
         <v>44242</v>
       </c>
@@ -6571,7 +6660,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
         <v>44243</v>
       </c>
@@ -6588,7 +6677,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
         <v>44244</v>
       </c>
@@ -6611,7 +6700,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="6">
         <v>44245</v>
       </c>
@@ -6631,7 +6720,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="6">
         <v>44246</v>
       </c>
@@ -6648,7 +6737,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="6">
         <v>44247</v>
       </c>
@@ -6668,7 +6757,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="6">
         <v>44248</v>
       </c>
@@ -6688,7 +6777,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="6">
         <v>44249</v>
       </c>
@@ -6705,7 +6794,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="6">
         <v>44250</v>
       </c>
@@ -6723,7 +6812,7 @@
       </c>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="6">
         <v>44251</v>
       </c>
@@ -6740,7 +6829,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="6">
         <v>44252</v>
       </c>
@@ -6757,7 +6846,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="6">
         <v>44253</v>
       </c>
@@ -6783,7 +6872,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="6">
         <v>44254</v>
       </c>
@@ -6806,7 +6895,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="6">
         <v>44255</v>
       </c>
@@ -6826,19 +6915,19 @@
         <v>154</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="2"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
         <v>12</v>
       </c>
@@ -6847,7 +6936,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
         <v>18</v>
       </c>
@@ -6856,7 +6945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
         <v>161</v>
       </c>
@@ -6865,7 +6954,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
         <v>159</v>
       </c>
@@ -6874,125 +6963,125 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="12" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-    </row>
-    <row r="42" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="12"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+    </row>
+    <row r="42" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="13"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="1"/>
     </row>
   </sheetData>
@@ -7021,21 +7110,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E3CE38-BCB5-47B2-9D37-77FB04031B7A}">
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -7061,7 +7150,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="7">
         <v>44256</v>
       </c>
@@ -7084,7 +7173,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="7">
         <v>44257</v>
       </c>
@@ -7107,7 +7196,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
         <v>44258</v>
       </c>
@@ -7133,7 +7222,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
         <v>44259</v>
       </c>
@@ -7156,7 +7245,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
         <v>44260</v>
       </c>
@@ -7176,7 +7265,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
         <v>44261</v>
       </c>
@@ -7196,7 +7285,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="7">
         <v>44262</v>
       </c>
@@ -7219,7 +7308,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
         <v>44263</v>
       </c>
@@ -7239,7 +7328,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
         <v>44264</v>
       </c>
@@ -7259,7 +7348,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
         <v>44265</v>
       </c>
@@ -7279,7 +7368,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="7">
         <v>44266</v>
       </c>
@@ -7299,7 +7388,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
         <v>44267</v>
       </c>
@@ -7319,7 +7408,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="7">
         <v>44268</v>
       </c>
@@ -7342,7 +7431,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="7">
         <v>44269</v>
       </c>
@@ -7365,7 +7454,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="7">
         <v>44270</v>
       </c>
@@ -7382,7 +7471,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="7">
         <v>44271</v>
       </c>
@@ -7399,7 +7488,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="7">
         <v>44272</v>
       </c>
@@ -7419,7 +7508,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="7">
         <v>44273</v>
       </c>
@@ -7439,7 +7528,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="7">
         <v>44274</v>
       </c>
@@ -7456,7 +7545,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="7">
         <v>44275</v>
       </c>
@@ -7476,7 +7565,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="7">
         <v>44276</v>
       </c>
@@ -7493,7 +7582,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="7">
         <v>44277</v>
       </c>
@@ -7513,7 +7602,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="7">
         <v>44278</v>
       </c>
@@ -7533,7 +7622,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="7">
         <v>44279</v>
       </c>
@@ -7553,7 +7642,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="7">
         <v>44280</v>
       </c>
@@ -7573,49 +7662,94 @@
         <v>346</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="7">
         <v>44281</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>83</v>
+      </c>
+      <c r="C27" t="s">
+        <v>347</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="E27" t="s">
+        <v>349</v>
+      </c>
+      <c r="F27" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="7">
         <v>44282</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>61</v>
+      </c>
+      <c r="C28" t="s">
+        <v>351</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="E28" t="s">
+        <v>353</v>
+      </c>
+      <c r="F28" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="7">
         <v>44283</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>173</v>
+      </c>
+      <c r="C29" t="s">
+        <v>355</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="E29" t="s">
+        <v>356</v>
+      </c>
+      <c r="F29" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="7">
         <v>44284</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="7">
         <v>44285</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="7">
         <v>44286</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="7"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B34">
         <f>COUNTIF(E2:E32,"自己做出")</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="7" t="s">
         <v>18</v>
       </c>
@@ -7624,7 +7758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="7" t="s">
         <v>161</v>
       </c>
@@ -7633,122 +7767,122 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="7" t="s">
         <v>159</v>
       </c>
       <c r="B37">
         <f>COUNTIF(E2:E32,"CV后没看懂")</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="7"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="7"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="7"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="7"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="7" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="7" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="7"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="7"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="7"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="7"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="7"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="7"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="7"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="7"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="7"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="7"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="7"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="7"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="7"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="7"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="7"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="7"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="7"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="7"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="7"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="7"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="7"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="7"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="7"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="7"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="7"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="7"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="7"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="7"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="7"/>
     </row>
   </sheetData>
@@ -7771,6 +7905,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{331E5CE9-5CE4-4273-8853-6A1A1E6D1622}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7E155D1-3726-47FD-AAAF-A8D96547A548}">
   <dimension ref="A1:G18"/>
   <sheetViews>
@@ -7778,16 +7927,16 @@
       <selection activeCell="B14" sqref="B14:F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.88671875" customWidth="1"/>
-    <col min="6" max="6" width="43.77734375" customWidth="1"/>
-    <col min="7" max="7" width="38.77734375" customWidth="1"/>
+    <col min="2" max="2" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.875" customWidth="1"/>
+    <col min="6" max="6" width="43.75" customWidth="1"/>
+    <col min="7" max="7" width="38.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -7801,7 +7950,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -7824,7 +7973,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1800</v>
       </c>
@@ -7838,7 +7987,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1801</v>
       </c>
@@ -7855,7 +8004,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>1802</v>
       </c>
@@ -7875,7 +8024,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>1803</v>
       </c>
@@ -7892,7 +8041,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>324</v>
       </c>
@@ -7906,45 +8055,45 @@
         <v>5009</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>323</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="14" t="s">
         <v>338</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7967,7 +8116,207 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7779A6DF-2966-4199-813B-6E8194F79931}">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="33.375" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.875" customWidth="1"/>
+    <col min="6" max="6" width="43.75" customWidth="1"/>
+    <col min="7" max="7" width="38.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="10">
+        <v>44283</v>
+      </c>
+      <c r="D1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>5713</v>
+      </c>
+      <c r="B4" t="s">
+        <v>359</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>327</v>
+      </c>
+      <c r="E4" t="s">
+        <v>360</v>
+      </c>
+      <c r="G4" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>5715</v>
+      </c>
+      <c r="B5" t="s">
+        <v>361</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>362</v>
+      </c>
+      <c r="G5" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5714</v>
+      </c>
+      <c r="B6" t="s">
+        <v>363</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>362</v>
+      </c>
+      <c r="E6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>5716</v>
+      </c>
+      <c r="B7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>362</v>
+      </c>
+      <c r="E7" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>324</v>
+      </c>
+      <c r="B12">
+        <v>514</v>
+      </c>
+      <c r="C12" t="s">
+        <v>325</v>
+      </c>
+      <c r="D12">
+        <v>4996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B14:F18"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D10" xr:uid="{3EE4BF03-57FD-4557-B837-C302FB366818}">
+      <formula1>"竞赛中自己做出,竞赛后自己做出,CV后看懂,CV后没看懂,看思路写出"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3" xr:uid="{E245B76A-CDE2-4E7F-A578-D41B2CF76AB1}">
+      <formula1>"自己做出,CV,看思路写出"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C10" xr:uid="{9E6F9FF0-4FA3-4138-B04F-1CE60F36F908}">
+      <formula1>"简单,中等,困难"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5F7AB7F-19BA-433D-94B4-F40C8CC2BB92}">
   <dimension ref="A1:H72"/>
   <sheetViews>
@@ -7975,16 +8324,16 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -8010,105 +8359,105 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>43831</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
         <v>12</v>
       </c>
@@ -8117,7 +8466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
         <v>18</v>
       </c>
@@ -8126,7 +8475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
         <v>161</v>
       </c>
@@ -8135,7 +8484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
         <v>159</v>
       </c>
@@ -8144,109 +8493,109 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="1"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="1"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="1"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="1"/>
     </row>
   </sheetData>
@@ -8267,7 +8616,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAB84B29-E993-41B4-A125-3B08DA58CFA6}">
   <dimension ref="A1:G18"/>
   <sheetViews>
@@ -8275,16 +8624,16 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.88671875" customWidth="1"/>
-    <col min="6" max="6" width="43.77734375" customWidth="1"/>
-    <col min="7" max="7" width="38.77734375" customWidth="1"/>
+    <col min="2" max="2" width="33.375" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.875" customWidth="1"/>
+    <col min="6" max="6" width="43.75" customWidth="1"/>
+    <col min="7" max="7" width="38.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -8296,7 +8645,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -8319,7 +8668,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>324</v>
       </c>
@@ -8327,43 +8676,43 @@
         <v>325</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>323</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/力扣做题情况.xlsx
+++ b/力扣做题情况.xlsx
@@ -3,26 +3,27 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20372"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7BC077E-4815-4DEB-8CAC-7464C4EEAA08}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A56FC5C-9865-411F-B7DB-BAB5FB64AEB2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="16152" windowHeight="8508" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="21年1月" sheetId="2" r:id="rId1"/>
     <sheet name="21年2月" sheetId="3" r:id="rId2"/>
     <sheet name="21年3月" sheetId="7" r:id="rId3"/>
-    <sheet name="汇总" sheetId="13" r:id="rId4"/>
-    <sheet name="第233场周赛" sheetId="12" r:id="rId5"/>
-    <sheet name="第234场周赛" sheetId="15" r:id="rId6"/>
-    <sheet name="模板" sheetId="5" r:id="rId7"/>
-    <sheet name="竞赛模板" sheetId="9" r:id="rId8"/>
+    <sheet name="21年4月" sheetId="17" r:id="rId4"/>
+    <sheet name="汇总" sheetId="13" r:id="rId5"/>
+    <sheet name="第233场周赛" sheetId="12" r:id="rId6"/>
+    <sheet name="第234场周赛" sheetId="15" r:id="rId7"/>
+    <sheet name="模板" sheetId="5" r:id="rId8"/>
+    <sheet name="竞赛模板" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="384">
   <si>
     <t>种花问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1483,6 +1484,70 @@
   </si>
   <si>
     <t>第一次力扣竞赛全AC，还说啥呢，只有高兴咯。虽然题目确实简单点，排名比之前最好一次（484）还下降了，但现在就是非常兴奋啊。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颠倒二进制位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位运算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位运算分治</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索二维矩阵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二分查找</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++库binary_search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子集II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子集求法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笨阶乘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>栈/数学规律</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1538,7 +1603,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1555,6 +1620,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -2292,7 +2360,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>21</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -2400,6 +2468,272 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-5432-414B-9E23-6D1F7771AC9F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-5432-414B-9E23-6D1F7771AC9F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-5432-414B-9E23-6D1F7771AC9F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-5432-414B-9E23-6D1F7771AC9F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'21年4月'!$A$34:$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>自己做出</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>看思路做出</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CV后看懂</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CV后没看懂</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'21年4月'!$B$34:$B$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-5432-414B-9E23-6D1F7771AC9F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -2825,6 +3159,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
@@ -4383,6 +4757,525 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5027,6 +5920,49 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1066800</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5D2F88F-5BFD-4744-B401-FBC7C5986271}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5394,17 +6330,17 @@
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="52.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="52.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -5430,7 +6366,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44197</v>
       </c>
@@ -5453,7 +6389,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>44198</v>
       </c>
@@ -5479,7 +6415,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>44199</v>
       </c>
@@ -5496,7 +6432,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>44200</v>
       </c>
@@ -5513,7 +6449,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>44201</v>
       </c>
@@ -5530,7 +6466,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>44202</v>
       </c>
@@ -5556,7 +6492,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>44203</v>
       </c>
@@ -5582,7 +6518,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>44204</v>
       </c>
@@ -5602,7 +6538,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>44205</v>
       </c>
@@ -5625,7 +6561,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>44206</v>
       </c>
@@ -5642,7 +6578,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>44207</v>
       </c>
@@ -5668,7 +6604,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>44208</v>
       </c>
@@ -5691,7 +6627,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>44209</v>
       </c>
@@ -5714,7 +6650,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>44210</v>
       </c>
@@ -5731,7 +6667,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>44211</v>
       </c>
@@ -5754,7 +6690,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>44212</v>
       </c>
@@ -5777,7 +6713,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>44213</v>
       </c>
@@ -5797,7 +6733,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>44214</v>
       </c>
@@ -5820,7 +6756,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>44215</v>
       </c>
@@ -5843,7 +6779,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>44216</v>
       </c>
@@ -5863,7 +6799,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>44217</v>
       </c>
@@ -5889,7 +6825,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>44218</v>
       </c>
@@ -5909,7 +6845,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>44219</v>
       </c>
@@ -5929,7 +6865,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>44220</v>
       </c>
@@ -5949,7 +6885,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>44221</v>
       </c>
@@ -5969,7 +6905,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>44222</v>
       </c>
@@ -5992,7 +6928,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>44223</v>
       </c>
@@ -6012,7 +6948,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>44224</v>
       </c>
@@ -6029,7 +6965,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>44225</v>
       </c>
@@ -6055,7 +6991,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>44226</v>
       </c>
@@ -6072,7 +7008,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>44227</v>
       </c>
@@ -6092,10 +7028,10 @@
         <v>126</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>17</v>
       </c>
@@ -6104,7 +7040,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>18</v>
       </c>
@@ -6113,7 +7049,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>161</v>
       </c>
@@ -6122,7 +7058,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>159</v>
       </c>
@@ -6131,154 +7067,154 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A41" s="11" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-    </row>
-    <row r="44" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="11"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="12"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="12"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+    </row>
+    <row r="44" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="12"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A47" s="12" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A48" s="12"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A49" s="12"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A50" s="12"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="13"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="13"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="13"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
     </row>
   </sheetData>
@@ -6308,21 +7244,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -6348,7 +7284,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44228</v>
       </c>
@@ -6368,7 +7304,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>44229</v>
       </c>
@@ -6388,7 +7324,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>44230</v>
       </c>
@@ -6414,7 +7350,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>44231</v>
       </c>
@@ -6434,7 +7370,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>44232</v>
       </c>
@@ -6454,7 +7390,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>44233</v>
       </c>
@@ -6477,7 +7413,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>44234</v>
       </c>
@@ -6497,7 +7433,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>44235</v>
       </c>
@@ -6517,7 +7453,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>44236</v>
       </c>
@@ -6537,7 +7473,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>44237</v>
       </c>
@@ -6557,7 +7493,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>44238</v>
       </c>
@@ -6580,7 +7516,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>44239</v>
       </c>
@@ -6597,7 +7533,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>44240</v>
       </c>
@@ -6620,7 +7556,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>44241</v>
       </c>
@@ -6643,7 +7579,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>44242</v>
       </c>
@@ -6660,7 +7596,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>44243</v>
       </c>
@@ -6677,7 +7613,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>44244</v>
       </c>
@@ -6700,7 +7636,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>44245</v>
       </c>
@@ -6720,7 +7656,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>44246</v>
       </c>
@@ -6737,7 +7673,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>44247</v>
       </c>
@@ -6757,7 +7693,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>44248</v>
       </c>
@@ -6777,7 +7713,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>44249</v>
       </c>
@@ -6794,7 +7730,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>44250</v>
       </c>
@@ -6812,7 +7748,7 @@
       </c>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>44251</v>
       </c>
@@ -6829,7 +7765,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>44252</v>
       </c>
@@ -6846,7 +7782,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>44253</v>
       </c>
@@ -6872,7 +7808,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>44254</v>
       </c>
@@ -6895,7 +7831,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>44255</v>
       </c>
@@ -6915,19 +7851,19 @@
         <v>154</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>12</v>
       </c>
@@ -6936,7 +7872,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>18</v>
       </c>
@@ -6945,7 +7881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>161</v>
       </c>
@@ -6954,7 +7890,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>159</v>
       </c>
@@ -6963,125 +7899,125 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A41" s="13" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-    </row>
-    <row r="42" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="13"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+    </row>
+    <row r="42" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="14"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
     </row>
   </sheetData>
@@ -7110,21 +8046,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E3CE38-BCB5-47B2-9D37-77FB04031B7A}">
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -7150,7 +8086,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>44256</v>
       </c>
@@ -7173,7 +8109,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>44257</v>
       </c>
@@ -7196,7 +8132,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>44258</v>
       </c>
@@ -7222,7 +8158,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>44259</v>
       </c>
@@ -7245,7 +8181,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>44260</v>
       </c>
@@ -7265,7 +8201,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>44261</v>
       </c>
@@ -7285,7 +8221,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>44262</v>
       </c>
@@ -7308,7 +8244,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>44263</v>
       </c>
@@ -7328,7 +8264,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>44264</v>
       </c>
@@ -7348,7 +8284,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>44265</v>
       </c>
@@ -7368,7 +8304,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>44266</v>
       </c>
@@ -7388,7 +8324,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>44267</v>
       </c>
@@ -7408,7 +8344,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>44268</v>
       </c>
@@ -7431,7 +8367,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>44269</v>
       </c>
@@ -7454,7 +8390,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>44270</v>
       </c>
@@ -7471,7 +8407,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>44271</v>
       </c>
@@ -7488,7 +8424,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>44272</v>
       </c>
@@ -7508,7 +8444,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>44273</v>
       </c>
@@ -7528,7 +8464,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>44274</v>
       </c>
@@ -7545,7 +8481,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>44275</v>
       </c>
@@ -7565,7 +8501,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>44276</v>
       </c>
@@ -7582,7 +8518,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>44277</v>
       </c>
@@ -7602,7 +8538,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>44278</v>
       </c>
@@ -7622,7 +8558,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>44279</v>
       </c>
@@ -7642,7 +8578,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>44280</v>
       </c>
@@ -7662,7 +8598,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>44281</v>
       </c>
@@ -7682,7 +8618,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>44282</v>
       </c>
@@ -7702,7 +8638,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>44283</v>
       </c>
@@ -7722,34 +8658,85 @@
         <v>357</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>44284</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B30">
+        <v>190</v>
+      </c>
+      <c r="C30" t="s">
+        <v>368</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="E30" t="s">
+        <v>370</v>
+      </c>
+      <c r="F30" t="s">
+        <v>371</v>
+      </c>
+      <c r="H30" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>44285</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B31">
+        <v>74</v>
+      </c>
+      <c r="C31" t="s">
+        <v>373</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="E31" t="s">
+        <v>375</v>
+      </c>
+      <c r="F31" t="s">
+        <v>376</v>
+      </c>
+      <c r="G31" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>44286</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B32">
+        <v>90</v>
+      </c>
+      <c r="C32" t="s">
+        <v>378</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="E32" t="s">
+        <v>380</v>
+      </c>
+      <c r="F32" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B34">
         <f>COUNTIF(E2:E32,"自己做出")</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>18</v>
       </c>
@@ -7758,7 +8745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>161</v>
       </c>
@@ -7767,7 +8754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>159</v>
       </c>
@@ -7776,113 +8763,113 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="7"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="7"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="7"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="7"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="7"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="7"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="7"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="7"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="7"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="7"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="7"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="7"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="7"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="7"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="7"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="7"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="7"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="7"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="7"/>
     </row>
   </sheetData>
@@ -7905,6 +8892,380 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B4EF25-1DEF-4C93-99CA-0D75FA661450}">
+  <dimension ref="A1:H72"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
+        <v>44287</v>
+      </c>
+      <c r="B2">
+        <v>1006</v>
+      </c>
+      <c r="C2" t="s">
+        <v>382</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>44288</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>44289</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>44290</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>44291</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>44292</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>44293</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>44294</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>44295</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>44296</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>44297</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>44298</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>44299</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>44300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>44301</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>44302</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>44303</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>44304</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>44305</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>44306</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>44308</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>44309</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <v>44310</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <v>44311</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
+        <v>44312</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
+        <v>44313</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
+        <v>44314</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="11">
+        <v>44315</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="11">
+        <v>44316</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="11"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="11"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34">
+        <f>COUNTIF(E2:E32,"自己做出")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35">
+        <f>COUNTIF(E2:E32,"看思路写出")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="B36">
+        <f>COUNTIF(E2:E32,"CV后看懂")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B37">
+        <f>COUNTIF(E2:E32,"CV后没看懂")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="11"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="11"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="11"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="11"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="11"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="11"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="11"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="11"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="11"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="11"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="11"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="11"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="11"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="11"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="11"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="11"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="11"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="11"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="11"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="11"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="11"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="11"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="11"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="11"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="11"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="11"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="11"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="11"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="11"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="11"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="11"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="11"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="11"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="11"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="11"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E32" xr:uid="{07630DC1-6325-46F2-9018-355B250208A3}">
+      <formula1>"自己做出,CV后看懂,CV后没看懂,看思路写出"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E33:E1048576" xr:uid="{8EFF4BAE-9F82-4439-A850-58094CA19B93}">
+      <formula1>"自己做出,CV,看思路写出"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{89F05427-6115-4063-8A6F-9AD3D9D43056}">
+      <formula1>"简单,中等,困难"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{331E5CE9-5CE4-4273-8853-6A1A1E6D1622}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -7912,14 +9273,14 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7E155D1-3726-47FD-AAAF-A8D96547A548}">
   <dimension ref="A1:G18"/>
   <sheetViews>
@@ -7927,16 +9288,16 @@
       <selection activeCell="B14" sqref="B14:F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.875" customWidth="1"/>
-    <col min="6" max="6" width="43.75" customWidth="1"/>
-    <col min="7" max="7" width="38.75" customWidth="1"/>
+    <col min="2" max="2" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.88671875" customWidth="1"/>
+    <col min="6" max="6" width="43.77734375" customWidth="1"/>
+    <col min="7" max="7" width="38.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -7950,7 +9311,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -7973,7 +9334,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1800</v>
       </c>
@@ -7987,7 +9348,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1801</v>
       </c>
@@ -8004,7 +9365,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1802</v>
       </c>
@@ -8024,7 +9385,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1803</v>
       </c>
@@ -8041,7 +9402,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>324</v>
       </c>
@@ -8055,45 +9416,45 @@
         <v>5009</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>323</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="15" t="s">
         <v>338</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8116,24 +9477,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7779A6DF-2966-4199-813B-6E8194F79931}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.375" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.875" customWidth="1"/>
-    <col min="6" max="6" width="43.75" customWidth="1"/>
-    <col min="7" max="7" width="38.75" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.88671875" customWidth="1"/>
+    <col min="6" max="6" width="43.77734375" customWidth="1"/>
+    <col min="7" max="7" width="38.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -8147,7 +9508,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -8170,7 +9531,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5713</v>
       </c>
@@ -8190,7 +9551,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5715</v>
       </c>
@@ -8207,7 +9568,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5714</v>
       </c>
@@ -8224,7 +9585,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5716</v>
       </c>
@@ -8241,7 +9602,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>324</v>
       </c>
@@ -8255,45 +9616,45 @@
         <v>4996</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>87</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="15" t="s">
         <v>367</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8316,7 +9677,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5F7AB7F-19BA-433D-94B4-F40C8CC2BB92}">
   <dimension ref="A1:H72"/>
   <sheetViews>
@@ -8324,16 +9685,16 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -8359,105 +9720,105 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43831</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>12</v>
       </c>
@@ -8466,7 +9827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>18</v>
       </c>
@@ -8475,7 +9836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>161</v>
       </c>
@@ -8484,7 +9845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>159</v>
       </c>
@@ -8493,109 +9854,109 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
     </row>
   </sheetData>
@@ -8616,7 +9977,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAB84B29-E993-41B4-A125-3B08DA58CFA6}">
   <dimension ref="A1:G18"/>
   <sheetViews>
@@ -8624,16 +9985,16 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.375" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.875" customWidth="1"/>
-    <col min="6" max="6" width="43.75" customWidth="1"/>
-    <col min="7" max="7" width="38.75" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.88671875" customWidth="1"/>
+    <col min="6" max="6" width="43.77734375" customWidth="1"/>
+    <col min="7" max="7" width="38.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -8645,7 +10006,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -8668,7 +10029,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>324</v>
       </c>
@@ -8676,43 +10037,43 @@
         <v>325</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>323</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/力扣做题情况.xlsx
+++ b/力扣做题情况.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20372"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A56FC5C-9865-411F-B7DB-BAB5FB64AEB2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E4B6FA-2955-4128-98BA-DA35B0ED8DF9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16152" windowHeight="8508" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="21年1月" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="399">
   <si>
     <t>种花问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1548,6 +1548,66 @@
   </si>
   <si>
     <t>栈/数学规律</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面试题17.21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直方图的水量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>困难</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单调栈/动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最长公共子序列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>森林中的兔子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪心&amp;&amp;哈希</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合并两个有序数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2626,13 +2686,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -6330,17 +6390,17 @@
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="52.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="52.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -6366,7 +6426,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>44197</v>
       </c>
@@ -6389,7 +6449,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="6">
         <v>44198</v>
       </c>
@@ -6415,7 +6475,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>44199</v>
       </c>
@@ -6432,7 +6492,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>44200</v>
       </c>
@@ -6449,7 +6509,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>44201</v>
       </c>
@@ -6466,7 +6526,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>44202</v>
       </c>
@@ -6492,7 +6552,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>44203</v>
       </c>
@@ -6518,7 +6578,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <v>44204</v>
       </c>
@@ -6538,7 +6598,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>44205</v>
       </c>
@@ -6561,7 +6621,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>44206</v>
       </c>
@@ -6578,7 +6638,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>44207</v>
       </c>
@@ -6604,7 +6664,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>44208</v>
       </c>
@@ -6627,7 +6687,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>44209</v>
       </c>
@@ -6650,7 +6710,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
         <v>44210</v>
       </c>
@@ -6667,7 +6727,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
         <v>44211</v>
       </c>
@@ -6690,7 +6750,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
         <v>44212</v>
       </c>
@@ -6713,7 +6773,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
         <v>44213</v>
       </c>
@@ -6733,7 +6793,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="6">
         <v>44214</v>
       </c>
@@ -6756,7 +6816,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="6">
         <v>44215</v>
       </c>
@@ -6779,7 +6839,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="6">
         <v>44216</v>
       </c>
@@ -6799,7 +6859,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="6">
         <v>44217</v>
       </c>
@@ -6825,7 +6885,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="6">
         <v>44218</v>
       </c>
@@ -6845,7 +6905,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="6">
         <v>44219</v>
       </c>
@@ -6865,7 +6925,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="6">
         <v>44220</v>
       </c>
@@ -6885,7 +6945,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="6">
         <v>44221</v>
       </c>
@@ -6905,7 +6965,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="6">
         <v>44222</v>
       </c>
@@ -6928,7 +6988,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="6">
         <v>44223</v>
       </c>
@@ -6948,7 +7008,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="6">
         <v>44224</v>
       </c>
@@ -6965,7 +7025,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="6">
         <v>44225</v>
       </c>
@@ -6991,7 +7051,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="6">
         <v>44226</v>
       </c>
@@ -7008,7 +7068,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="6">
         <v>44227</v>
       </c>
@@ -7028,10 +7088,10 @@
         <v>126</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>17</v>
       </c>
@@ -7040,7 +7100,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>18</v>
       </c>
@@ -7049,7 +7109,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>161</v>
       </c>
@@ -7058,7 +7118,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>159</v>
       </c>
@@ -7067,18 +7127,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="12" t="s">
         <v>127</v>
       </c>
@@ -7087,36 +7147,36 @@
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="12"/>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
       <c r="D42" s="12"/>
       <c r="E42" s="12"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
     </row>
-    <row r="44" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="12"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="13" t="s">
         <v>121</v>
       </c>
@@ -7125,96 +7185,96 @@
       <c r="D47" s="13"/>
       <c r="E47" s="13"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="13"/>
       <c r="B48" s="13"/>
       <c r="C48" s="13"/>
       <c r="D48" s="13"/>
       <c r="E48" s="13"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" s="13"/>
       <c r="B49" s="13"/>
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
       <c r="E49" s="13"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" s="13"/>
       <c r="B50" s="13"/>
       <c r="C50" s="13"/>
       <c r="D50" s="13"/>
       <c r="E50" s="13"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" s="1"/>
       <c r="B52" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="1"/>
     </row>
   </sheetData>
@@ -7248,17 +7308,17 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -7284,7 +7344,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>44228</v>
       </c>
@@ -7304,7 +7364,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="6">
         <v>44229</v>
       </c>
@@ -7324,7 +7384,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>44230</v>
       </c>
@@ -7350,7 +7410,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>44231</v>
       </c>
@@ -7370,7 +7430,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>44232</v>
       </c>
@@ -7390,7 +7450,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>44233</v>
       </c>
@@ -7413,7 +7473,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>44234</v>
       </c>
@@ -7433,7 +7493,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <v>44235</v>
       </c>
@@ -7453,7 +7513,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>44236</v>
       </c>
@@ -7473,7 +7533,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>44237</v>
       </c>
@@ -7493,7 +7553,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>44238</v>
       </c>
@@ -7516,7 +7576,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>44239</v>
       </c>
@@ -7533,7 +7593,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>44240</v>
       </c>
@@ -7556,7 +7616,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
         <v>44241</v>
       </c>
@@ -7579,7 +7639,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
         <v>44242</v>
       </c>
@@ -7596,7 +7656,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
         <v>44243</v>
       </c>
@@ -7613,7 +7673,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
         <v>44244</v>
       </c>
@@ -7636,7 +7696,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="6">
         <v>44245</v>
       </c>
@@ -7656,7 +7716,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="6">
         <v>44246</v>
       </c>
@@ -7673,7 +7733,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="6">
         <v>44247</v>
       </c>
@@ -7693,7 +7753,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="6">
         <v>44248</v>
       </c>
@@ -7713,7 +7773,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="6">
         <v>44249</v>
       </c>
@@ -7730,7 +7790,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="6">
         <v>44250</v>
       </c>
@@ -7748,7 +7808,7 @@
       </c>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="6">
         <v>44251</v>
       </c>
@@ -7765,7 +7825,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="6">
         <v>44252</v>
       </c>
@@ -7782,7 +7842,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="6">
         <v>44253</v>
       </c>
@@ -7808,7 +7868,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="6">
         <v>44254</v>
       </c>
@@ -7831,7 +7891,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="6">
         <v>44255</v>
       </c>
@@ -7851,19 +7911,19 @@
         <v>154</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="2"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
         <v>12</v>
       </c>
@@ -7872,7 +7932,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
         <v>18</v>
       </c>
@@ -7881,7 +7941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
         <v>161</v>
       </c>
@@ -7890,7 +7950,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
         <v>159</v>
       </c>
@@ -7899,18 +7959,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="14" t="s">
         <v>225</v>
       </c>
@@ -7919,105 +7979,105 @@
       <c r="D41" s="14"/>
       <c r="E41" s="14"/>
     </row>
-    <row r="42" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="14"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
       <c r="D42" s="14"/>
       <c r="E42" s="14"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="1"/>
     </row>
   </sheetData>
@@ -8050,17 +8110,17 @@
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -8086,7 +8146,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="7">
         <v>44256</v>
       </c>
@@ -8109,7 +8169,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="7">
         <v>44257</v>
       </c>
@@ -8132,7 +8192,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
         <v>44258</v>
       </c>
@@ -8158,7 +8218,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
         <v>44259</v>
       </c>
@@ -8181,7 +8241,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
         <v>44260</v>
       </c>
@@ -8201,7 +8261,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
         <v>44261</v>
       </c>
@@ -8221,7 +8281,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="7">
         <v>44262</v>
       </c>
@@ -8244,7 +8304,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
         <v>44263</v>
       </c>
@@ -8264,7 +8324,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
         <v>44264</v>
       </c>
@@ -8284,7 +8344,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
         <v>44265</v>
       </c>
@@ -8304,7 +8364,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="7">
         <v>44266</v>
       </c>
@@ -8324,7 +8384,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
         <v>44267</v>
       </c>
@@ -8344,7 +8404,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="7">
         <v>44268</v>
       </c>
@@ -8367,7 +8427,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="7">
         <v>44269</v>
       </c>
@@ -8390,7 +8450,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="7">
         <v>44270</v>
       </c>
@@ -8407,7 +8467,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="7">
         <v>44271</v>
       </c>
@@ -8424,7 +8484,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="7">
         <v>44272</v>
       </c>
@@ -8444,7 +8504,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="7">
         <v>44273</v>
       </c>
@@ -8464,7 +8524,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="7">
         <v>44274</v>
       </c>
@@ -8481,7 +8541,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="7">
         <v>44275</v>
       </c>
@@ -8501,7 +8561,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="7">
         <v>44276</v>
       </c>
@@ -8518,7 +8578,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="7">
         <v>44277</v>
       </c>
@@ -8538,7 +8598,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="7">
         <v>44278</v>
       </c>
@@ -8558,7 +8618,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="7">
         <v>44279</v>
       </c>
@@ -8578,7 +8638,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="7">
         <v>44280</v>
       </c>
@@ -8598,7 +8658,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="7">
         <v>44281</v>
       </c>
@@ -8618,7 +8678,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="7">
         <v>44282</v>
       </c>
@@ -8638,7 +8698,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="7">
         <v>44283</v>
       </c>
@@ -8658,7 +8718,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="7">
         <v>44284</v>
       </c>
@@ -8681,7 +8741,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="7">
         <v>44285</v>
       </c>
@@ -8704,7 +8764,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="7">
         <v>44286</v>
       </c>
@@ -8724,10 +8784,10 @@
         <v>381</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="7"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="7" t="s">
         <v>12</v>
       </c>
@@ -8736,7 +8796,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="7" t="s">
         <v>18</v>
       </c>
@@ -8745,7 +8805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="7" t="s">
         <v>161</v>
       </c>
@@ -8754,7 +8814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="7" t="s">
         <v>159</v>
       </c>
@@ -8763,113 +8823,113 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="7"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="7"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="7"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="7"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="7" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="7" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="7"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="7"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="7"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="7"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="7"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="7"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="7"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="7"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="7"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="7"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="7"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="7"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="7"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="7"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="7"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="7"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="7"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="7"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="7"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="7"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="7"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="7"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="7"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="7"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="7"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="7"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="7"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="7"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="7"/>
     </row>
   </sheetData>
@@ -8896,19 +8956,20 @@
   <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -8934,7 +8995,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="11">
         <v>44287</v>
       </c>
@@ -8954,185 +9015,245 @@
         <v>383</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="11">
         <v>44288</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>384</v>
+      </c>
+      <c r="C3" t="s">
+        <v>385</v>
+      </c>
+      <c r="D3" t="s">
+        <v>386</v>
+      </c>
+      <c r="E3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="11">
         <v>44289</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1143</v>
+      </c>
+      <c r="C4" t="s">
+        <v>388</v>
+      </c>
+      <c r="D4" t="s">
+        <v>389</v>
+      </c>
+      <c r="E4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F4" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="11">
         <v>44290</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>781</v>
+      </c>
+      <c r="C5" t="s">
+        <v>391</v>
+      </c>
+      <c r="D5" t="s">
+        <v>392</v>
+      </c>
+      <c r="E5" t="s">
+        <v>393</v>
+      </c>
+      <c r="F5" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="11">
         <v>44291</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>88</v>
+      </c>
+      <c r="C6" t="s">
+        <v>395</v>
+      </c>
+      <c r="D6" t="s">
+        <v>396</v>
+      </c>
+      <c r="E6" t="s">
+        <v>397</v>
+      </c>
+      <c r="F6" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="11">
         <v>44292</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="11">
         <v>44293</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="11">
         <v>44294</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="11">
         <v>44295</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="11">
         <v>44296</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="11">
         <v>44297</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="11">
         <v>44298</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="11">
         <v>44299</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="11">
         <v>44300</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="11">
         <v>44301</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="11">
         <v>44302</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="11">
         <v>44303</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="11">
         <v>44304</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="11">
         <v>44305</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="11">
         <v>44306</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="11">
         <v>44307</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="11">
         <v>44308</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="11">
         <v>44309</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="11">
         <v>44310</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="11">
         <v>44311</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="11">
         <v>44312</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="11">
         <v>44313</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="11">
         <v>44314</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="11">
         <v>44315</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="11">
         <v>44316</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="11"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="11"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B34">
         <f>COUNTIF(E2:E32,"自己做出")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B35">
         <f>COUNTIF(E2:E32,"看思路写出")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="11" t="s">
         <v>161</v>
       </c>
       <c r="B36">
         <f>COUNTIF(E2:E32,"CV后看懂")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="11" t="s">
         <v>159</v>
       </c>
@@ -9141,109 +9262,109 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="11"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="11"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="11"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="11"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="11"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="11"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="11"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="11"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="11"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="11"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="11"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="11"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="11"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="11"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="11"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="11"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="11"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="11"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="11"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="11"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="11"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="11"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="11"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="11"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="11"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="11"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="11"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="11"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="11"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="11"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="11"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="11"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="11"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="11"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="11"/>
     </row>
   </sheetData>
@@ -9273,7 +9394,7 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9288,16 +9409,16 @@
       <selection activeCell="B14" sqref="B14:F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.88671875" customWidth="1"/>
-    <col min="6" max="6" width="43.77734375" customWidth="1"/>
-    <col min="7" max="7" width="38.77734375" customWidth="1"/>
+    <col min="2" max="2" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.875" customWidth="1"/>
+    <col min="6" max="6" width="43.75" customWidth="1"/>
+    <col min="7" max="7" width="38.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -9311,7 +9432,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -9334,7 +9455,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1800</v>
       </c>
@@ -9348,7 +9469,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1801</v>
       </c>
@@ -9365,7 +9486,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>1802</v>
       </c>
@@ -9385,7 +9506,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>1803</v>
       </c>
@@ -9402,7 +9523,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>324</v>
       </c>
@@ -9416,7 +9537,7 @@
         <v>5009</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>323</v>
       </c>
@@ -9428,28 +9549,28 @@
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
@@ -9485,16 +9606,16 @@
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.88671875" customWidth="1"/>
-    <col min="6" max="6" width="43.77734375" customWidth="1"/>
-    <col min="7" max="7" width="38.77734375" customWidth="1"/>
+    <col min="2" max="2" width="33.375" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.875" customWidth="1"/>
+    <col min="6" max="6" width="43.75" customWidth="1"/>
+    <col min="7" max="7" width="38.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -9508,7 +9629,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -9531,7 +9652,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>5713</v>
       </c>
@@ -9551,7 +9672,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>5715</v>
       </c>
@@ -9568,7 +9689,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5714</v>
       </c>
@@ -9585,7 +9706,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5716</v>
       </c>
@@ -9602,7 +9723,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>324</v>
       </c>
@@ -9616,7 +9737,7 @@
         <v>4996</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>87</v>
       </c>
@@ -9628,28 +9749,28 @@
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
@@ -9685,16 +9806,16 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -9720,105 +9841,105 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>43831</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
         <v>12</v>
       </c>
@@ -9827,7 +9948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
         <v>18</v>
       </c>
@@ -9836,7 +9957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
         <v>161</v>
       </c>
@@ -9845,7 +9966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
         <v>159</v>
       </c>
@@ -9854,109 +9975,109 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="1"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="1"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="1"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="1"/>
     </row>
   </sheetData>
@@ -9985,16 +10106,16 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.88671875" customWidth="1"/>
-    <col min="6" max="6" width="43.77734375" customWidth="1"/>
-    <col min="7" max="7" width="38.77734375" customWidth="1"/>
+    <col min="2" max="2" width="33.375" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.875" customWidth="1"/>
+    <col min="6" max="6" width="43.75" customWidth="1"/>
+    <col min="7" max="7" width="38.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -10006,7 +10127,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -10029,7 +10150,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>324</v>
       </c>
@@ -10037,7 +10158,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>323</v>
       </c>
@@ -10047,28 +10168,28 @@
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>

--- a/力扣做题情况.xlsx
+++ b/力扣做题情况.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20372"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E4B6FA-2955-4128-98BA-DA35B0ED8DF9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C09BC2-0A17-4F59-A814-F5757E6777C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="16152" windowHeight="8508" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="21年1月" sheetId="2" r:id="rId1"/>
@@ -15,15 +15,16 @@
     <sheet name="汇总" sheetId="13" r:id="rId5"/>
     <sheet name="第233场周赛" sheetId="12" r:id="rId6"/>
     <sheet name="第234场周赛" sheetId="15" r:id="rId7"/>
-    <sheet name="模板" sheetId="5" r:id="rId8"/>
-    <sheet name="竞赛模板" sheetId="9" r:id="rId9"/>
+    <sheet name="2021力扣杯" sheetId="18" r:id="rId8"/>
+    <sheet name="模板" sheetId="5" r:id="rId9"/>
+    <sheet name="竞赛模板" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="428">
   <si>
     <t>种花问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1608,6 +1609,118 @@
   </si>
   <si>
     <t>排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021力扣杯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LCP28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LCP29</t>
+  </si>
+  <si>
+    <t>LCP30</t>
+  </si>
+  <si>
+    <t>LCP31</t>
+  </si>
+  <si>
+    <t>LCP32</t>
+  </si>
+  <si>
+    <t>采购方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乐团站位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔塔游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变换的迷宫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批量处理任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序&amp;双指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪心&amp;优先级队列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一次参加力扣杯，做出三题，从题目数量上来看我还是比较满意的。但是过程还是比较艰辛，第一题交错两次，第二题交错五次，第三题交错一次，这也导致我罚时太多。但其实很多提交都是因为使用int数据溢出……后面两题目前应该还不在能力范围内。总之，就是疯狂overflow的一次比赛。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态规划&amp;bfs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除有序数组中的重复项II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索旋转排序数组II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二分查找</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定区域与二分查找的结合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻找旋转排序数组中的最小值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二分查找</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1663,7 +1776,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1680,6 +1793,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -2686,7 +2802,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -6390,17 +6506,17 @@
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="52.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="52.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -6426,7 +6542,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44197</v>
       </c>
@@ -6449,7 +6565,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>44198</v>
       </c>
@@ -6475,7 +6591,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>44199</v>
       </c>
@@ -6492,7 +6608,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>44200</v>
       </c>
@@ -6509,7 +6625,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>44201</v>
       </c>
@@ -6526,7 +6642,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>44202</v>
       </c>
@@ -6552,7 +6668,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>44203</v>
       </c>
@@ -6578,7 +6694,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>44204</v>
       </c>
@@ -6598,7 +6714,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>44205</v>
       </c>
@@ -6621,7 +6737,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>44206</v>
       </c>
@@ -6638,7 +6754,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>44207</v>
       </c>
@@ -6664,7 +6780,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>44208</v>
       </c>
@@ -6687,7 +6803,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>44209</v>
       </c>
@@ -6710,7 +6826,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>44210</v>
       </c>
@@ -6727,7 +6843,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>44211</v>
       </c>
@@ -6750,7 +6866,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>44212</v>
       </c>
@@ -6773,7 +6889,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>44213</v>
       </c>
@@ -6793,7 +6909,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>44214</v>
       </c>
@@ -6816,7 +6932,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>44215</v>
       </c>
@@ -6839,7 +6955,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>44216</v>
       </c>
@@ -6859,7 +6975,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>44217</v>
       </c>
@@ -6885,7 +7001,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>44218</v>
       </c>
@@ -6905,7 +7021,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>44219</v>
       </c>
@@ -6925,7 +7041,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>44220</v>
       </c>
@@ -6945,7 +7061,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>44221</v>
       </c>
@@ -6965,7 +7081,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>44222</v>
       </c>
@@ -6988,7 +7104,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>44223</v>
       </c>
@@ -7008,7 +7124,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>44224</v>
       </c>
@@ -7025,7 +7141,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>44225</v>
       </c>
@@ -7051,7 +7167,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>44226</v>
       </c>
@@ -7068,7 +7184,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>44227</v>
       </c>
@@ -7088,10 +7204,10 @@
         <v>126</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>17</v>
       </c>
@@ -7100,7 +7216,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>18</v>
       </c>
@@ -7109,7 +7225,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>161</v>
       </c>
@@ -7118,7 +7234,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>159</v>
       </c>
@@ -7127,154 +7243,154 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A41" s="12" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A42" s="12"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A43" s="12"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-    </row>
-    <row r="44" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="12"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="13"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="13"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+    </row>
+    <row r="44" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="13"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A47" s="13" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A48" s="13"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A49" s="13"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A50" s="13"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="14"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="14"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
     </row>
   </sheetData>
@@ -7300,6 +7416,125 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAB84B29-E993-41B4-A125-3B08DA58CFA6}">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.88671875" customWidth="1"/>
+    <col min="6" max="6" width="43.77734375" customWidth="1"/>
+    <col min="7" max="7" width="38.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="D1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>324</v>
+      </c>
+      <c r="C12" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>323</v>
+      </c>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B14:F18"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C10" xr:uid="{5704F41B-B049-4AB6-9F48-014707C5834A}">
+      <formula1>"简单,中等,困难"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3" xr:uid="{B8F76278-C9B0-4A6F-872E-2276B481700D}">
+      <formula1>"自己做出,CV,看思路写出"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D10" xr:uid="{6C3D821E-4578-4981-9FE0-B7BEB6C18383}">
+      <formula1>"竞赛中自己做出,竞赛后自己做出,CV后看懂,CV后没看懂,看思路写出"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H72"/>
@@ -7308,17 +7543,17 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -7344,7 +7579,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44228</v>
       </c>
@@ -7364,7 +7599,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>44229</v>
       </c>
@@ -7384,7 +7619,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>44230</v>
       </c>
@@ -7410,7 +7645,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>44231</v>
       </c>
@@ -7430,7 +7665,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>44232</v>
       </c>
@@ -7450,7 +7685,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>44233</v>
       </c>
@@ -7473,7 +7708,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>44234</v>
       </c>
@@ -7493,7 +7728,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>44235</v>
       </c>
@@ -7513,7 +7748,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>44236</v>
       </c>
@@ -7533,7 +7768,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>44237</v>
       </c>
@@ -7553,7 +7788,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>44238</v>
       </c>
@@ -7576,7 +7811,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>44239</v>
       </c>
@@ -7593,7 +7828,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>44240</v>
       </c>
@@ -7616,7 +7851,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>44241</v>
       </c>
@@ -7639,7 +7874,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>44242</v>
       </c>
@@ -7656,7 +7891,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>44243</v>
       </c>
@@ -7673,7 +7908,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>44244</v>
       </c>
@@ -7696,7 +7931,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>44245</v>
       </c>
@@ -7716,7 +7951,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>44246</v>
       </c>
@@ -7733,7 +7968,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>44247</v>
       </c>
@@ -7753,7 +7988,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>44248</v>
       </c>
@@ -7773,7 +8008,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>44249</v>
       </c>
@@ -7790,7 +8025,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>44250</v>
       </c>
@@ -7808,7 +8043,7 @@
       </c>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>44251</v>
       </c>
@@ -7825,7 +8060,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>44252</v>
       </c>
@@ -7842,7 +8077,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>44253</v>
       </c>
@@ -7868,7 +8103,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>44254</v>
       </c>
@@ -7891,7 +8126,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>44255</v>
       </c>
@@ -7911,19 +8146,19 @@
         <v>154</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>12</v>
       </c>
@@ -7932,7 +8167,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>18</v>
       </c>
@@ -7941,7 +8176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>161</v>
       </c>
@@ -7950,7 +8185,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>159</v>
       </c>
@@ -7959,125 +8194,125 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A41" s="14" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-    </row>
-    <row r="42" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="14"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+    </row>
+    <row r="42" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="15"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
     </row>
   </sheetData>
@@ -8110,17 +8345,17 @@
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -8146,7 +8381,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>44256</v>
       </c>
@@ -8169,7 +8404,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>44257</v>
       </c>
@@ -8192,7 +8427,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>44258</v>
       </c>
@@ -8218,7 +8453,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>44259</v>
       </c>
@@ -8241,7 +8476,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>44260</v>
       </c>
@@ -8261,7 +8496,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>44261</v>
       </c>
@@ -8281,7 +8516,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>44262</v>
       </c>
@@ -8304,7 +8539,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>44263</v>
       </c>
@@ -8324,7 +8559,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>44264</v>
       </c>
@@ -8344,7 +8579,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>44265</v>
       </c>
@@ -8364,7 +8599,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>44266</v>
       </c>
@@ -8384,7 +8619,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>44267</v>
       </c>
@@ -8404,7 +8639,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>44268</v>
       </c>
@@ -8427,7 +8662,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>44269</v>
       </c>
@@ -8450,7 +8685,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>44270</v>
       </c>
@@ -8467,7 +8702,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>44271</v>
       </c>
@@ -8484,7 +8719,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>44272</v>
       </c>
@@ -8504,7 +8739,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>44273</v>
       </c>
@@ -8524,7 +8759,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>44274</v>
       </c>
@@ -8541,7 +8776,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>44275</v>
       </c>
@@ -8561,7 +8796,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>44276</v>
       </c>
@@ -8578,7 +8813,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>44277</v>
       </c>
@@ -8598,7 +8833,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>44278</v>
       </c>
@@ -8618,7 +8853,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>44279</v>
       </c>
@@ -8638,7 +8873,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>44280</v>
       </c>
@@ -8658,7 +8893,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>44281</v>
       </c>
@@ -8678,7 +8913,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>44282</v>
       </c>
@@ -8698,7 +8933,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>44283</v>
       </c>
@@ -8718,7 +8953,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>44284</v>
       </c>
@@ -8741,7 +8976,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>44285</v>
       </c>
@@ -8764,7 +8999,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>44286</v>
       </c>
@@ -8784,10 +9019,10 @@
         <v>381</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>12</v>
       </c>
@@ -8796,7 +9031,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>18</v>
       </c>
@@ -8805,7 +9040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>161</v>
       </c>
@@ -8814,7 +9049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>159</v>
       </c>
@@ -8823,113 +9058,113 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="7"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="7"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="7"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="7"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="7"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="7"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="7"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="7"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="7"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="7"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="7"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="7"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="7"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="7"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="7"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="7"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="7"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="7"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="7"/>
     </row>
   </sheetData>
@@ -8956,20 +9191,21 @@
   <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -8995,7 +9231,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>44287</v>
       </c>
@@ -9015,7 +9251,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>44288</v>
       </c>
@@ -9035,7 +9271,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>44289</v>
       </c>
@@ -9055,7 +9291,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>44290</v>
       </c>
@@ -9075,7 +9311,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>44291</v>
       </c>
@@ -9095,147 +9331,195 @@
         <v>398</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>44292</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B7">
+        <v>80</v>
+      </c>
+      <c r="C7" t="s">
+        <v>415</v>
+      </c>
+      <c r="D7" t="s">
+        <v>416</v>
+      </c>
+      <c r="E7" t="s">
+        <v>417</v>
+      </c>
+      <c r="F7" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>44293</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B8">
+        <v>81</v>
+      </c>
+      <c r="C8" t="s">
+        <v>419</v>
+      </c>
+      <c r="D8" t="s">
+        <v>420</v>
+      </c>
+      <c r="E8" t="s">
+        <v>421</v>
+      </c>
+      <c r="F8" t="s">
+        <v>422</v>
+      </c>
+      <c r="G8" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>44294</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B9">
+        <v>153</v>
+      </c>
+      <c r="C9" t="s">
+        <v>424</v>
+      </c>
+      <c r="D9" t="s">
+        <v>425</v>
+      </c>
+      <c r="E9" t="s">
+        <v>426</v>
+      </c>
+      <c r="F9" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>44295</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>44296</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>44297</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>44298</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>44299</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>44300</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>44301</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>44302</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>44303</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>44304</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>44305</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>44306</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>44307</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>44308</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>44309</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>44310</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>44311</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>44312</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>44313</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>44314</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>44315</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>44316</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B34">
         <f>COUNTIF(E2:E32,"自己做出")</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>18</v>
       </c>
@@ -9244,7 +9528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>161</v>
       </c>
@@ -9253,7 +9537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>159</v>
       </c>
@@ -9262,109 +9546,109 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="11"/>
     </row>
   </sheetData>
@@ -9394,7 +9678,7 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9409,16 +9693,16 @@
       <selection activeCell="B14" sqref="B14:F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.875" customWidth="1"/>
-    <col min="6" max="6" width="43.75" customWidth="1"/>
-    <col min="7" max="7" width="38.75" customWidth="1"/>
+    <col min="2" max="2" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.88671875" customWidth="1"/>
+    <col min="6" max="6" width="43.77734375" customWidth="1"/>
+    <col min="7" max="7" width="38.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -9432,7 +9716,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -9455,7 +9739,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1800</v>
       </c>
@@ -9469,7 +9753,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1801</v>
       </c>
@@ -9486,7 +9770,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1802</v>
       </c>
@@ -9506,7 +9790,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1803</v>
       </c>
@@ -9523,7 +9807,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>324</v>
       </c>
@@ -9537,45 +9821,45 @@
         <v>5009</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>323</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="16" t="s">
         <v>338</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9606,16 +9890,16 @@
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.375" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.875" customWidth="1"/>
-    <col min="6" max="6" width="43.75" customWidth="1"/>
-    <col min="7" max="7" width="38.75" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.88671875" customWidth="1"/>
+    <col min="6" max="6" width="43.77734375" customWidth="1"/>
+    <col min="7" max="7" width="38.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -9629,7 +9913,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -9652,7 +9936,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5713</v>
       </c>
@@ -9672,7 +9956,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5715</v>
       </c>
@@ -9689,7 +9973,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5714</v>
       </c>
@@ -9706,7 +9990,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5716</v>
       </c>
@@ -9723,7 +10007,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>324</v>
       </c>
@@ -9737,45 +10021,45 @@
         <v>4996</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>87</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="16" t="s">
         <v>367</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9799,6 +10083,220 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A5BDCBD-1A6C-41BE-A9E5-23901AEFD8F1}">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.88671875" customWidth="1"/>
+    <col min="6" max="6" width="43.77734375" customWidth="1"/>
+    <col min="7" max="7" width="38.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="12">
+        <v>44291</v>
+      </c>
+      <c r="D1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>400</v>
+      </c>
+      <c r="B4" t="s">
+        <v>405</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>327</v>
+      </c>
+      <c r="E4" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>401</v>
+      </c>
+      <c r="B5" t="s">
+        <v>406</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>327</v>
+      </c>
+      <c r="E5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>402</v>
+      </c>
+      <c r="B6" t="s">
+        <v>407</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>327</v>
+      </c>
+      <c r="E6" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>403</v>
+      </c>
+      <c r="B7" t="s">
+        <v>408</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E7" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>404</v>
+      </c>
+      <c r="B8" t="s">
+        <v>409</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>158</v>
+      </c>
+      <c r="E8" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>324</v>
+      </c>
+      <c r="B12">
+        <v>807</v>
+      </c>
+      <c r="C12" t="s">
+        <v>325</v>
+      </c>
+      <c r="D12">
+        <v>9932</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>413</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B14:F18"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D10" xr:uid="{B1763431-367D-43B2-9BED-8968A10493E3}">
+      <formula1>"竞赛中自己做出,竞赛后自己做出,CV后看懂,CV后没看懂,看思路写出"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3" xr:uid="{D770644D-2970-40F8-A2D8-30F617BAB209}">
+      <formula1>"自己做出,CV,看思路写出"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C10" xr:uid="{B4B4A96A-3918-42B1-9054-81038B18495B}">
+      <formula1>"简单,中等,困难"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5F7AB7F-19BA-433D-94B4-F40C8CC2BB92}">
   <dimension ref="A1:H72"/>
   <sheetViews>
@@ -9806,16 +10304,16 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -9841,105 +10339,105 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43831</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>12</v>
       </c>
@@ -9948,7 +10446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>18</v>
       </c>
@@ -9957,7 +10455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>161</v>
       </c>
@@ -9966,7 +10464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>159</v>
       </c>
@@ -9975,109 +10473,109 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
     </row>
   </sheetData>
@@ -10096,123 +10594,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAB84B29-E993-41B4-A125-3B08DA58CFA6}">
-  <dimension ref="A1:G18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="33.375" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.875" customWidth="1"/>
-    <col min="6" max="6" width="43.75" customWidth="1"/>
-    <col min="7" max="7" width="38.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="D1" t="s">
-        <v>319</v>
-      </c>
-      <c r="E1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>324</v>
-      </c>
-      <c r="C12" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>323</v>
-      </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B14:F18"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C10" xr:uid="{5704F41B-B049-4AB6-9F48-014707C5834A}">
-      <formula1>"简单,中等,困难"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3" xr:uid="{B8F76278-C9B0-4A6F-872E-2276B481700D}">
-      <formula1>"自己做出,CV,看思路写出"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D10" xr:uid="{6C3D821E-4578-4981-9FE0-B7BEB6C18383}">
-      <formula1>"竞赛中自己做出,竞赛后自己做出,CV后看懂,CV后没看懂,看思路写出"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/力扣做题情况.xlsx
+++ b/力扣做题情况.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20372"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C09BC2-0A17-4F59-A814-F5757E6777C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{457984AF-7CCB-45B2-B493-83ABF468384B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16152" windowHeight="8508" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="21年1月" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="439">
   <si>
     <t>种花问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1721,6 +1721,50 @@
   </si>
   <si>
     <t>二分查找</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻找旋转排序数组中的最小值II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>困难</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二分查找</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丑数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丑数II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小堆/动态规划</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2802,7 +2846,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -6506,17 +6550,17 @@
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="52.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="52.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -6542,7 +6586,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>44197</v>
       </c>
@@ -6565,7 +6609,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="6">
         <v>44198</v>
       </c>
@@ -6591,7 +6635,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>44199</v>
       </c>
@@ -6608,7 +6652,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>44200</v>
       </c>
@@ -6625,7 +6669,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>44201</v>
       </c>
@@ -6642,7 +6686,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>44202</v>
       </c>
@@ -6668,7 +6712,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>44203</v>
       </c>
@@ -6694,7 +6738,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <v>44204</v>
       </c>
@@ -6714,7 +6758,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>44205</v>
       </c>
@@ -6737,7 +6781,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>44206</v>
       </c>
@@ -6754,7 +6798,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>44207</v>
       </c>
@@ -6780,7 +6824,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>44208</v>
       </c>
@@ -6803,7 +6847,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>44209</v>
       </c>
@@ -6826,7 +6870,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
         <v>44210</v>
       </c>
@@ -6843,7 +6887,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
         <v>44211</v>
       </c>
@@ -6866,7 +6910,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
         <v>44212</v>
       </c>
@@ -6889,7 +6933,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
         <v>44213</v>
       </c>
@@ -6909,7 +6953,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="6">
         <v>44214</v>
       </c>
@@ -6932,7 +6976,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="6">
         <v>44215</v>
       </c>
@@ -6955,7 +6999,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="6">
         <v>44216</v>
       </c>
@@ -6975,7 +7019,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="6">
         <v>44217</v>
       </c>
@@ -7001,7 +7045,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="6">
         <v>44218</v>
       </c>
@@ -7021,7 +7065,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="6">
         <v>44219</v>
       </c>
@@ -7041,7 +7085,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="6">
         <v>44220</v>
       </c>
@@ -7061,7 +7105,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="6">
         <v>44221</v>
       </c>
@@ -7081,7 +7125,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="6">
         <v>44222</v>
       </c>
@@ -7104,7 +7148,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="6">
         <v>44223</v>
       </c>
@@ -7124,7 +7168,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="6">
         <v>44224</v>
       </c>
@@ -7141,7 +7185,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="6">
         <v>44225</v>
       </c>
@@ -7167,7 +7211,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="6">
         <v>44226</v>
       </c>
@@ -7184,7 +7228,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="6">
         <v>44227</v>
       </c>
@@ -7204,10 +7248,10 @@
         <v>126</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>17</v>
       </c>
@@ -7216,7 +7260,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>18</v>
       </c>
@@ -7225,7 +7269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>161</v>
       </c>
@@ -7234,7 +7278,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>159</v>
       </c>
@@ -7243,18 +7287,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="13" t="s">
         <v>127</v>
       </c>
@@ -7263,36 +7307,36 @@
       <c r="D41" s="13"/>
       <c r="E41" s="13"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="13"/>
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>
       <c r="E42" s="13"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="13"/>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
       <c r="D43" s="13"/>
       <c r="E43" s="13"/>
     </row>
-    <row r="44" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="13"/>
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
       <c r="E44" s="13"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="14" t="s">
         <v>121</v>
       </c>
@@ -7301,96 +7345,96 @@
       <c r="D47" s="14"/>
       <c r="E47" s="14"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="14"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
       <c r="D48" s="14"/>
       <c r="E48" s="14"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" s="14"/>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
       <c r="D49" s="14"/>
       <c r="E49" s="14"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" s="14"/>
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
       <c r="E50" s="14"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" s="1"/>
       <c r="B52" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="1"/>
     </row>
   </sheetData>
@@ -7424,16 +7468,16 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.88671875" customWidth="1"/>
-    <col min="6" max="6" width="43.77734375" customWidth="1"/>
-    <col min="7" max="7" width="38.77734375" customWidth="1"/>
+    <col min="2" max="2" width="33.375" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.875" customWidth="1"/>
+    <col min="6" max="6" width="43.75" customWidth="1"/>
+    <col min="7" max="7" width="38.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -7445,7 +7489,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -7468,7 +7512,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>324</v>
       </c>
@@ -7476,7 +7520,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>323</v>
       </c>
@@ -7486,28 +7530,28 @@
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
@@ -7543,17 +7587,17 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -7579,7 +7623,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>44228</v>
       </c>
@@ -7599,7 +7643,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="6">
         <v>44229</v>
       </c>
@@ -7619,7 +7663,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>44230</v>
       </c>
@@ -7645,7 +7689,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>44231</v>
       </c>
@@ -7665,7 +7709,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>44232</v>
       </c>
@@ -7685,7 +7729,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>44233</v>
       </c>
@@ -7708,7 +7752,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>44234</v>
       </c>
@@ -7728,7 +7772,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <v>44235</v>
       </c>
@@ -7748,7 +7792,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>44236</v>
       </c>
@@ -7768,7 +7812,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>44237</v>
       </c>
@@ -7788,7 +7832,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>44238</v>
       </c>
@@ -7811,7 +7855,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>44239</v>
       </c>
@@ -7828,7 +7872,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>44240</v>
       </c>
@@ -7851,7 +7895,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
         <v>44241</v>
       </c>
@@ -7874,7 +7918,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
         <v>44242</v>
       </c>
@@ -7891,7 +7935,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
         <v>44243</v>
       </c>
@@ -7908,7 +7952,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
         <v>44244</v>
       </c>
@@ -7931,7 +7975,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="6">
         <v>44245</v>
       </c>
@@ -7951,7 +7995,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="6">
         <v>44246</v>
       </c>
@@ -7968,7 +8012,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="6">
         <v>44247</v>
       </c>
@@ -7988,7 +8032,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="6">
         <v>44248</v>
       </c>
@@ -8008,7 +8052,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="6">
         <v>44249</v>
       </c>
@@ -8025,7 +8069,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="6">
         <v>44250</v>
       </c>
@@ -8043,7 +8087,7 @@
       </c>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="6">
         <v>44251</v>
       </c>
@@ -8060,7 +8104,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="6">
         <v>44252</v>
       </c>
@@ -8077,7 +8121,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="6">
         <v>44253</v>
       </c>
@@ -8103,7 +8147,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="6">
         <v>44254</v>
       </c>
@@ -8126,7 +8170,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="6">
         <v>44255</v>
       </c>
@@ -8146,19 +8190,19 @@
         <v>154</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="2"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
         <v>12</v>
       </c>
@@ -8167,7 +8211,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
         <v>18</v>
       </c>
@@ -8176,7 +8220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
         <v>161</v>
       </c>
@@ -8185,7 +8229,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
         <v>159</v>
       </c>
@@ -8194,18 +8238,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="15" t="s">
         <v>225</v>
       </c>
@@ -8214,105 +8258,105 @@
       <c r="D41" s="15"/>
       <c r="E41" s="15"/>
     </row>
-    <row r="42" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="15"/>
       <c r="B42" s="15"/>
       <c r="C42" s="15"/>
       <c r="D42" s="15"/>
       <c r="E42" s="15"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="1"/>
     </row>
   </sheetData>
@@ -8345,17 +8389,17 @@
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -8381,7 +8425,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="7">
         <v>44256</v>
       </c>
@@ -8404,7 +8448,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="7">
         <v>44257</v>
       </c>
@@ -8427,7 +8471,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
         <v>44258</v>
       </c>
@@ -8453,7 +8497,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
         <v>44259</v>
       </c>
@@ -8476,7 +8520,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
         <v>44260</v>
       </c>
@@ -8496,7 +8540,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
         <v>44261</v>
       </c>
@@ -8516,7 +8560,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="7">
         <v>44262</v>
       </c>
@@ -8539,7 +8583,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
         <v>44263</v>
       </c>
@@ -8559,7 +8603,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
         <v>44264</v>
       </c>
@@ -8579,7 +8623,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
         <v>44265</v>
       </c>
@@ -8599,7 +8643,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="7">
         <v>44266</v>
       </c>
@@ -8619,7 +8663,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
         <v>44267</v>
       </c>
@@ -8639,7 +8683,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="7">
         <v>44268</v>
       </c>
@@ -8662,7 +8706,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="7">
         <v>44269</v>
       </c>
@@ -8685,7 +8729,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="7">
         <v>44270</v>
       </c>
@@ -8702,7 +8746,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="7">
         <v>44271</v>
       </c>
@@ -8719,7 +8763,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="7">
         <v>44272</v>
       </c>
@@ -8739,7 +8783,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="7">
         <v>44273</v>
       </c>
@@ -8759,7 +8803,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="7">
         <v>44274</v>
       </c>
@@ -8776,7 +8820,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="7">
         <v>44275</v>
       </c>
@@ -8796,7 +8840,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="7">
         <v>44276</v>
       </c>
@@ -8813,7 +8857,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="7">
         <v>44277</v>
       </c>
@@ -8833,7 +8877,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="7">
         <v>44278</v>
       </c>
@@ -8853,7 +8897,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="7">
         <v>44279</v>
       </c>
@@ -8873,7 +8917,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="7">
         <v>44280</v>
       </c>
@@ -8893,7 +8937,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="7">
         <v>44281</v>
       </c>
@@ -8913,7 +8957,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="7">
         <v>44282</v>
       </c>
@@ -8933,7 +8977,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="7">
         <v>44283</v>
       </c>
@@ -8953,7 +8997,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="7">
         <v>44284</v>
       </c>
@@ -8976,7 +9020,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="7">
         <v>44285</v>
       </c>
@@ -8999,7 +9043,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="7">
         <v>44286</v>
       </c>
@@ -9019,10 +9063,10 @@
         <v>381</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="7"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="7" t="s">
         <v>12</v>
       </c>
@@ -9031,7 +9075,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="7" t="s">
         <v>18</v>
       </c>
@@ -9040,7 +9084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="7" t="s">
         <v>161</v>
       </c>
@@ -9049,7 +9093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="7" t="s">
         <v>159</v>
       </c>
@@ -9058,113 +9102,113 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="7"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="7"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="7"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="7"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="7" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="7" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="7"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="7"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="7"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="7"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="7"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="7"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="7"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="7"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="7"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="7"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="7"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="7"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="7"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="7"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="7"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="7"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="7"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="7"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="7"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="7"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="7"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="7"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="7"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="7"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="7"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="7"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="7"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="7"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="7"/>
     </row>
   </sheetData>
@@ -9191,21 +9235,21 @@
   <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -9231,7 +9275,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="11">
         <v>44287</v>
       </c>
@@ -9251,7 +9295,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="11">
         <v>44288</v>
       </c>
@@ -9271,7 +9315,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="11">
         <v>44289</v>
       </c>
@@ -9291,7 +9335,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="11">
         <v>44290</v>
       </c>
@@ -9311,7 +9355,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="11">
         <v>44291</v>
       </c>
@@ -9331,7 +9375,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="11">
         <v>44292</v>
       </c>
@@ -9351,7 +9395,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="11">
         <v>44293</v>
       </c>
@@ -9374,7 +9418,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="11">
         <v>44294</v>
       </c>
@@ -9394,132 +9438,177 @@
         <v>427</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="11">
         <v>44295</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>154</v>
+      </c>
+      <c r="C10" t="s">
+        <v>428</v>
+      </c>
+      <c r="D10" t="s">
+        <v>429</v>
+      </c>
+      <c r="E10" t="s">
+        <v>430</v>
+      </c>
+      <c r="F10" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="11">
         <v>44296</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>263</v>
+      </c>
+      <c r="C11" t="s">
+        <v>432</v>
+      </c>
+      <c r="D11" t="s">
+        <v>433</v>
+      </c>
+      <c r="E11" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="11">
         <v>44297</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>264</v>
+      </c>
+      <c r="C12" t="s">
+        <v>435</v>
+      </c>
+      <c r="D12" t="s">
+        <v>436</v>
+      </c>
+      <c r="E12" t="s">
+        <v>437</v>
+      </c>
+      <c r="F12" t="s">
+        <v>438</v>
+      </c>
+      <c r="H12" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="11">
         <v>44298</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="11">
         <v>44299</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="11">
         <v>44300</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="11">
         <v>44301</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="11">
         <v>44302</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="11">
         <v>44303</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="11">
         <v>44304</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="11">
         <v>44305</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="11">
         <v>44306</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="11">
         <v>44307</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="11">
         <v>44308</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="11">
         <v>44309</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="11">
         <v>44310</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="11">
         <v>44311</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="11">
         <v>44312</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="11">
         <v>44313</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="11">
         <v>44314</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="11">
         <v>44315</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="11">
         <v>44316</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="11"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="11"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B34">
         <f>COUNTIF(E2:E32,"自己做出")</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="11" t="s">
         <v>18</v>
       </c>
@@ -9528,7 +9617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="11" t="s">
         <v>161</v>
       </c>
@@ -9537,7 +9626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="11" t="s">
         <v>159</v>
       </c>
@@ -9546,109 +9635,109 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="11"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="11"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="11"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="11"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="11"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="11"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="11"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="11"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="11"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="11"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="11"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="11"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="11"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="11"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="11"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="11"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="11"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="11"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="11"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="11"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="11"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="11"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="11"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="11"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="11"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="11"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="11"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="11"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="11"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="11"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="11"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="11"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="11"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="11"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="11"/>
     </row>
   </sheetData>
@@ -9678,7 +9767,7 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9693,16 +9782,16 @@
       <selection activeCell="B14" sqref="B14:F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.88671875" customWidth="1"/>
-    <col min="6" max="6" width="43.77734375" customWidth="1"/>
-    <col min="7" max="7" width="38.77734375" customWidth="1"/>
+    <col min="2" max="2" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.875" customWidth="1"/>
+    <col min="6" max="6" width="43.75" customWidth="1"/>
+    <col min="7" max="7" width="38.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -9716,7 +9805,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -9739,7 +9828,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1800</v>
       </c>
@@ -9753,7 +9842,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1801</v>
       </c>
@@ -9770,7 +9859,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>1802</v>
       </c>
@@ -9790,7 +9879,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>1803</v>
       </c>
@@ -9807,7 +9896,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>324</v>
       </c>
@@ -9821,7 +9910,7 @@
         <v>5009</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>323</v>
       </c>
@@ -9833,28 +9922,28 @@
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
@@ -9890,16 +9979,16 @@
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.88671875" customWidth="1"/>
-    <col min="6" max="6" width="43.77734375" customWidth="1"/>
-    <col min="7" max="7" width="38.77734375" customWidth="1"/>
+    <col min="2" max="2" width="33.375" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.875" customWidth="1"/>
+    <col min="6" max="6" width="43.75" customWidth="1"/>
+    <col min="7" max="7" width="38.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -9913,7 +10002,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -9936,7 +10025,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>5713</v>
       </c>
@@ -9956,7 +10045,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>5715</v>
       </c>
@@ -9973,7 +10062,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5714</v>
       </c>
@@ -9990,7 +10079,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5716</v>
       </c>
@@ -10007,7 +10096,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>324</v>
       </c>
@@ -10021,7 +10110,7 @@
         <v>4996</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>87</v>
       </c>
@@ -10033,28 +10122,28 @@
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
@@ -10090,16 +10179,16 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.88671875" customWidth="1"/>
-    <col min="6" max="6" width="43.77734375" customWidth="1"/>
-    <col min="7" max="7" width="38.77734375" customWidth="1"/>
+    <col min="2" max="2" width="33.375" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.875" customWidth="1"/>
+    <col min="6" max="6" width="43.75" customWidth="1"/>
+    <col min="7" max="7" width="38.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -10113,7 +10202,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -10136,7 +10225,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>400</v>
       </c>
@@ -10153,7 +10242,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>401</v>
       </c>
@@ -10170,7 +10259,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>402</v>
       </c>
@@ -10187,7 +10276,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>403</v>
       </c>
@@ -10204,7 +10293,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>404</v>
       </c>
@@ -10221,7 +10310,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>324</v>
       </c>
@@ -10235,7 +10324,7 @@
         <v>9932</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>87</v>
       </c>
@@ -10247,28 +10336,28 @@
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
@@ -10304,16 +10393,16 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -10339,105 +10428,105 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>43831</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
         <v>12</v>
       </c>
@@ -10446,7 +10535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
         <v>18</v>
       </c>
@@ -10455,7 +10544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
         <v>161</v>
       </c>
@@ -10464,7 +10553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
         <v>159</v>
       </c>
@@ -10473,109 +10562,109 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="1"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="1"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="1"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="1"/>
     </row>
   </sheetData>

--- a/力扣做题情况.xlsx
+++ b/力扣做题情况.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20372"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{457984AF-7CCB-45B2-B493-83ABF468384B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBDA41A4-B4D7-4FAB-87C1-59E8BBCFE16D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="16152" windowHeight="8508" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="21年1月" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="452">
   <si>
     <t>种花问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1765,6 +1765,58 @@
   </si>
   <si>
     <t>最小堆/动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CV后看懂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++库函数to_string，拼接字符串时使用拼接完后的字符串进行比较</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二叉搜索树节点最小距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中序遍历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现Trie（前缀树）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CV后看懂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++this的使用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2846,13 +2898,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -6546,21 +6598,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="52.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="52.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -6586,7 +6638,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44197</v>
       </c>
@@ -6609,7 +6661,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>44198</v>
       </c>
@@ -6635,7 +6687,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>44199</v>
       </c>
@@ -6652,7 +6704,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>44200</v>
       </c>
@@ -6669,7 +6721,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>44201</v>
       </c>
@@ -6686,7 +6738,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>44202</v>
       </c>
@@ -6712,7 +6764,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>44203</v>
       </c>
@@ -6738,7 +6790,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>44204</v>
       </c>
@@ -6758,7 +6810,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>44205</v>
       </c>
@@ -6781,7 +6833,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>44206</v>
       </c>
@@ -6798,7 +6850,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>44207</v>
       </c>
@@ -6824,7 +6876,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>44208</v>
       </c>
@@ -6847,7 +6899,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>44209</v>
       </c>
@@ -6870,7 +6922,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>44210</v>
       </c>
@@ -6887,7 +6939,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>44211</v>
       </c>
@@ -6910,7 +6962,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>44212</v>
       </c>
@@ -6933,7 +6985,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>44213</v>
       </c>
@@ -6953,7 +7005,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>44214</v>
       </c>
@@ -6976,7 +7028,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>44215</v>
       </c>
@@ -6999,7 +7051,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>44216</v>
       </c>
@@ -7019,7 +7071,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>44217</v>
       </c>
@@ -7045,7 +7097,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>44218</v>
       </c>
@@ -7065,7 +7117,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>44219</v>
       </c>
@@ -7085,7 +7137,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>44220</v>
       </c>
@@ -7105,7 +7157,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>44221</v>
       </c>
@@ -7125,7 +7177,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>44222</v>
       </c>
@@ -7148,7 +7200,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>44223</v>
       </c>
@@ -7168,7 +7220,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>44224</v>
       </c>
@@ -7185,7 +7237,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>44225</v>
       </c>
@@ -7211,7 +7263,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>44226</v>
       </c>
@@ -7228,7 +7280,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>44227</v>
       </c>
@@ -7248,10 +7300,10 @@
         <v>126</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>17</v>
       </c>
@@ -7260,7 +7312,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>18</v>
       </c>
@@ -7269,7 +7321,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>161</v>
       </c>
@@ -7278,7 +7330,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>159</v>
       </c>
@@ -7287,18 +7339,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
         <v>127</v>
       </c>
@@ -7307,36 +7359,36 @@
       <c r="D41" s="13"/>
       <c r="E41" s="13"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="13"/>
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>
       <c r="E42" s="13"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="13"/>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
       <c r="D43" s="13"/>
       <c r="E43" s="13"/>
     </row>
-    <row r="44" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="13"/>
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
       <c r="E44" s="13"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
         <v>121</v>
       </c>
@@ -7345,96 +7397,96 @@
       <c r="D47" s="14"/>
       <c r="E47" s="14"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="14"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
       <c r="D48" s="14"/>
       <c r="E48" s="14"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="14"/>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
       <c r="D49" s="14"/>
       <c r="E49" s="14"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="14"/>
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
       <c r="E50" s="14"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
     </row>
   </sheetData>
@@ -7468,16 +7520,16 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.375" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.875" customWidth="1"/>
-    <col min="6" max="6" width="43.75" customWidth="1"/>
-    <col min="7" max="7" width="38.75" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.88671875" customWidth="1"/>
+    <col min="6" max="6" width="43.77734375" customWidth="1"/>
+    <col min="7" max="7" width="38.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -7489,7 +7541,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -7512,7 +7564,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>324</v>
       </c>
@@ -7520,7 +7572,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>323</v>
       </c>
@@ -7530,28 +7582,28 @@
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
@@ -7583,21 +7635,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -7623,7 +7675,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44228</v>
       </c>
@@ -7643,7 +7695,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>44229</v>
       </c>
@@ -7663,7 +7715,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>44230</v>
       </c>
@@ -7689,7 +7741,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>44231</v>
       </c>
@@ -7709,7 +7761,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>44232</v>
       </c>
@@ -7729,7 +7781,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>44233</v>
       </c>
@@ -7752,7 +7804,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>44234</v>
       </c>
@@ -7772,7 +7824,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>44235</v>
       </c>
@@ -7792,7 +7844,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>44236</v>
       </c>
@@ -7812,7 +7864,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>44237</v>
       </c>
@@ -7832,7 +7884,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>44238</v>
       </c>
@@ -7855,7 +7907,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>44239</v>
       </c>
@@ -7872,7 +7924,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>44240</v>
       </c>
@@ -7895,7 +7947,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>44241</v>
       </c>
@@ -7918,7 +7970,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>44242</v>
       </c>
@@ -7935,7 +7987,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>44243</v>
       </c>
@@ -7952,7 +8004,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>44244</v>
       </c>
@@ -7975,7 +8027,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>44245</v>
       </c>
@@ -7995,7 +8047,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>44246</v>
       </c>
@@ -8012,7 +8064,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>44247</v>
       </c>
@@ -8032,7 +8084,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>44248</v>
       </c>
@@ -8052,7 +8104,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>44249</v>
       </c>
@@ -8069,7 +8121,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>44250</v>
       </c>
@@ -8087,7 +8139,7 @@
       </c>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>44251</v>
       </c>
@@ -8104,7 +8156,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>44252</v>
       </c>
@@ -8121,7 +8173,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>44253</v>
       </c>
@@ -8147,7 +8199,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>44254</v>
       </c>
@@ -8170,7 +8222,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>44255</v>
       </c>
@@ -8190,19 +8242,19 @@
         <v>154</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>12</v>
       </c>
@@ -8211,7 +8263,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>18</v>
       </c>
@@ -8220,7 +8272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>161</v>
       </c>
@@ -8229,7 +8281,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>159</v>
       </c>
@@ -8238,18 +8290,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
         <v>225</v>
       </c>
@@ -8258,105 +8310,105 @@
       <c r="D41" s="15"/>
       <c r="E41" s="15"/>
     </row>
-    <row r="42" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="15"/>
       <c r="B42" s="15"/>
       <c r="C42" s="15"/>
       <c r="D42" s="15"/>
       <c r="E42" s="15"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
     </row>
   </sheetData>
@@ -8385,21 +8437,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E3CE38-BCB5-47B2-9D37-77FB04031B7A}">
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -8425,7 +8477,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>44256</v>
       </c>
@@ -8448,7 +8500,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>44257</v>
       </c>
@@ -8471,7 +8523,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>44258</v>
       </c>
@@ -8497,7 +8549,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>44259</v>
       </c>
@@ -8520,7 +8572,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>44260</v>
       </c>
@@ -8540,7 +8592,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>44261</v>
       </c>
@@ -8560,7 +8612,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>44262</v>
       </c>
@@ -8583,7 +8635,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>44263</v>
       </c>
@@ -8603,7 +8655,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>44264</v>
       </c>
@@ -8623,7 +8675,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>44265</v>
       </c>
@@ -8643,7 +8695,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>44266</v>
       </c>
@@ -8663,7 +8715,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>44267</v>
       </c>
@@ -8683,7 +8735,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>44268</v>
       </c>
@@ -8706,7 +8758,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>44269</v>
       </c>
@@ -8729,7 +8781,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>44270</v>
       </c>
@@ -8746,7 +8798,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>44271</v>
       </c>
@@ -8763,7 +8815,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>44272</v>
       </c>
@@ -8783,7 +8835,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>44273</v>
       </c>
@@ -8803,7 +8855,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>44274</v>
       </c>
@@ -8820,7 +8872,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>44275</v>
       </c>
@@ -8840,7 +8892,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>44276</v>
       </c>
@@ -8857,7 +8909,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>44277</v>
       </c>
@@ -8877,7 +8929,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>44278</v>
       </c>
@@ -8897,7 +8949,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>44279</v>
       </c>
@@ -8917,7 +8969,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>44280</v>
       </c>
@@ -8937,7 +8989,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>44281</v>
       </c>
@@ -8957,7 +9009,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>44282</v>
       </c>
@@ -8977,7 +9029,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>44283</v>
       </c>
@@ -8997,7 +9049,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>44284</v>
       </c>
@@ -9020,7 +9072,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>44285</v>
       </c>
@@ -9043,7 +9095,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>44286</v>
       </c>
@@ -9063,10 +9115,10 @@
         <v>381</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>12</v>
       </c>
@@ -9075,7 +9127,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>18</v>
       </c>
@@ -9084,7 +9136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>161</v>
       </c>
@@ -9093,7 +9145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>159</v>
       </c>
@@ -9102,113 +9154,113 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="7"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="7"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="7"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="7"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="7"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="7"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="7"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="7"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="7"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="7"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="7"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="7"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="7"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="7"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="7"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="7"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="7"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="7"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="7"/>
     </row>
   </sheetData>
@@ -9235,21 +9287,21 @@
   <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="66.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -9275,7 +9327,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>44287</v>
       </c>
@@ -9295,7 +9347,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>44288</v>
       </c>
@@ -9315,7 +9367,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>44289</v>
       </c>
@@ -9335,7 +9387,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>44290</v>
       </c>
@@ -9355,7 +9407,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>44291</v>
       </c>
@@ -9375,7 +9427,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>44292</v>
       </c>
@@ -9395,7 +9447,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>44293</v>
       </c>
@@ -9418,7 +9470,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>44294</v>
       </c>
@@ -9438,7 +9490,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>44295</v>
       </c>
@@ -9458,7 +9510,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>44296</v>
       </c>
@@ -9475,7 +9527,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>44297</v>
       </c>
@@ -9498,117 +9550,165 @@
         <v>438</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>44298</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B13">
+        <v>179</v>
+      </c>
+      <c r="C13" t="s">
+        <v>439</v>
+      </c>
+      <c r="D13" t="s">
+        <v>440</v>
+      </c>
+      <c r="E13" t="s">
+        <v>441</v>
+      </c>
+      <c r="F13" t="s">
+        <v>442</v>
+      </c>
+      <c r="G13" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>44299</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B14">
+        <v>783</v>
+      </c>
+      <c r="C14" t="s">
+        <v>444</v>
+      </c>
+      <c r="D14" t="s">
+        <v>445</v>
+      </c>
+      <c r="E14" t="s">
+        <v>446</v>
+      </c>
+      <c r="F14" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>44300</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B15">
+        <v>208</v>
+      </c>
+      <c r="C15" t="s">
+        <v>448</v>
+      </c>
+      <c r="D15" t="s">
+        <v>449</v>
+      </c>
+      <c r="E15" t="s">
+        <v>450</v>
+      </c>
+      <c r="G15" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>44301</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>44302</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>44303</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>44304</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>44305</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>44306</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>44307</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>44308</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>44309</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>44310</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>44311</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>44312</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>44313</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>44314</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>44315</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>44316</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B34">
         <f>COUNTIF(E2:E32,"自己做出")</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>18</v>
       </c>
@@ -9617,16 +9717,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>161</v>
       </c>
       <c r="B36">
         <f>COUNTIF(E2:E32,"CV后看懂")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>159</v>
       </c>
@@ -9635,109 +9735,109 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="11"/>
     </row>
   </sheetData>
@@ -9767,7 +9867,7 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9782,16 +9882,16 @@
       <selection activeCell="B14" sqref="B14:F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.875" customWidth="1"/>
-    <col min="6" max="6" width="43.75" customWidth="1"/>
-    <col min="7" max="7" width="38.75" customWidth="1"/>
+    <col min="2" max="2" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.88671875" customWidth="1"/>
+    <col min="6" max="6" width="43.77734375" customWidth="1"/>
+    <col min="7" max="7" width="38.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -9805,7 +9905,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -9828,7 +9928,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1800</v>
       </c>
@@ -9842,7 +9942,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1801</v>
       </c>
@@ -9859,7 +9959,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1802</v>
       </c>
@@ -9879,7 +9979,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1803</v>
       </c>
@@ -9896,7 +9996,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>324</v>
       </c>
@@ -9910,7 +10010,7 @@
         <v>5009</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>323</v>
       </c>
@@ -9922,28 +10022,28 @@
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
@@ -9979,16 +10079,16 @@
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.375" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.875" customWidth="1"/>
-    <col min="6" max="6" width="43.75" customWidth="1"/>
-    <col min="7" max="7" width="38.75" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.88671875" customWidth="1"/>
+    <col min="6" max="6" width="43.77734375" customWidth="1"/>
+    <col min="7" max="7" width="38.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -10002,7 +10102,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -10025,7 +10125,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5713</v>
       </c>
@@ -10045,7 +10145,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5715</v>
       </c>
@@ -10062,7 +10162,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5714</v>
       </c>
@@ -10079,7 +10179,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5716</v>
       </c>
@@ -10096,7 +10196,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>324</v>
       </c>
@@ -10110,7 +10210,7 @@
         <v>4996</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>87</v>
       </c>
@@ -10122,28 +10222,28 @@
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
@@ -10179,16 +10279,16 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.375" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.875" customWidth="1"/>
-    <col min="6" max="6" width="43.75" customWidth="1"/>
-    <col min="7" max="7" width="38.75" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.88671875" customWidth="1"/>
+    <col min="6" max="6" width="43.77734375" customWidth="1"/>
+    <col min="7" max="7" width="38.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -10202,7 +10302,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -10225,7 +10325,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>400</v>
       </c>
@@ -10242,7 +10342,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>401</v>
       </c>
@@ -10259,7 +10359,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>402</v>
       </c>
@@ -10276,7 +10376,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>403</v>
       </c>
@@ -10293,7 +10393,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>404</v>
       </c>
@@ -10310,7 +10410,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>324</v>
       </c>
@@ -10324,7 +10424,7 @@
         <v>9932</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>87</v>
       </c>
@@ -10336,28 +10436,28 @@
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
@@ -10393,16 +10493,16 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -10428,105 +10528,105 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43831</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>12</v>
       </c>
@@ -10535,7 +10635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>18</v>
       </c>
@@ -10544,7 +10644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>161</v>
       </c>
@@ -10553,7 +10653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>159</v>
       </c>
@@ -10562,109 +10662,109 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
     </row>
   </sheetData>

--- a/力扣做题情况.xlsx
+++ b/力扣做题情况.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20372"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBDA41A4-B4D7-4FAB-87C1-59E8BBCFE16D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB535BD-B8EF-4F46-938F-EC8BAC3BA3AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16152" windowHeight="8508" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="21年1月" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="456">
   <si>
     <t>种花问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1817,6 +1817,22 @@
   </si>
   <si>
     <t>C++this的使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打家劫舍II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2898,7 +2914,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -6602,17 +6618,17 @@
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="52.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="52.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -6638,7 +6654,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>44197</v>
       </c>
@@ -6661,7 +6677,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="6">
         <v>44198</v>
       </c>
@@ -6687,7 +6703,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>44199</v>
       </c>
@@ -6704,7 +6720,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>44200</v>
       </c>
@@ -6721,7 +6737,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>44201</v>
       </c>
@@ -6738,7 +6754,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>44202</v>
       </c>
@@ -6764,7 +6780,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>44203</v>
       </c>
@@ -6790,7 +6806,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <v>44204</v>
       </c>
@@ -6810,7 +6826,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>44205</v>
       </c>
@@ -6833,7 +6849,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>44206</v>
       </c>
@@ -6850,7 +6866,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>44207</v>
       </c>
@@ -6876,7 +6892,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>44208</v>
       </c>
@@ -6899,7 +6915,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>44209</v>
       </c>
@@ -6922,7 +6938,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
         <v>44210</v>
       </c>
@@ -6939,7 +6955,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
         <v>44211</v>
       </c>
@@ -6962,7 +6978,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
         <v>44212</v>
       </c>
@@ -6985,7 +7001,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
         <v>44213</v>
       </c>
@@ -7005,7 +7021,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="6">
         <v>44214</v>
       </c>
@@ -7028,7 +7044,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="6">
         <v>44215</v>
       </c>
@@ -7051,7 +7067,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="6">
         <v>44216</v>
       </c>
@@ -7071,7 +7087,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="6">
         <v>44217</v>
       </c>
@@ -7097,7 +7113,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="6">
         <v>44218</v>
       </c>
@@ -7117,7 +7133,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="6">
         <v>44219</v>
       </c>
@@ -7137,7 +7153,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="6">
         <v>44220</v>
       </c>
@@ -7157,7 +7173,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="6">
         <v>44221</v>
       </c>
@@ -7177,7 +7193,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="6">
         <v>44222</v>
       </c>
@@ -7200,7 +7216,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="6">
         <v>44223</v>
       </c>
@@ -7220,7 +7236,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="6">
         <v>44224</v>
       </c>
@@ -7237,7 +7253,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="6">
         <v>44225</v>
       </c>
@@ -7263,7 +7279,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="6">
         <v>44226</v>
       </c>
@@ -7280,7 +7296,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="6">
         <v>44227</v>
       </c>
@@ -7300,10 +7316,10 @@
         <v>126</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>17</v>
       </c>
@@ -7312,7 +7328,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>18</v>
       </c>
@@ -7321,7 +7337,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>161</v>
       </c>
@@ -7330,7 +7346,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>159</v>
       </c>
@@ -7339,18 +7355,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="13" t="s">
         <v>127</v>
       </c>
@@ -7359,36 +7375,36 @@
       <c r="D41" s="13"/>
       <c r="E41" s="13"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="13"/>
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>
       <c r="E42" s="13"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="13"/>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
       <c r="D43" s="13"/>
       <c r="E43" s="13"/>
     </row>
-    <row r="44" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="13"/>
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
       <c r="E44" s="13"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="14" t="s">
         <v>121</v>
       </c>
@@ -7397,96 +7413,96 @@
       <c r="D47" s="14"/>
       <c r="E47" s="14"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="14"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
       <c r="D48" s="14"/>
       <c r="E48" s="14"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" s="14"/>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
       <c r="D49" s="14"/>
       <c r="E49" s="14"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" s="14"/>
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
       <c r="E50" s="14"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" s="1"/>
       <c r="B52" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="1"/>
     </row>
   </sheetData>
@@ -7520,16 +7536,16 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.88671875" customWidth="1"/>
-    <col min="6" max="6" width="43.77734375" customWidth="1"/>
-    <col min="7" max="7" width="38.77734375" customWidth="1"/>
+    <col min="2" max="2" width="33.375" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.875" customWidth="1"/>
+    <col min="6" max="6" width="43.75" customWidth="1"/>
+    <col min="7" max="7" width="38.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -7541,7 +7557,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -7564,7 +7580,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>324</v>
       </c>
@@ -7572,7 +7588,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>323</v>
       </c>
@@ -7582,28 +7598,28 @@
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
@@ -7639,17 +7655,17 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -7675,7 +7691,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>44228</v>
       </c>
@@ -7695,7 +7711,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="6">
         <v>44229</v>
       </c>
@@ -7715,7 +7731,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>44230</v>
       </c>
@@ -7741,7 +7757,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>44231</v>
       </c>
@@ -7761,7 +7777,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>44232</v>
       </c>
@@ -7781,7 +7797,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>44233</v>
       </c>
@@ -7804,7 +7820,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>44234</v>
       </c>
@@ -7824,7 +7840,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <v>44235</v>
       </c>
@@ -7844,7 +7860,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>44236</v>
       </c>
@@ -7864,7 +7880,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>44237</v>
       </c>
@@ -7884,7 +7900,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>44238</v>
       </c>
@@ -7907,7 +7923,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>44239</v>
       </c>
@@ -7924,7 +7940,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>44240</v>
       </c>
@@ -7947,7 +7963,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
         <v>44241</v>
       </c>
@@ -7970,7 +7986,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
         <v>44242</v>
       </c>
@@ -7987,7 +8003,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
         <v>44243</v>
       </c>
@@ -8004,7 +8020,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
         <v>44244</v>
       </c>
@@ -8027,7 +8043,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="6">
         <v>44245</v>
       </c>
@@ -8047,7 +8063,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="6">
         <v>44246</v>
       </c>
@@ -8064,7 +8080,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="6">
         <v>44247</v>
       </c>
@@ -8084,7 +8100,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="6">
         <v>44248</v>
       </c>
@@ -8104,7 +8120,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="6">
         <v>44249</v>
       </c>
@@ -8121,7 +8137,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="6">
         <v>44250</v>
       </c>
@@ -8139,7 +8155,7 @@
       </c>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="6">
         <v>44251</v>
       </c>
@@ -8156,7 +8172,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="6">
         <v>44252</v>
       </c>
@@ -8173,7 +8189,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="6">
         <v>44253</v>
       </c>
@@ -8199,7 +8215,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="6">
         <v>44254</v>
       </c>
@@ -8222,7 +8238,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="6">
         <v>44255</v>
       </c>
@@ -8242,19 +8258,19 @@
         <v>154</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="2"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
         <v>12</v>
       </c>
@@ -8263,7 +8279,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
         <v>18</v>
       </c>
@@ -8272,7 +8288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
         <v>161</v>
       </c>
@@ -8281,7 +8297,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
         <v>159</v>
       </c>
@@ -8290,18 +8306,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="15" t="s">
         <v>225</v>
       </c>
@@ -8310,105 +8326,105 @@
       <c r="D41" s="15"/>
       <c r="E41" s="15"/>
     </row>
-    <row r="42" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="15"/>
       <c r="B42" s="15"/>
       <c r="C42" s="15"/>
       <c r="D42" s="15"/>
       <c r="E42" s="15"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="1"/>
     </row>
   </sheetData>
@@ -8441,17 +8457,17 @@
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -8477,7 +8493,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="7">
         <v>44256</v>
       </c>
@@ -8500,7 +8516,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="7">
         <v>44257</v>
       </c>
@@ -8523,7 +8539,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
         <v>44258</v>
       </c>
@@ -8549,7 +8565,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
         <v>44259</v>
       </c>
@@ -8572,7 +8588,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
         <v>44260</v>
       </c>
@@ -8592,7 +8608,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
         <v>44261</v>
       </c>
@@ -8612,7 +8628,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="7">
         <v>44262</v>
       </c>
@@ -8635,7 +8651,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
         <v>44263</v>
       </c>
@@ -8655,7 +8671,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
         <v>44264</v>
       </c>
@@ -8675,7 +8691,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
         <v>44265</v>
       </c>
@@ -8695,7 +8711,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="7">
         <v>44266</v>
       </c>
@@ -8715,7 +8731,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
         <v>44267</v>
       </c>
@@ -8735,7 +8751,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="7">
         <v>44268</v>
       </c>
@@ -8758,7 +8774,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="7">
         <v>44269</v>
       </c>
@@ -8781,7 +8797,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="7">
         <v>44270</v>
       </c>
@@ -8798,7 +8814,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="7">
         <v>44271</v>
       </c>
@@ -8815,7 +8831,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="7">
         <v>44272</v>
       </c>
@@ -8835,7 +8851,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="7">
         <v>44273</v>
       </c>
@@ -8855,7 +8871,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="7">
         <v>44274</v>
       </c>
@@ -8872,7 +8888,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="7">
         <v>44275</v>
       </c>
@@ -8892,7 +8908,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="7">
         <v>44276</v>
       </c>
@@ -8909,7 +8925,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="7">
         <v>44277</v>
       </c>
@@ -8929,7 +8945,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="7">
         <v>44278</v>
       </c>
@@ -8949,7 +8965,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="7">
         <v>44279</v>
       </c>
@@ -8969,7 +8985,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="7">
         <v>44280</v>
       </c>
@@ -8989,7 +9005,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="7">
         <v>44281</v>
       </c>
@@ -9009,7 +9025,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="7">
         <v>44282</v>
       </c>
@@ -9029,7 +9045,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="7">
         <v>44283</v>
       </c>
@@ -9049,7 +9065,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="7">
         <v>44284</v>
       </c>
@@ -9072,7 +9088,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="7">
         <v>44285</v>
       </c>
@@ -9095,7 +9111,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="7">
         <v>44286</v>
       </c>
@@ -9115,10 +9131,10 @@
         <v>381</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="7"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="7" t="s">
         <v>12</v>
       </c>
@@ -9127,7 +9143,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="7" t="s">
         <v>18</v>
       </c>
@@ -9136,7 +9152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="7" t="s">
         <v>161</v>
       </c>
@@ -9145,7 +9161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="7" t="s">
         <v>159</v>
       </c>
@@ -9154,113 +9170,113 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="7"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="7"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="7"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="7"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="7" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="7" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="7"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="7"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="7"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="7"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="7"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="7"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="7"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="7"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="7"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="7"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="7"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="7"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="7"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="7"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="7"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="7"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="7"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="7"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="7"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="7"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="7"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="7"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="7"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="7"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="7"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="7"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="7"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="7"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="7"/>
     </row>
   </sheetData>
@@ -9287,21 +9303,21 @@
   <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="66.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="66.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -9327,7 +9343,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="11">
         <v>44287</v>
       </c>
@@ -9347,7 +9363,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="11">
         <v>44288</v>
       </c>
@@ -9367,7 +9383,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="11">
         <v>44289</v>
       </c>
@@ -9387,7 +9403,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="11">
         <v>44290</v>
       </c>
@@ -9407,7 +9423,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="11">
         <v>44291</v>
       </c>
@@ -9427,7 +9443,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="11">
         <v>44292</v>
       </c>
@@ -9447,7 +9463,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="11">
         <v>44293</v>
       </c>
@@ -9470,7 +9486,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="11">
         <v>44294</v>
       </c>
@@ -9490,7 +9506,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="11">
         <v>44295</v>
       </c>
@@ -9510,7 +9526,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="11">
         <v>44296</v>
       </c>
@@ -9527,7 +9543,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="11">
         <v>44297</v>
       </c>
@@ -9550,7 +9566,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="11">
         <v>44298</v>
       </c>
@@ -9573,7 +9589,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="11">
         <v>44299</v>
       </c>
@@ -9593,7 +9609,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="11">
         <v>44300</v>
       </c>
@@ -9613,102 +9629,117 @@
         <v>451</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="11">
         <v>44301</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>213</v>
+      </c>
+      <c r="C16" t="s">
+        <v>452</v>
+      </c>
+      <c r="D16" t="s">
+        <v>453</v>
+      </c>
+      <c r="E16" t="s">
+        <v>454</v>
+      </c>
+      <c r="F16" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="11">
         <v>44302</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="11">
         <v>44303</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="11">
         <v>44304</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="11">
         <v>44305</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="11">
         <v>44306</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="11">
         <v>44307</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="11">
         <v>44308</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="11">
         <v>44309</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="11">
         <v>44310</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="11">
         <v>44311</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="11">
         <v>44312</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="11">
         <v>44313</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="11">
         <v>44314</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="11">
         <v>44315</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="11">
         <v>44316</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="11"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="11"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B34">
         <f>COUNTIF(E2:E32,"自己做出")</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="11" t="s">
         <v>18</v>
       </c>
@@ -9717,7 +9748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="11" t="s">
         <v>161</v>
       </c>
@@ -9726,7 +9757,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="11" t="s">
         <v>159</v>
       </c>
@@ -9735,109 +9766,109 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="11"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="11"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="11"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="11"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="11"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="11"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="11"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="11"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="11"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="11"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="11"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="11"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="11"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="11"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="11"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="11"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="11"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="11"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="11"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="11"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="11"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="11"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="11"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="11"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="11"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="11"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="11"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="11"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="11"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="11"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="11"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="11"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="11"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="11"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="11"/>
     </row>
   </sheetData>
@@ -9867,7 +9898,7 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9882,16 +9913,16 @@
       <selection activeCell="B14" sqref="B14:F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.88671875" customWidth="1"/>
-    <col min="6" max="6" width="43.77734375" customWidth="1"/>
-    <col min="7" max="7" width="38.77734375" customWidth="1"/>
+    <col min="2" max="2" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.875" customWidth="1"/>
+    <col min="6" max="6" width="43.75" customWidth="1"/>
+    <col min="7" max="7" width="38.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -9905,7 +9936,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -9928,7 +9959,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1800</v>
       </c>
@@ -9942,7 +9973,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1801</v>
       </c>
@@ -9959,7 +9990,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>1802</v>
       </c>
@@ -9979,7 +10010,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>1803</v>
       </c>
@@ -9996,7 +10027,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>324</v>
       </c>
@@ -10010,7 +10041,7 @@
         <v>5009</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>323</v>
       </c>
@@ -10022,28 +10053,28 @@
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
@@ -10079,16 +10110,16 @@
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.88671875" customWidth="1"/>
-    <col min="6" max="6" width="43.77734375" customWidth="1"/>
-    <col min="7" max="7" width="38.77734375" customWidth="1"/>
+    <col min="2" max="2" width="33.375" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.875" customWidth="1"/>
+    <col min="6" max="6" width="43.75" customWidth="1"/>
+    <col min="7" max="7" width="38.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -10102,7 +10133,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -10125,7 +10156,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>5713</v>
       </c>
@@ -10145,7 +10176,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>5715</v>
       </c>
@@ -10162,7 +10193,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5714</v>
       </c>
@@ -10179,7 +10210,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5716</v>
       </c>
@@ -10196,7 +10227,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>324</v>
       </c>
@@ -10210,7 +10241,7 @@
         <v>4996</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>87</v>
       </c>
@@ -10222,28 +10253,28 @@
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
@@ -10279,16 +10310,16 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.88671875" customWidth="1"/>
-    <col min="6" max="6" width="43.77734375" customWidth="1"/>
-    <col min="7" max="7" width="38.77734375" customWidth="1"/>
+    <col min="2" max="2" width="33.375" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.875" customWidth="1"/>
+    <col min="6" max="6" width="43.75" customWidth="1"/>
+    <col min="7" max="7" width="38.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -10302,7 +10333,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -10325,7 +10356,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>400</v>
       </c>
@@ -10342,7 +10373,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>401</v>
       </c>
@@ -10359,7 +10390,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>402</v>
       </c>
@@ -10376,7 +10407,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>403</v>
       </c>
@@ -10393,7 +10424,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>404</v>
       </c>
@@ -10410,7 +10441,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>324</v>
       </c>
@@ -10424,7 +10455,7 @@
         <v>9932</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>87</v>
       </c>
@@ -10436,28 +10467,28 @@
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
@@ -10493,16 +10524,16 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -10528,105 +10559,105 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>43831</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
         <v>12</v>
       </c>
@@ -10635,7 +10666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
         <v>18</v>
       </c>
@@ -10644,7 +10675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
         <v>161</v>
       </c>
@@ -10653,7 +10684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
         <v>159</v>
       </c>
@@ -10662,109 +10693,109 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="1"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="1"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="1"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="1"/>
     </row>
   </sheetData>

--- a/力扣做题情况.xlsx
+++ b/力扣做题情况.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20372"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20373"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB535BD-B8EF-4F46-938F-EC8BAC3BA3AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88ADE46D-8CEE-460C-86E7-5A29731BAB9F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="467">
   <si>
     <t>种花问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1833,6 +1833,50 @@
   </si>
   <si>
     <t>dp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扰乱字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>困难</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CV后没看懂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整个题解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存在重复元素III</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CV后看懂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动窗口+set/桶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对有序滑动窗口运用set</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桶</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2920,10 +2964,10 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9303,7 +9347,7 @@
   <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9649,82 +9693,121 @@
         <v>455</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="11">
         <v>44302</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B17">
+        <v>87</v>
+      </c>
+      <c r="C17" t="s">
+        <v>456</v>
+      </c>
+      <c r="D17" t="s">
+        <v>457</v>
+      </c>
+      <c r="E17" t="s">
+        <v>458</v>
+      </c>
+      <c r="F17" t="s">
+        <v>459</v>
+      </c>
+      <c r="H17" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="11">
         <v>44303</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B18">
+        <v>220</v>
+      </c>
+      <c r="C18" t="s">
+        <v>461</v>
+      </c>
+      <c r="D18" t="s">
+        <v>462</v>
+      </c>
+      <c r="E18" t="s">
+        <v>463</v>
+      </c>
+      <c r="F18" t="s">
+        <v>464</v>
+      </c>
+      <c r="G18" t="s">
+        <v>465</v>
+      </c>
+      <c r="H18" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="11">
         <v>44304</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="11">
         <v>44305</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="11">
         <v>44306</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="11">
         <v>44307</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="11">
         <v>44308</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="11">
         <v>44309</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="11">
         <v>44310</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="11">
         <v>44311</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="11">
         <v>44312</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="11">
         <v>44313</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="11">
         <v>44314</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="11">
         <v>44315</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="11">
         <v>44316</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="11"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
@@ -9754,7 +9837,7 @@
       </c>
       <c r="B36">
         <f>COUNTIF(E2:E32,"CV后看懂")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
@@ -9763,7 +9846,7 @@
       </c>
       <c r="B37">
         <f>COUNTIF(E2:E32,"CV后没看懂")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">

--- a/力扣做题情况.xlsx
+++ b/力扣做题情况.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20373"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88ADE46D-8CEE-460C-86E7-5A29731BAB9F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9B2A58-498B-4BF5-BDBD-6AAF9D3BE7AD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="16152" windowHeight="8508" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="21年1月" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="485">
   <si>
     <t>种花问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1877,6 +1877,78 @@
   </si>
   <si>
     <t>桶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除有序数组中的重复项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移除元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++库函数remove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现strStr()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KMP算法/BM算法/Sunday算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解码方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++库函数tie</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2958,7 +3030,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>11</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -6662,17 +6734,17 @@
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="52.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="52.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -6698,7 +6770,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44197</v>
       </c>
@@ -6721,7 +6793,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>44198</v>
       </c>
@@ -6747,7 +6819,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>44199</v>
       </c>
@@ -6764,7 +6836,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>44200</v>
       </c>
@@ -6781,7 +6853,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>44201</v>
       </c>
@@ -6798,7 +6870,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>44202</v>
       </c>
@@ -6824,7 +6896,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>44203</v>
       </c>
@@ -6850,7 +6922,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>44204</v>
       </c>
@@ -6870,7 +6942,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>44205</v>
       </c>
@@ -6893,7 +6965,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>44206</v>
       </c>
@@ -6910,7 +6982,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>44207</v>
       </c>
@@ -6936,7 +7008,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>44208</v>
       </c>
@@ -6959,7 +7031,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>44209</v>
       </c>
@@ -6982,7 +7054,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>44210</v>
       </c>
@@ -6999,7 +7071,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>44211</v>
       </c>
@@ -7022,7 +7094,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>44212</v>
       </c>
@@ -7045,7 +7117,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>44213</v>
       </c>
@@ -7065,7 +7137,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>44214</v>
       </c>
@@ -7088,7 +7160,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>44215</v>
       </c>
@@ -7111,7 +7183,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>44216</v>
       </c>
@@ -7131,7 +7203,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>44217</v>
       </c>
@@ -7157,7 +7229,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>44218</v>
       </c>
@@ -7177,7 +7249,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>44219</v>
       </c>
@@ -7197,7 +7269,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>44220</v>
       </c>
@@ -7217,7 +7289,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>44221</v>
       </c>
@@ -7237,7 +7309,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>44222</v>
       </c>
@@ -7260,7 +7332,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>44223</v>
       </c>
@@ -7280,7 +7352,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>44224</v>
       </c>
@@ -7297,7 +7369,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>44225</v>
       </c>
@@ -7323,7 +7395,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>44226</v>
       </c>
@@ -7340,7 +7412,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>44227</v>
       </c>
@@ -7360,10 +7432,10 @@
         <v>126</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>17</v>
       </c>
@@ -7372,7 +7444,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>18</v>
       </c>
@@ -7381,7 +7453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>161</v>
       </c>
@@ -7390,7 +7462,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>159</v>
       </c>
@@ -7399,18 +7471,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
         <v>127</v>
       </c>
@@ -7419,36 +7491,36 @@
       <c r="D41" s="13"/>
       <c r="E41" s="13"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="13"/>
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>
       <c r="E42" s="13"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="13"/>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
       <c r="D43" s="13"/>
       <c r="E43" s="13"/>
     </row>
-    <row r="44" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="13"/>
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
       <c r="E44" s="13"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
         <v>121</v>
       </c>
@@ -7457,96 +7529,96 @@
       <c r="D47" s="14"/>
       <c r="E47" s="14"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="14"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
       <c r="D48" s="14"/>
       <c r="E48" s="14"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="14"/>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
       <c r="D49" s="14"/>
       <c r="E49" s="14"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="14"/>
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
       <c r="E50" s="14"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
     </row>
   </sheetData>
@@ -7580,16 +7652,16 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.375" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.875" customWidth="1"/>
-    <col min="6" max="6" width="43.75" customWidth="1"/>
-    <col min="7" max="7" width="38.75" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.88671875" customWidth="1"/>
+    <col min="6" max="6" width="43.77734375" customWidth="1"/>
+    <col min="7" max="7" width="38.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -7601,7 +7673,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -7624,7 +7696,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>324</v>
       </c>
@@ -7632,7 +7704,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>323</v>
       </c>
@@ -7642,28 +7714,28 @@
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
@@ -7699,17 +7771,17 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -7735,7 +7807,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44228</v>
       </c>
@@ -7755,7 +7827,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>44229</v>
       </c>
@@ -7775,7 +7847,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>44230</v>
       </c>
@@ -7801,7 +7873,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>44231</v>
       </c>
@@ -7821,7 +7893,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>44232</v>
       </c>
@@ -7841,7 +7913,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>44233</v>
       </c>
@@ -7864,7 +7936,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>44234</v>
       </c>
@@ -7884,7 +7956,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>44235</v>
       </c>
@@ -7904,7 +7976,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>44236</v>
       </c>
@@ -7924,7 +7996,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>44237</v>
       </c>
@@ -7944,7 +8016,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>44238</v>
       </c>
@@ -7967,7 +8039,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>44239</v>
       </c>
@@ -7984,7 +8056,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>44240</v>
       </c>
@@ -8007,7 +8079,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>44241</v>
       </c>
@@ -8030,7 +8102,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>44242</v>
       </c>
@@ -8047,7 +8119,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>44243</v>
       </c>
@@ -8064,7 +8136,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>44244</v>
       </c>
@@ -8087,7 +8159,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>44245</v>
       </c>
@@ -8107,7 +8179,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>44246</v>
       </c>
@@ -8124,7 +8196,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>44247</v>
       </c>
@@ -8144,7 +8216,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>44248</v>
       </c>
@@ -8164,7 +8236,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>44249</v>
       </c>
@@ -8181,7 +8253,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>44250</v>
       </c>
@@ -8199,7 +8271,7 @@
       </c>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>44251</v>
       </c>
@@ -8216,7 +8288,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>44252</v>
       </c>
@@ -8233,7 +8305,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>44253</v>
       </c>
@@ -8259,7 +8331,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>44254</v>
       </c>
@@ -8282,7 +8354,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>44255</v>
       </c>
@@ -8302,19 +8374,19 @@
         <v>154</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>12</v>
       </c>
@@ -8323,7 +8395,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>18</v>
       </c>
@@ -8332,7 +8404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>161</v>
       </c>
@@ -8341,7 +8413,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>159</v>
       </c>
@@ -8350,18 +8422,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
         <v>225</v>
       </c>
@@ -8370,105 +8442,105 @@
       <c r="D41" s="15"/>
       <c r="E41" s="15"/>
     </row>
-    <row r="42" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="15"/>
       <c r="B42" s="15"/>
       <c r="C42" s="15"/>
       <c r="D42" s="15"/>
       <c r="E42" s="15"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
     </row>
   </sheetData>
@@ -8501,17 +8573,17 @@
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -8537,7 +8609,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>44256</v>
       </c>
@@ -8560,7 +8632,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>44257</v>
       </c>
@@ -8583,7 +8655,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>44258</v>
       </c>
@@ -8609,7 +8681,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>44259</v>
       </c>
@@ -8632,7 +8704,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>44260</v>
       </c>
@@ -8652,7 +8724,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>44261</v>
       </c>
@@ -8672,7 +8744,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>44262</v>
       </c>
@@ -8695,7 +8767,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>44263</v>
       </c>
@@ -8715,7 +8787,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>44264</v>
       </c>
@@ -8735,7 +8807,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>44265</v>
       </c>
@@ -8755,7 +8827,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>44266</v>
       </c>
@@ -8775,7 +8847,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>44267</v>
       </c>
@@ -8795,7 +8867,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>44268</v>
       </c>
@@ -8818,7 +8890,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>44269</v>
       </c>
@@ -8841,7 +8913,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>44270</v>
       </c>
@@ -8858,7 +8930,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>44271</v>
       </c>
@@ -8875,7 +8947,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>44272</v>
       </c>
@@ -8895,7 +8967,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>44273</v>
       </c>
@@ -8915,7 +8987,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>44274</v>
       </c>
@@ -8932,7 +9004,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>44275</v>
       </c>
@@ -8952,7 +9024,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>44276</v>
       </c>
@@ -8969,7 +9041,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>44277</v>
       </c>
@@ -8989,7 +9061,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>44278</v>
       </c>
@@ -9009,7 +9081,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>44279</v>
       </c>
@@ -9029,7 +9101,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>44280</v>
       </c>
@@ -9049,7 +9121,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>44281</v>
       </c>
@@ -9069,7 +9141,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>44282</v>
       </c>
@@ -9089,7 +9161,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>44283</v>
       </c>
@@ -9109,7 +9181,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>44284</v>
       </c>
@@ -9132,7 +9204,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>44285</v>
       </c>
@@ -9155,7 +9227,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>44286</v>
       </c>
@@ -9175,10 +9247,10 @@
         <v>381</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>12</v>
       </c>
@@ -9187,7 +9259,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>18</v>
       </c>
@@ -9196,7 +9268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>161</v>
       </c>
@@ -9205,7 +9277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>159</v>
       </c>
@@ -9214,113 +9286,113 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="7"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="7"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="7"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="7"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="7"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="7"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="7"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="7"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="7"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="7"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="7"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="7"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="7"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="7"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="7"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="7"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="7"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="7"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="7"/>
     </row>
   </sheetData>
@@ -9347,21 +9419,21 @@
   <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="66.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="66.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -9387,7 +9459,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>44287</v>
       </c>
@@ -9407,7 +9479,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>44288</v>
       </c>
@@ -9427,7 +9499,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>44289</v>
       </c>
@@ -9447,7 +9519,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>44290</v>
       </c>
@@ -9467,7 +9539,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>44291</v>
       </c>
@@ -9487,7 +9559,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>44292</v>
       </c>
@@ -9507,7 +9579,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>44293</v>
       </c>
@@ -9530,7 +9602,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>44294</v>
       </c>
@@ -9550,7 +9622,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>44295</v>
       </c>
@@ -9570,7 +9642,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>44296</v>
       </c>
@@ -9587,7 +9659,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>44297</v>
       </c>
@@ -9610,7 +9682,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>44298</v>
       </c>
@@ -9633,7 +9705,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>44299</v>
       </c>
@@ -9653,7 +9725,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>44300</v>
       </c>
@@ -9673,7 +9745,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>44301</v>
       </c>
@@ -9693,7 +9765,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>44302</v>
       </c>
@@ -9716,7 +9788,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>44303</v>
       </c>
@@ -9742,87 +9814,156 @@
         <v>466</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>44304</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B19">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>467</v>
+      </c>
+      <c r="D19" t="s">
+        <v>468</v>
+      </c>
+      <c r="E19" t="s">
+        <v>469</v>
+      </c>
+      <c r="F19" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>44305</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B20">
+        <v>27</v>
+      </c>
+      <c r="C20" t="s">
+        <v>471</v>
+      </c>
+      <c r="D20" t="s">
+        <v>472</v>
+      </c>
+      <c r="E20" t="s">
+        <v>473</v>
+      </c>
+      <c r="F20" t="s">
+        <v>474</v>
+      </c>
+      <c r="G20" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>44306</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B21">
+        <v>28</v>
+      </c>
+      <c r="C21" t="s">
+        <v>476</v>
+      </c>
+      <c r="D21" t="s">
+        <v>477</v>
+      </c>
+      <c r="E21" t="s">
+        <v>478</v>
+      </c>
+      <c r="F21" t="s">
+        <v>479</v>
+      </c>
+      <c r="H21" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>44307</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B22">
+        <v>91</v>
+      </c>
+      <c r="C22" t="s">
+        <v>480</v>
+      </c>
+      <c r="D22" t="s">
+        <v>481</v>
+      </c>
+      <c r="E22" t="s">
+        <v>482</v>
+      </c>
+      <c r="F22" t="s">
+        <v>483</v>
+      </c>
+      <c r="G22" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>44308</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>44309</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>44310</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>44311</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>44312</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>44313</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>44314</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>44315</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>44316</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B34">
         <f>COUNTIF(E2:E32,"自己做出")</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>18</v>
       </c>
@@ -9831,7 +9972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>161</v>
       </c>
@@ -9840,7 +9981,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>159</v>
       </c>
@@ -9849,109 +9990,109 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="11"/>
     </row>
   </sheetData>
@@ -9981,7 +10122,7 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9996,16 +10137,16 @@
       <selection activeCell="B14" sqref="B14:F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.875" customWidth="1"/>
-    <col min="6" max="6" width="43.75" customWidth="1"/>
-    <col min="7" max="7" width="38.75" customWidth="1"/>
+    <col min="2" max="2" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.88671875" customWidth="1"/>
+    <col min="6" max="6" width="43.77734375" customWidth="1"/>
+    <col min="7" max="7" width="38.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -10019,7 +10160,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -10042,7 +10183,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1800</v>
       </c>
@@ -10056,7 +10197,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1801</v>
       </c>
@@ -10073,7 +10214,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1802</v>
       </c>
@@ -10093,7 +10234,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1803</v>
       </c>
@@ -10110,7 +10251,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>324</v>
       </c>
@@ -10124,7 +10265,7 @@
         <v>5009</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>323</v>
       </c>
@@ -10136,28 +10277,28 @@
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
@@ -10193,16 +10334,16 @@
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.375" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.875" customWidth="1"/>
-    <col min="6" max="6" width="43.75" customWidth="1"/>
-    <col min="7" max="7" width="38.75" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.88671875" customWidth="1"/>
+    <col min="6" max="6" width="43.77734375" customWidth="1"/>
+    <col min="7" max="7" width="38.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -10216,7 +10357,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -10239,7 +10380,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5713</v>
       </c>
@@ -10259,7 +10400,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5715</v>
       </c>
@@ -10276,7 +10417,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5714</v>
       </c>
@@ -10293,7 +10434,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5716</v>
       </c>
@@ -10310,7 +10451,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>324</v>
       </c>
@@ -10324,7 +10465,7 @@
         <v>4996</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>87</v>
       </c>
@@ -10336,28 +10477,28 @@
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
@@ -10393,16 +10534,16 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.375" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.875" customWidth="1"/>
-    <col min="6" max="6" width="43.75" customWidth="1"/>
-    <col min="7" max="7" width="38.75" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.88671875" customWidth="1"/>
+    <col min="6" max="6" width="43.77734375" customWidth="1"/>
+    <col min="7" max="7" width="38.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -10416,7 +10557,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -10439,7 +10580,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>400</v>
       </c>
@@ -10456,7 +10597,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>401</v>
       </c>
@@ -10473,7 +10614,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>402</v>
       </c>
@@ -10490,7 +10631,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>403</v>
       </c>
@@ -10507,7 +10648,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>404</v>
       </c>
@@ -10524,7 +10665,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>324</v>
       </c>
@@ -10538,7 +10679,7 @@
         <v>9932</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>87</v>
       </c>
@@ -10550,28 +10691,28 @@
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
@@ -10607,16 +10748,16 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -10642,105 +10783,105 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43831</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>12</v>
       </c>
@@ -10749,7 +10890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>18</v>
       </c>
@@ -10758,7 +10899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>161</v>
       </c>
@@ -10767,7 +10908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>159</v>
       </c>
@@ -10776,109 +10917,109 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
     </row>
   </sheetData>

--- a/力扣做题情况.xlsx
+++ b/力扣做题情况.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20373"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9B2A58-498B-4BF5-BDBD-6AAF9D3BE7AD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA81BE9-0BEC-4C53-AED7-6A6CABC93DC6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16152" windowHeight="8508" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="21年1月" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="497">
   <si>
     <t>种花问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1940,15 +1940,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>自己做出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>dp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>C++库函数tie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矩形区域不超过K的最大数值和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>困难</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看思路写出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前缀和&amp;二分查找&amp;set</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二维数组前缀和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大整除子集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看思路写出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组合总和IV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3033,10 +3081,10 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
@@ -6734,17 +6782,17 @@
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="52.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="52.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -6770,7 +6818,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>44197</v>
       </c>
@@ -6793,7 +6841,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="6">
         <v>44198</v>
       </c>
@@ -6819,7 +6867,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>44199</v>
       </c>
@@ -6836,7 +6884,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>44200</v>
       </c>
@@ -6853,7 +6901,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>44201</v>
       </c>
@@ -6870,7 +6918,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>44202</v>
       </c>
@@ -6896,7 +6944,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>44203</v>
       </c>
@@ -6922,7 +6970,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <v>44204</v>
       </c>
@@ -6942,7 +6990,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>44205</v>
       </c>
@@ -6965,7 +7013,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>44206</v>
       </c>
@@ -6982,7 +7030,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>44207</v>
       </c>
@@ -7008,7 +7056,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>44208</v>
       </c>
@@ -7031,7 +7079,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>44209</v>
       </c>
@@ -7054,7 +7102,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
         <v>44210</v>
       </c>
@@ -7071,7 +7119,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
         <v>44211</v>
       </c>
@@ -7094,7 +7142,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
         <v>44212</v>
       </c>
@@ -7117,7 +7165,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
         <v>44213</v>
       </c>
@@ -7137,7 +7185,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="6">
         <v>44214</v>
       </c>
@@ -7160,7 +7208,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="6">
         <v>44215</v>
       </c>
@@ -7183,7 +7231,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="6">
         <v>44216</v>
       </c>
@@ -7203,7 +7251,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="6">
         <v>44217</v>
       </c>
@@ -7229,7 +7277,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="6">
         <v>44218</v>
       </c>
@@ -7249,7 +7297,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="6">
         <v>44219</v>
       </c>
@@ -7269,7 +7317,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="6">
         <v>44220</v>
       </c>
@@ -7289,7 +7337,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="6">
         <v>44221</v>
       </c>
@@ -7309,7 +7357,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="6">
         <v>44222</v>
       </c>
@@ -7332,7 +7380,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="6">
         <v>44223</v>
       </c>
@@ -7352,7 +7400,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="6">
         <v>44224</v>
       </c>
@@ -7369,7 +7417,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="6">
         <v>44225</v>
       </c>
@@ -7395,7 +7443,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="6">
         <v>44226</v>
       </c>
@@ -7412,7 +7460,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="6">
         <v>44227</v>
       </c>
@@ -7432,10 +7480,10 @@
         <v>126</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>17</v>
       </c>
@@ -7444,7 +7492,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>18</v>
       </c>
@@ -7453,7 +7501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>161</v>
       </c>
@@ -7462,7 +7510,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>159</v>
       </c>
@@ -7471,18 +7519,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="13" t="s">
         <v>127</v>
       </c>
@@ -7491,36 +7539,36 @@
       <c r="D41" s="13"/>
       <c r="E41" s="13"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="13"/>
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>
       <c r="E42" s="13"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="13"/>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
       <c r="D43" s="13"/>
       <c r="E43" s="13"/>
     </row>
-    <row r="44" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="13"/>
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
       <c r="E44" s="13"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="14" t="s">
         <v>121</v>
       </c>
@@ -7529,96 +7577,96 @@
       <c r="D47" s="14"/>
       <c r="E47" s="14"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="14"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
       <c r="D48" s="14"/>
       <c r="E48" s="14"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" s="14"/>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
       <c r="D49" s="14"/>
       <c r="E49" s="14"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" s="14"/>
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
       <c r="E50" s="14"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" s="1"/>
       <c r="B52" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="1"/>
     </row>
   </sheetData>
@@ -7652,16 +7700,16 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.88671875" customWidth="1"/>
-    <col min="6" max="6" width="43.77734375" customWidth="1"/>
-    <col min="7" max="7" width="38.77734375" customWidth="1"/>
+    <col min="2" max="2" width="33.375" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.875" customWidth="1"/>
+    <col min="6" max="6" width="43.75" customWidth="1"/>
+    <col min="7" max="7" width="38.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -7673,7 +7721,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -7696,7 +7744,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>324</v>
       </c>
@@ -7704,7 +7752,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>323</v>
       </c>
@@ -7714,28 +7762,28 @@
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
@@ -7771,17 +7819,17 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -7807,7 +7855,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>44228</v>
       </c>
@@ -7827,7 +7875,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="6">
         <v>44229</v>
       </c>
@@ -7847,7 +7895,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>44230</v>
       </c>
@@ -7873,7 +7921,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>44231</v>
       </c>
@@ -7893,7 +7941,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>44232</v>
       </c>
@@ -7913,7 +7961,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>44233</v>
       </c>
@@ -7936,7 +7984,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>44234</v>
       </c>
@@ -7956,7 +8004,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <v>44235</v>
       </c>
@@ -7976,7 +8024,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>44236</v>
       </c>
@@ -7996,7 +8044,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>44237</v>
       </c>
@@ -8016,7 +8064,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>44238</v>
       </c>
@@ -8039,7 +8087,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>44239</v>
       </c>
@@ -8056,7 +8104,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>44240</v>
       </c>
@@ -8079,7 +8127,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
         <v>44241</v>
       </c>
@@ -8102,7 +8150,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
         <v>44242</v>
       </c>
@@ -8119,7 +8167,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
         <v>44243</v>
       </c>
@@ -8136,7 +8184,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
         <v>44244</v>
       </c>
@@ -8159,7 +8207,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="6">
         <v>44245</v>
       </c>
@@ -8179,7 +8227,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="6">
         <v>44246</v>
       </c>
@@ -8196,7 +8244,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="6">
         <v>44247</v>
       </c>
@@ -8216,7 +8264,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="6">
         <v>44248</v>
       </c>
@@ -8236,7 +8284,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="6">
         <v>44249</v>
       </c>
@@ -8253,7 +8301,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="6">
         <v>44250</v>
       </c>
@@ -8271,7 +8319,7 @@
       </c>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="6">
         <v>44251</v>
       </c>
@@ -8288,7 +8336,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="6">
         <v>44252</v>
       </c>
@@ -8305,7 +8353,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="6">
         <v>44253</v>
       </c>
@@ -8331,7 +8379,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="6">
         <v>44254</v>
       </c>
@@ -8354,7 +8402,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="6">
         <v>44255</v>
       </c>
@@ -8374,19 +8422,19 @@
         <v>154</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="2"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
         <v>12</v>
       </c>
@@ -8395,7 +8443,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
         <v>18</v>
       </c>
@@ -8404,7 +8452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
         <v>161</v>
       </c>
@@ -8413,7 +8461,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
         <v>159</v>
       </c>
@@ -8422,18 +8470,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="15" t="s">
         <v>225</v>
       </c>
@@ -8442,105 +8490,105 @@
       <c r="D41" s="15"/>
       <c r="E41" s="15"/>
     </row>
-    <row r="42" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="15"/>
       <c r="B42" s="15"/>
       <c r="C42" s="15"/>
       <c r="D42" s="15"/>
       <c r="E42" s="15"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="1"/>
     </row>
   </sheetData>
@@ -8573,17 +8621,17 @@
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -8609,7 +8657,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="7">
         <v>44256</v>
       </c>
@@ -8632,7 +8680,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="7">
         <v>44257</v>
       </c>
@@ -8655,7 +8703,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
         <v>44258</v>
       </c>
@@ -8681,7 +8729,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
         <v>44259</v>
       </c>
@@ -8704,7 +8752,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
         <v>44260</v>
       </c>
@@ -8724,7 +8772,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
         <v>44261</v>
       </c>
@@ -8744,7 +8792,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="7">
         <v>44262</v>
       </c>
@@ -8767,7 +8815,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
         <v>44263</v>
       </c>
@@ -8787,7 +8835,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
         <v>44264</v>
       </c>
@@ -8807,7 +8855,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
         <v>44265</v>
       </c>
@@ -8827,7 +8875,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="7">
         <v>44266</v>
       </c>
@@ -8847,7 +8895,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
         <v>44267</v>
       </c>
@@ -8867,7 +8915,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="7">
         <v>44268</v>
       </c>
@@ -8890,7 +8938,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="7">
         <v>44269</v>
       </c>
@@ -8913,7 +8961,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="7">
         <v>44270</v>
       </c>
@@ -8930,7 +8978,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="7">
         <v>44271</v>
       </c>
@@ -8947,7 +8995,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="7">
         <v>44272</v>
       </c>
@@ -8967,7 +9015,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="7">
         <v>44273</v>
       </c>
@@ -8987,7 +9035,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="7">
         <v>44274</v>
       </c>
@@ -9004,7 +9052,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="7">
         <v>44275</v>
       </c>
@@ -9024,7 +9072,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="7">
         <v>44276</v>
       </c>
@@ -9041,7 +9089,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="7">
         <v>44277</v>
       </c>
@@ -9061,7 +9109,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="7">
         <v>44278</v>
       </c>
@@ -9081,7 +9129,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="7">
         <v>44279</v>
       </c>
@@ -9101,7 +9149,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="7">
         <v>44280</v>
       </c>
@@ -9121,7 +9169,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="7">
         <v>44281</v>
       </c>
@@ -9141,7 +9189,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="7">
         <v>44282</v>
       </c>
@@ -9161,7 +9209,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="7">
         <v>44283</v>
       </c>
@@ -9181,7 +9229,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="7">
         <v>44284</v>
       </c>
@@ -9204,7 +9252,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="7">
         <v>44285</v>
       </c>
@@ -9227,7 +9275,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="7">
         <v>44286</v>
       </c>
@@ -9247,10 +9295,10 @@
         <v>381</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="7"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="7" t="s">
         <v>12</v>
       </c>
@@ -9259,7 +9307,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="7" t="s">
         <v>18</v>
       </c>
@@ -9268,7 +9316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="7" t="s">
         <v>161</v>
       </c>
@@ -9277,7 +9325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="7" t="s">
         <v>159</v>
       </c>
@@ -9286,113 +9334,113 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="7"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="7"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="7"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="7"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="7" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="7" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="7"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="7"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="7"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="7"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="7"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="7"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="7"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="7"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="7"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="7"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="7"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="7"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="7"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="7"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="7"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="7"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="7"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="7"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="7"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="7"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="7"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="7"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="7"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="7"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="7"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="7"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="7"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="7"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="7"/>
     </row>
   </sheetData>
@@ -9419,21 +9467,21 @@
   <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="66.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="66.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -9459,7 +9507,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="11">
         <v>44287</v>
       </c>
@@ -9479,7 +9527,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="11">
         <v>44288</v>
       </c>
@@ -9499,7 +9547,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="11">
         <v>44289</v>
       </c>
@@ -9519,7 +9567,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="11">
         <v>44290</v>
       </c>
@@ -9539,7 +9587,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="11">
         <v>44291</v>
       </c>
@@ -9559,7 +9607,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="11">
         <v>44292</v>
       </c>
@@ -9579,7 +9627,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="11">
         <v>44293</v>
       </c>
@@ -9602,7 +9650,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="11">
         <v>44294</v>
       </c>
@@ -9622,7 +9670,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="11">
         <v>44295</v>
       </c>
@@ -9642,7 +9690,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="11">
         <v>44296</v>
       </c>
@@ -9659,7 +9707,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="11">
         <v>44297</v>
       </c>
@@ -9682,7 +9730,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="11">
         <v>44298</v>
       </c>
@@ -9705,7 +9753,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="11">
         <v>44299</v>
       </c>
@@ -9725,7 +9773,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="11">
         <v>44300</v>
       </c>
@@ -9745,7 +9793,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="11">
         <v>44301</v>
       </c>
@@ -9765,7 +9813,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="11">
         <v>44302</v>
       </c>
@@ -9788,7 +9836,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="11">
         <v>44303</v>
       </c>
@@ -9814,7 +9862,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="11">
         <v>44304</v>
       </c>
@@ -9834,7 +9882,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="11">
         <v>44305</v>
       </c>
@@ -9857,7 +9905,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="11">
         <v>44306</v>
       </c>
@@ -9880,7 +9928,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="11">
         <v>44307</v>
       </c>
@@ -9894,67 +9942,118 @@
         <v>481</v>
       </c>
       <c r="E22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" t="s">
         <v>482</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>483</v>
       </c>
-      <c r="G22" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="11">
         <v>44308</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>363</v>
+      </c>
+      <c r="C23" t="s">
+        <v>484</v>
+      </c>
+      <c r="D23" t="s">
+        <v>485</v>
+      </c>
+      <c r="E23" t="s">
+        <v>486</v>
+      </c>
+      <c r="F23" t="s">
+        <v>487</v>
+      </c>
+      <c r="G23" t="s">
+        <v>488</v>
+      </c>
+      <c r="H23" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="11">
         <v>44309</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>368</v>
+      </c>
+      <c r="C24" t="s">
+        <v>489</v>
+      </c>
+      <c r="D24" t="s">
+        <v>490</v>
+      </c>
+      <c r="E24" t="s">
+        <v>491</v>
+      </c>
+      <c r="F24" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="11">
         <v>44310</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>377</v>
+      </c>
+      <c r="C25" t="s">
+        <v>494</v>
+      </c>
+      <c r="D25" t="s">
+        <v>495</v>
+      </c>
+      <c r="E25" t="s">
+        <v>160</v>
+      </c>
+      <c r="F25" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="11">
         <v>44311</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="11">
         <v>44312</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="11">
         <v>44313</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="11">
         <v>44314</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="11">
         <v>44315</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="11">
         <v>44316</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="11"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="11"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="11" t="s">
         <v>12</v>
       </c>
@@ -9963,25 +10062,25 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B35">
         <f>COUNTIF(E2:E32,"看思路写出")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="11" t="s">
         <v>161</v>
       </c>
       <c r="B36">
         <f>COUNTIF(E2:E32,"CV后看懂")</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="11" t="s">
         <v>159</v>
       </c>
@@ -9990,109 +10089,109 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="11"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="11"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="11"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="11"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="11"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="11"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="11"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="11"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="11"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="11"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="11"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="11"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="11"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="11"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="11"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="11"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="11"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="11"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="11"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="11"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="11"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="11"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="11"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="11"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="11"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="11"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="11"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="11"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="11"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="11"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="11"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="11"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="11"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="11"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="11"/>
     </row>
   </sheetData>
@@ -10122,7 +10221,7 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10137,16 +10236,16 @@
       <selection activeCell="B14" sqref="B14:F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.88671875" customWidth="1"/>
-    <col min="6" max="6" width="43.77734375" customWidth="1"/>
-    <col min="7" max="7" width="38.77734375" customWidth="1"/>
+    <col min="2" max="2" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.875" customWidth="1"/>
+    <col min="6" max="6" width="43.75" customWidth="1"/>
+    <col min="7" max="7" width="38.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -10160,7 +10259,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -10183,7 +10282,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1800</v>
       </c>
@@ -10197,7 +10296,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1801</v>
       </c>
@@ -10214,7 +10313,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>1802</v>
       </c>
@@ -10234,7 +10333,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>1803</v>
       </c>
@@ -10251,7 +10350,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>324</v>
       </c>
@@ -10265,7 +10364,7 @@
         <v>5009</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>323</v>
       </c>
@@ -10277,28 +10376,28 @@
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
@@ -10334,16 +10433,16 @@
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.88671875" customWidth="1"/>
-    <col min="6" max="6" width="43.77734375" customWidth="1"/>
-    <col min="7" max="7" width="38.77734375" customWidth="1"/>
+    <col min="2" max="2" width="33.375" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.875" customWidth="1"/>
+    <col min="6" max="6" width="43.75" customWidth="1"/>
+    <col min="7" max="7" width="38.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -10357,7 +10456,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -10380,7 +10479,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>5713</v>
       </c>
@@ -10400,7 +10499,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>5715</v>
       </c>
@@ -10417,7 +10516,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5714</v>
       </c>
@@ -10434,7 +10533,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5716</v>
       </c>
@@ -10451,7 +10550,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>324</v>
       </c>
@@ -10465,7 +10564,7 @@
         <v>4996</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>87</v>
       </c>
@@ -10477,28 +10576,28 @@
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
@@ -10534,16 +10633,16 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.88671875" customWidth="1"/>
-    <col min="6" max="6" width="43.77734375" customWidth="1"/>
-    <col min="7" max="7" width="38.77734375" customWidth="1"/>
+    <col min="2" max="2" width="33.375" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.875" customWidth="1"/>
+    <col min="6" max="6" width="43.75" customWidth="1"/>
+    <col min="7" max="7" width="38.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -10557,7 +10656,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -10580,7 +10679,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>400</v>
       </c>
@@ -10597,7 +10696,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>401</v>
       </c>
@@ -10614,7 +10713,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>402</v>
       </c>
@@ -10631,7 +10730,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>403</v>
       </c>
@@ -10648,7 +10747,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>404</v>
       </c>
@@ -10665,7 +10764,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>324</v>
       </c>
@@ -10679,7 +10778,7 @@
         <v>9932</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>87</v>
       </c>
@@ -10691,28 +10790,28 @@
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
@@ -10748,16 +10847,16 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -10783,105 +10882,105 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>43831</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
         <v>12</v>
       </c>
@@ -10890,7 +10989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
         <v>18</v>
       </c>
@@ -10899,7 +10998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
         <v>161</v>
       </c>
@@ -10908,7 +11007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
         <v>159</v>
       </c>
@@ -10917,109 +11016,109 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="1"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="1"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="1"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="1"/>
     </row>
   </sheetData>

--- a/力扣做题情况.xlsx
+++ b/力扣做题情况.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20373"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA81BE9-0BEC-4C53-AED7-6A6CABC93DC6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{572F3953-0465-4944-9A6F-1DB0F5F1481B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="16152" windowHeight="8508" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="21年1月" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="516">
   <si>
     <t>种花问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1997,6 +1997,81 @@
   </si>
   <si>
     <t>dp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>递增顺序搜索树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二叉树中序遍历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在D天内送达包裹的能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二分查找转化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二叉搜索树的范围和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dfs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平方数之和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双指针/数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费马平方和定理：一个非负整数c如果能够表示为两个整数的平方和，当且仅当c的所有形如4k+3的质因子的幂均为偶数。</t>
+  </si>
+  <si>
+    <t>总结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费马平方和定理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3078,7 +3153,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>15</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3</c:v>
@@ -6782,17 +6857,17 @@
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="52.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="52.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -6818,7 +6893,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44197</v>
       </c>
@@ -6841,7 +6916,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>44198</v>
       </c>
@@ -6867,7 +6942,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>44199</v>
       </c>
@@ -6884,7 +6959,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>44200</v>
       </c>
@@ -6901,7 +6976,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>44201</v>
       </c>
@@ -6918,7 +6993,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>44202</v>
       </c>
@@ -6944,7 +7019,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>44203</v>
       </c>
@@ -6970,7 +7045,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>44204</v>
       </c>
@@ -6990,7 +7065,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>44205</v>
       </c>
@@ -7013,7 +7088,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>44206</v>
       </c>
@@ -7030,7 +7105,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>44207</v>
       </c>
@@ -7056,7 +7131,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>44208</v>
       </c>
@@ -7079,7 +7154,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>44209</v>
       </c>
@@ -7102,7 +7177,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>44210</v>
       </c>
@@ -7119,7 +7194,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>44211</v>
       </c>
@@ -7142,7 +7217,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>44212</v>
       </c>
@@ -7165,7 +7240,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>44213</v>
       </c>
@@ -7185,7 +7260,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>44214</v>
       </c>
@@ -7208,7 +7283,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>44215</v>
       </c>
@@ -7231,7 +7306,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>44216</v>
       </c>
@@ -7251,7 +7326,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>44217</v>
       </c>
@@ -7277,7 +7352,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>44218</v>
       </c>
@@ -7297,7 +7372,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>44219</v>
       </c>
@@ -7317,7 +7392,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>44220</v>
       </c>
@@ -7337,7 +7412,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>44221</v>
       </c>
@@ -7357,7 +7432,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>44222</v>
       </c>
@@ -7380,7 +7455,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>44223</v>
       </c>
@@ -7400,7 +7475,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>44224</v>
       </c>
@@ -7417,7 +7492,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>44225</v>
       </c>
@@ -7443,7 +7518,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>44226</v>
       </c>
@@ -7460,7 +7535,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>44227</v>
       </c>
@@ -7480,10 +7555,10 @@
         <v>126</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>17</v>
       </c>
@@ -7492,7 +7567,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>18</v>
       </c>
@@ -7501,7 +7576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>161</v>
       </c>
@@ -7510,7 +7585,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>159</v>
       </c>
@@ -7519,18 +7594,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
         <v>127</v>
       </c>
@@ -7539,36 +7614,36 @@
       <c r="D41" s="13"/>
       <c r="E41" s="13"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="13"/>
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>
       <c r="E42" s="13"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="13"/>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
       <c r="D43" s="13"/>
       <c r="E43" s="13"/>
     </row>
-    <row r="44" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="13"/>
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
       <c r="E44" s="13"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
         <v>121</v>
       </c>
@@ -7577,96 +7652,96 @@
       <c r="D47" s="14"/>
       <c r="E47" s="14"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="14"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
       <c r="D48" s="14"/>
       <c r="E48" s="14"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="14"/>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
       <c r="D49" s="14"/>
       <c r="E49" s="14"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="14"/>
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
       <c r="E50" s="14"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
     </row>
   </sheetData>
@@ -7700,16 +7775,16 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.375" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.875" customWidth="1"/>
-    <col min="6" max="6" width="43.75" customWidth="1"/>
-    <col min="7" max="7" width="38.75" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.88671875" customWidth="1"/>
+    <col min="6" max="6" width="43.77734375" customWidth="1"/>
+    <col min="7" max="7" width="38.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -7721,7 +7796,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -7744,7 +7819,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>324</v>
       </c>
@@ -7752,7 +7827,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>323</v>
       </c>
@@ -7762,28 +7837,28 @@
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
@@ -7815,21 +7890,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -7855,7 +7930,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44228</v>
       </c>
@@ -7875,7 +7950,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>44229</v>
       </c>
@@ -7895,7 +7970,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>44230</v>
       </c>
@@ -7921,7 +7996,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>44231</v>
       </c>
@@ -7941,7 +8016,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>44232</v>
       </c>
@@ -7961,7 +8036,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>44233</v>
       </c>
@@ -7984,7 +8059,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>44234</v>
       </c>
@@ -8004,7 +8079,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>44235</v>
       </c>
@@ -8024,7 +8099,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>44236</v>
       </c>
@@ -8044,7 +8119,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>44237</v>
       </c>
@@ -8064,7 +8139,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>44238</v>
       </c>
@@ -8087,7 +8162,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>44239</v>
       </c>
@@ -8104,7 +8179,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>44240</v>
       </c>
@@ -8127,7 +8202,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>44241</v>
       </c>
@@ -8150,7 +8225,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>44242</v>
       </c>
@@ -8167,7 +8242,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>44243</v>
       </c>
@@ -8184,7 +8259,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>44244</v>
       </c>
@@ -8207,7 +8282,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>44245</v>
       </c>
@@ -8227,7 +8302,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>44246</v>
       </c>
@@ -8244,7 +8319,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>44247</v>
       </c>
@@ -8264,7 +8339,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>44248</v>
       </c>
@@ -8284,7 +8359,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>44249</v>
       </c>
@@ -8301,7 +8376,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>44250</v>
       </c>
@@ -8319,7 +8394,7 @@
       </c>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>44251</v>
       </c>
@@ -8336,7 +8411,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>44252</v>
       </c>
@@ -8353,7 +8428,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>44253</v>
       </c>
@@ -8379,7 +8454,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>44254</v>
       </c>
@@ -8402,7 +8477,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>44255</v>
       </c>
@@ -8422,19 +8497,19 @@
         <v>154</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>12</v>
       </c>
@@ -8443,7 +8518,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>18</v>
       </c>
@@ -8452,7 +8527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>161</v>
       </c>
@@ -8461,7 +8536,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>159</v>
       </c>
@@ -8470,18 +8545,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
         <v>225</v>
       </c>
@@ -8490,105 +8565,105 @@
       <c r="D41" s="15"/>
       <c r="E41" s="15"/>
     </row>
-    <row r="42" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="15"/>
       <c r="B42" s="15"/>
       <c r="C42" s="15"/>
       <c r="D42" s="15"/>
       <c r="E42" s="15"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
     </row>
   </sheetData>
@@ -8617,21 +8692,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E3CE38-BCB5-47B2-9D37-77FB04031B7A}">
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -8657,7 +8732,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>44256</v>
       </c>
@@ -8680,7 +8755,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>44257</v>
       </c>
@@ -8703,7 +8778,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>44258</v>
       </c>
@@ -8729,7 +8804,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>44259</v>
       </c>
@@ -8752,7 +8827,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>44260</v>
       </c>
@@ -8772,7 +8847,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>44261</v>
       </c>
@@ -8792,7 +8867,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>44262</v>
       </c>
@@ -8815,7 +8890,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>44263</v>
       </c>
@@ -8835,7 +8910,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>44264</v>
       </c>
@@ -8855,7 +8930,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>44265</v>
       </c>
@@ -8875,7 +8950,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>44266</v>
       </c>
@@ -8895,7 +8970,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>44267</v>
       </c>
@@ -8915,7 +8990,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>44268</v>
       </c>
@@ -8938,7 +9013,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>44269</v>
       </c>
@@ -8961,7 +9036,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>44270</v>
       </c>
@@ -8978,7 +9053,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>44271</v>
       </c>
@@ -8995,7 +9070,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>44272</v>
       </c>
@@ -9015,7 +9090,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>44273</v>
       </c>
@@ -9035,7 +9110,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>44274</v>
       </c>
@@ -9052,7 +9127,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>44275</v>
       </c>
@@ -9072,7 +9147,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>44276</v>
       </c>
@@ -9089,7 +9164,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>44277</v>
       </c>
@@ -9109,7 +9184,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>44278</v>
       </c>
@@ -9129,7 +9204,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>44279</v>
       </c>
@@ -9149,7 +9224,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>44280</v>
       </c>
@@ -9169,7 +9244,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>44281</v>
       </c>
@@ -9189,7 +9264,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>44282</v>
       </c>
@@ -9209,7 +9284,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>44283</v>
       </c>
@@ -9229,7 +9304,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>44284</v>
       </c>
@@ -9252,7 +9327,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>44285</v>
       </c>
@@ -9275,7 +9350,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>44286</v>
       </c>
@@ -9295,10 +9370,10 @@
         <v>381</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>12</v>
       </c>
@@ -9307,7 +9382,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>18</v>
       </c>
@@ -9316,7 +9391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>161</v>
       </c>
@@ -9325,7 +9400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>159</v>
       </c>
@@ -9334,113 +9409,113 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="7"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="7"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="7"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="7"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="7"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="7"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="7"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="7"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="7"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="7"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="7"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="7"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="7"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="7"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="7"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="7"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="7"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="7"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="7"/>
     </row>
   </sheetData>
@@ -9466,22 +9541,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B4EF25-1DEF-4C93-99CA-0D75FA661450}">
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="66.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="66.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -9507,7 +9582,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>44287</v>
       </c>
@@ -9527,7 +9602,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>44288</v>
       </c>
@@ -9547,7 +9622,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>44289</v>
       </c>
@@ -9567,7 +9642,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>44290</v>
       </c>
@@ -9587,7 +9662,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>44291</v>
       </c>
@@ -9607,7 +9682,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>44292</v>
       </c>
@@ -9627,7 +9702,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>44293</v>
       </c>
@@ -9650,7 +9725,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>44294</v>
       </c>
@@ -9670,7 +9745,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>44295</v>
       </c>
@@ -9690,7 +9765,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>44296</v>
       </c>
@@ -9707,7 +9782,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>44297</v>
       </c>
@@ -9730,7 +9805,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>44298</v>
       </c>
@@ -9753,7 +9828,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>44299</v>
       </c>
@@ -9773,7 +9848,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>44300</v>
       </c>
@@ -9793,7 +9868,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>44301</v>
       </c>
@@ -9813,7 +9888,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>44302</v>
       </c>
@@ -9836,7 +9911,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>44303</v>
       </c>
@@ -9862,7 +9937,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>44304</v>
       </c>
@@ -9882,7 +9957,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>44305</v>
       </c>
@@ -9905,7 +9980,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>44306</v>
       </c>
@@ -9928,7 +10003,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>44307</v>
       </c>
@@ -9951,7 +10026,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>44308</v>
       </c>
@@ -9977,7 +10052,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>44309</v>
       </c>
@@ -9997,7 +10072,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>44310</v>
       </c>
@@ -10017,52 +10092,115 @@
         <v>496</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>44311</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B26">
+        <v>897</v>
+      </c>
+      <c r="C26" t="s">
+        <v>497</v>
+      </c>
+      <c r="D26" t="s">
+        <v>498</v>
+      </c>
+      <c r="E26" t="s">
+        <v>499</v>
+      </c>
+      <c r="F26" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>44312</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B27">
+        <v>1011</v>
+      </c>
+      <c r="C27" t="s">
+        <v>501</v>
+      </c>
+      <c r="D27" t="s">
+        <v>502</v>
+      </c>
+      <c r="E27" t="s">
+        <v>503</v>
+      </c>
+      <c r="F27" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>44313</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B28">
+        <v>938</v>
+      </c>
+      <c r="C28" t="s">
+        <v>505</v>
+      </c>
+      <c r="D28" t="s">
+        <v>506</v>
+      </c>
+      <c r="E28" t="s">
+        <v>507</v>
+      </c>
+      <c r="F28" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>44314</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B29">
+        <v>633</v>
+      </c>
+      <c r="C29" t="s">
+        <v>509</v>
+      </c>
+      <c r="D29" t="s">
+        <v>510</v>
+      </c>
+      <c r="E29" t="s">
+        <v>511</v>
+      </c>
+      <c r="F29" t="s">
+        <v>512</v>
+      </c>
+      <c r="G29" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>44315</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>44316</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B34">
         <f>COUNTIF(E2:E32,"自己做出")</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>18</v>
       </c>
@@ -10071,7 +10209,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>161</v>
       </c>
@@ -10080,7 +10218,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>159</v>
       </c>
@@ -10089,109 +10227,113 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="11"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="11"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="11" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="11"/>
     </row>
   </sheetData>
@@ -10221,7 +10363,7 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10236,16 +10378,16 @@
       <selection activeCell="B14" sqref="B14:F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.875" customWidth="1"/>
-    <col min="6" max="6" width="43.75" customWidth="1"/>
-    <col min="7" max="7" width="38.75" customWidth="1"/>
+    <col min="2" max="2" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.88671875" customWidth="1"/>
+    <col min="6" max="6" width="43.77734375" customWidth="1"/>
+    <col min="7" max="7" width="38.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -10259,7 +10401,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -10282,7 +10424,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1800</v>
       </c>
@@ -10296,7 +10438,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1801</v>
       </c>
@@ -10313,7 +10455,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1802</v>
       </c>
@@ -10333,7 +10475,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1803</v>
       </c>
@@ -10350,7 +10492,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>324</v>
       </c>
@@ -10364,7 +10506,7 @@
         <v>5009</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>323</v>
       </c>
@@ -10376,28 +10518,28 @@
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
@@ -10433,16 +10575,16 @@
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.375" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.875" customWidth="1"/>
-    <col min="6" max="6" width="43.75" customWidth="1"/>
-    <col min="7" max="7" width="38.75" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.88671875" customWidth="1"/>
+    <col min="6" max="6" width="43.77734375" customWidth="1"/>
+    <col min="7" max="7" width="38.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -10456,7 +10598,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -10479,7 +10621,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5713</v>
       </c>
@@ -10499,7 +10641,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5715</v>
       </c>
@@ -10516,7 +10658,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5714</v>
       </c>
@@ -10533,7 +10675,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5716</v>
       </c>
@@ -10550,7 +10692,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>324</v>
       </c>
@@ -10564,7 +10706,7 @@
         <v>4996</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>87</v>
       </c>
@@ -10576,28 +10718,28 @@
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
@@ -10633,16 +10775,16 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.375" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.875" customWidth="1"/>
-    <col min="6" max="6" width="43.75" customWidth="1"/>
-    <col min="7" max="7" width="38.75" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.88671875" customWidth="1"/>
+    <col min="6" max="6" width="43.77734375" customWidth="1"/>
+    <col min="7" max="7" width="38.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -10656,7 +10798,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -10679,7 +10821,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>400</v>
       </c>
@@ -10696,7 +10838,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>401</v>
       </c>
@@ -10713,7 +10855,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>402</v>
       </c>
@@ -10730,7 +10872,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>403</v>
       </c>
@@ -10747,7 +10889,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>404</v>
       </c>
@@ -10764,7 +10906,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>324</v>
       </c>
@@ -10778,7 +10920,7 @@
         <v>9932</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>87</v>
       </c>
@@ -10790,28 +10932,28 @@
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
@@ -10847,16 +10989,16 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -10882,105 +11024,105 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43831</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>12</v>
       </c>
@@ -10989,7 +11131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>18</v>
       </c>
@@ -10998,7 +11140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>161</v>
       </c>
@@ -11007,7 +11149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>159</v>
       </c>
@@ -11016,109 +11158,109 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
     </row>
   </sheetData>

--- a/力扣做题情况.xlsx
+++ b/力扣做题情况.xlsx
@@ -3,28 +3,29 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20373"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{572F3953-0465-4944-9A6F-1DB0F5F1481B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{233AC92C-4AE4-426F-BDDA-C7A365ED982F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16152" windowHeight="8508" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="21年1月" sheetId="2" r:id="rId1"/>
     <sheet name="21年2月" sheetId="3" r:id="rId2"/>
     <sheet name="21年3月" sheetId="7" r:id="rId3"/>
     <sheet name="21年4月" sheetId="17" r:id="rId4"/>
-    <sheet name="汇总" sheetId="13" r:id="rId5"/>
-    <sheet name="第233场周赛" sheetId="12" r:id="rId6"/>
-    <sheet name="第234场周赛" sheetId="15" r:id="rId7"/>
-    <sheet name="2021力扣杯" sheetId="18" r:id="rId8"/>
-    <sheet name="模板" sheetId="5" r:id="rId9"/>
-    <sheet name="竞赛模板" sheetId="9" r:id="rId10"/>
+    <sheet name="21年5月" sheetId="20" r:id="rId5"/>
+    <sheet name="汇总" sheetId="13" r:id="rId6"/>
+    <sheet name="第233场周赛" sheetId="12" r:id="rId7"/>
+    <sheet name="第234场周赛" sheetId="15" r:id="rId8"/>
+    <sheet name="2021力扣杯" sheetId="18" r:id="rId9"/>
+    <sheet name="模板" sheetId="5" r:id="rId10"/>
+    <sheet name="竞赛模板" sheetId="9" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="542">
   <si>
     <t>种花问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2072,6 +2073,110 @@
   </si>
   <si>
     <t>费马平方和定理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青蛙过河</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>困难</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记忆化搜索/dp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只出现一次的数字II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈希表/数字电路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方法二：依次确定每一个二进制位，方法三四：数字电路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工的重要性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dfs/bfs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>砖墙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前缀和&amp;哈希表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整数反转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类讨论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粉刷房子III</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>困难</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CV后没看懂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除并获得点数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态规划</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2127,7 +2232,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2144,6 +2249,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -3153,7 +3261,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>19</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3</c:v>
@@ -3162,7 +3270,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3261,6 +3369,272 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-14C3-4765-9FED-1D5CA34AD032}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-14C3-4765-9FED-1D5CA34AD032}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-14C3-4765-9FED-1D5CA34AD032}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-14C3-4765-9FED-1D5CA34AD032}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'21年5月'!$A$34:$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>自己做出</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>看思路做出</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CV后看懂</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CV后没看懂</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'21年5月'!$B$34:$B$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-14C3-4765-9FED-1D5CA34AD032}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -3726,6 +4100,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
@@ -5803,6 +6217,525 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6490,6 +7423,49 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1066800</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AED94450-9981-4981-AE26-86B3843E9999}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6857,17 +7833,17 @@
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="52.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="52.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -6893,7 +7869,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>44197</v>
       </c>
@@ -6916,7 +7892,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="6">
         <v>44198</v>
       </c>
@@ -6942,7 +7918,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>44199</v>
       </c>
@@ -6959,7 +7935,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>44200</v>
       </c>
@@ -6976,7 +7952,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>44201</v>
       </c>
@@ -6993,7 +7969,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>44202</v>
       </c>
@@ -7019,7 +7995,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>44203</v>
       </c>
@@ -7045,7 +8021,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <v>44204</v>
       </c>
@@ -7065,7 +8041,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>44205</v>
       </c>
@@ -7088,7 +8064,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>44206</v>
       </c>
@@ -7105,7 +8081,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>44207</v>
       </c>
@@ -7131,7 +8107,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>44208</v>
       </c>
@@ -7154,7 +8130,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>44209</v>
       </c>
@@ -7177,7 +8153,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
         <v>44210</v>
       </c>
@@ -7194,7 +8170,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
         <v>44211</v>
       </c>
@@ -7217,7 +8193,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
         <v>44212</v>
       </c>
@@ -7240,7 +8216,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
         <v>44213</v>
       </c>
@@ -7260,7 +8236,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="6">
         <v>44214</v>
       </c>
@@ -7283,7 +8259,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="6">
         <v>44215</v>
       </c>
@@ -7306,7 +8282,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="6">
         <v>44216</v>
       </c>
@@ -7326,7 +8302,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="6">
         <v>44217</v>
       </c>
@@ -7352,7 +8328,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="6">
         <v>44218</v>
       </c>
@@ -7372,7 +8348,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="6">
         <v>44219</v>
       </c>
@@ -7392,7 +8368,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="6">
         <v>44220</v>
       </c>
@@ -7412,7 +8388,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="6">
         <v>44221</v>
       </c>
@@ -7432,7 +8408,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="6">
         <v>44222</v>
       </c>
@@ -7455,7 +8431,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="6">
         <v>44223</v>
       </c>
@@ -7475,7 +8451,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="6">
         <v>44224</v>
       </c>
@@ -7492,7 +8468,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="6">
         <v>44225</v>
       </c>
@@ -7518,7 +8494,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="6">
         <v>44226</v>
       </c>
@@ -7535,7 +8511,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="6">
         <v>44227</v>
       </c>
@@ -7555,10 +8531,10 @@
         <v>126</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>17</v>
       </c>
@@ -7567,7 +8543,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>18</v>
       </c>
@@ -7576,7 +8552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>161</v>
       </c>
@@ -7585,7 +8561,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>159</v>
       </c>
@@ -7594,154 +8570,154 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="13" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="13"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="13"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-    </row>
-    <row r="44" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="13"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42" s="14"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43" s="14"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+    </row>
+    <row r="44" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="14"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="14" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A47" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="14"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A48" s="15"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A49" s="15"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A50" s="15"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" s="1"/>
       <c r="B52" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="1"/>
     </row>
   </sheetData>
@@ -7768,6 +8744,306 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5F7AB7F-19BA-433D-94B4-F40C8CC2BB92}">
+  <dimension ref="A1:H72"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="1"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="1"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="1"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="1"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="1"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" s="1"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" s="1"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34">
+        <f>COUNTIF(E2:E32,"自己做出")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35">
+        <f>COUNTIF(E2:E32,"看思路写出")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B36">
+        <f>COUNTIF(E2:E32,"CV后看懂")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B37">
+        <f>COUNTIF(E2:E32,"CV后没看懂")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38" s="1"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39" s="1"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40" s="1"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41" s="1"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42" s="1"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A43" s="1"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A44" s="1"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A45" s="1"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A46" s="1"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A47" s="1"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A48" s="1"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A49" s="1"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A50" s="1"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A51" s="1"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A52" s="1"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A53" s="1"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A54" s="1"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A55" s="1"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A56" s="1"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A57" s="1"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A58" s="1"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A59" s="1"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A60" s="1"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A61" s="1"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A62" s="1"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A63" s="1"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A64" s="1"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A65" s="1"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A66" s="1"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A67" s="1"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A68" s="1"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A69" s="1"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A70" s="1"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A71" s="1"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A72" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{FF29E0C6-E887-4957-96EF-1F199E40E8A8}">
+      <formula1>"简单,中等,困难"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E33:E1048576" xr:uid="{1A6BD387-3659-417D-8E16-F3AF85EA8DF3}">
+      <formula1>"自己做出,CV,看思路写出"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E32" xr:uid="{66893934-AAC3-4E3F-B2CE-391DF2E56630}">
+      <formula1>"自己做出,CV后看懂,CV后没看懂,看思路写出"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAB84B29-E993-41B4-A125-3B08DA58CFA6}">
   <dimension ref="A1:G18"/>
   <sheetViews>
@@ -7775,16 +9051,16 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.88671875" customWidth="1"/>
-    <col min="6" max="6" width="43.77734375" customWidth="1"/>
-    <col min="7" max="7" width="38.77734375" customWidth="1"/>
+    <col min="2" max="2" width="33.375" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.875" customWidth="1"/>
+    <col min="6" max="6" width="43.75" customWidth="1"/>
+    <col min="7" max="7" width="38.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -7796,7 +9072,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -7819,7 +9095,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>324</v>
       </c>
@@ -7827,43 +9103,43 @@
         <v>325</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>323</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7894,17 +9170,17 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -7930,7 +9206,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>44228</v>
       </c>
@@ -7950,7 +9226,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="6">
         <v>44229</v>
       </c>
@@ -7970,7 +9246,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>44230</v>
       </c>
@@ -7996,7 +9272,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>44231</v>
       </c>
@@ -8016,7 +9292,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>44232</v>
       </c>
@@ -8036,7 +9312,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>44233</v>
       </c>
@@ -8059,7 +9335,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>44234</v>
       </c>
@@ -8079,7 +9355,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <v>44235</v>
       </c>
@@ -8099,7 +9375,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>44236</v>
       </c>
@@ -8119,7 +9395,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>44237</v>
       </c>
@@ -8139,7 +9415,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>44238</v>
       </c>
@@ -8162,7 +9438,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>44239</v>
       </c>
@@ -8179,7 +9455,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>44240</v>
       </c>
@@ -8202,7 +9478,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
         <v>44241</v>
       </c>
@@ -8225,7 +9501,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
         <v>44242</v>
       </c>
@@ -8242,7 +9518,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
         <v>44243</v>
       </c>
@@ -8259,7 +9535,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
         <v>44244</v>
       </c>
@@ -8282,7 +9558,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="6">
         <v>44245</v>
       </c>
@@ -8302,7 +9578,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="6">
         <v>44246</v>
       </c>
@@ -8319,7 +9595,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="6">
         <v>44247</v>
       </c>
@@ -8339,7 +9615,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="6">
         <v>44248</v>
       </c>
@@ -8359,7 +9635,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="6">
         <v>44249</v>
       </c>
@@ -8376,7 +9652,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="6">
         <v>44250</v>
       </c>
@@ -8394,7 +9670,7 @@
       </c>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="6">
         <v>44251</v>
       </c>
@@ -8411,7 +9687,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="6">
         <v>44252</v>
       </c>
@@ -8428,7 +9704,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="6">
         <v>44253</v>
       </c>
@@ -8454,7 +9730,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="6">
         <v>44254</v>
       </c>
@@ -8477,7 +9753,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="6">
         <v>44255</v>
       </c>
@@ -8497,19 +9773,19 @@
         <v>154</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="2"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
         <v>12</v>
       </c>
@@ -8518,7 +9794,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
         <v>18</v>
       </c>
@@ -8527,7 +9803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
         <v>161</v>
       </c>
@@ -8536,7 +9812,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
         <v>159</v>
       </c>
@@ -8545,125 +9821,125 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="15" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-    </row>
-    <row r="42" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="15"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+    </row>
+    <row r="42" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="16"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="1"/>
     </row>
   </sheetData>
@@ -8696,17 +9972,17 @@
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -8732,7 +10008,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="7">
         <v>44256</v>
       </c>
@@ -8755,7 +10031,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="7">
         <v>44257</v>
       </c>
@@ -8778,7 +10054,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
         <v>44258</v>
       </c>
@@ -8804,7 +10080,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
         <v>44259</v>
       </c>
@@ -8827,7 +10103,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
         <v>44260</v>
       </c>
@@ -8847,7 +10123,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
         <v>44261</v>
       </c>
@@ -8867,7 +10143,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="7">
         <v>44262</v>
       </c>
@@ -8890,7 +10166,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
         <v>44263</v>
       </c>
@@ -8910,7 +10186,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
         <v>44264</v>
       </c>
@@ -8930,7 +10206,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
         <v>44265</v>
       </c>
@@ -8950,7 +10226,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="7">
         <v>44266</v>
       </c>
@@ -8970,7 +10246,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
         <v>44267</v>
       </c>
@@ -8990,7 +10266,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="7">
         <v>44268</v>
       </c>
@@ -9013,7 +10289,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="7">
         <v>44269</v>
       </c>
@@ -9036,7 +10312,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="7">
         <v>44270</v>
       </c>
@@ -9053,7 +10329,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="7">
         <v>44271</v>
       </c>
@@ -9070,7 +10346,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="7">
         <v>44272</v>
       </c>
@@ -9090,7 +10366,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="7">
         <v>44273</v>
       </c>
@@ -9110,7 +10386,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="7">
         <v>44274</v>
       </c>
@@ -9127,7 +10403,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="7">
         <v>44275</v>
       </c>
@@ -9147,7 +10423,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="7">
         <v>44276</v>
       </c>
@@ -9164,7 +10440,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="7">
         <v>44277</v>
       </c>
@@ -9184,7 +10460,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="7">
         <v>44278</v>
       </c>
@@ -9204,7 +10480,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="7">
         <v>44279</v>
       </c>
@@ -9224,7 +10500,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="7">
         <v>44280</v>
       </c>
@@ -9244,7 +10520,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="7">
         <v>44281</v>
       </c>
@@ -9264,7 +10540,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="7">
         <v>44282</v>
       </c>
@@ -9284,7 +10560,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="7">
         <v>44283</v>
       </c>
@@ -9304,7 +10580,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="7">
         <v>44284</v>
       </c>
@@ -9327,7 +10603,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="7">
         <v>44285</v>
       </c>
@@ -9350,7 +10626,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="7">
         <v>44286</v>
       </c>
@@ -9370,10 +10646,10 @@
         <v>381</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="7"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="7" t="s">
         <v>12</v>
       </c>
@@ -9382,7 +10658,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="7" t="s">
         <v>18</v>
       </c>
@@ -9391,7 +10667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="7" t="s">
         <v>161</v>
       </c>
@@ -9400,7 +10676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="7" t="s">
         <v>159</v>
       </c>
@@ -9409,113 +10685,113 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="7"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="7"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="7"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="7"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="7" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="7" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="7"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="7"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="7"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="7"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="7"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="7"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="7"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="7"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="7"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="7"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="7"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="7"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="7"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="7"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="7"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="7"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="7"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="7"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="7"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="7"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="7"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="7"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="7"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="7"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="7"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="7"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="7"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="7"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="7"/>
     </row>
   </sheetData>
@@ -9541,22 +10817,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B4EF25-1DEF-4C93-99CA-0D75FA661450}">
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="66.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="66.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="52.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -9582,7 +10858,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="11">
         <v>44287</v>
       </c>
@@ -9602,7 +10878,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="11">
         <v>44288</v>
       </c>
@@ -9622,7 +10898,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="11">
         <v>44289</v>
       </c>
@@ -9642,7 +10918,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="11">
         <v>44290</v>
       </c>
@@ -9662,7 +10938,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="11">
         <v>44291</v>
       </c>
@@ -9682,7 +10958,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="11">
         <v>44292</v>
       </c>
@@ -9702,7 +10978,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="11">
         <v>44293</v>
       </c>
@@ -9725,7 +11001,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="11">
         <v>44294</v>
       </c>
@@ -9745,7 +11021,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="11">
         <v>44295</v>
       </c>
@@ -9765,7 +11041,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="11">
         <v>44296</v>
       </c>
@@ -9782,7 +11058,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="11">
         <v>44297</v>
       </c>
@@ -9805,7 +11081,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="11">
         <v>44298</v>
       </c>
@@ -9828,7 +11104,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="11">
         <v>44299</v>
       </c>
@@ -9848,7 +11124,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="11">
         <v>44300</v>
       </c>
@@ -9868,7 +11144,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="11">
         <v>44301</v>
       </c>
@@ -9888,7 +11164,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="11">
         <v>44302</v>
       </c>
@@ -9911,7 +11187,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="11">
         <v>44303</v>
       </c>
@@ -9937,7 +11213,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="11">
         <v>44304</v>
       </c>
@@ -9957,7 +11233,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="11">
         <v>44305</v>
       </c>
@@ -9980,7 +11256,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="11">
         <v>44306</v>
       </c>
@@ -10003,7 +11279,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="11">
         <v>44307</v>
       </c>
@@ -10026,7 +11302,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="11">
         <v>44308</v>
       </c>
@@ -10052,7 +11328,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="11">
         <v>44309</v>
       </c>
@@ -10072,7 +11348,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="11">
         <v>44310</v>
       </c>
@@ -10092,7 +11368,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="11">
         <v>44311</v>
       </c>
@@ -10112,7 +11388,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="11">
         <v>44312</v>
       </c>
@@ -10132,7 +11408,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="11">
         <v>44313</v>
       </c>
@@ -10152,7 +11428,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="11">
         <v>44314</v>
       </c>
@@ -10175,32 +11451,65 @@
         <v>515</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="11">
         <v>44315</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>403</v>
+      </c>
+      <c r="C30" t="s">
+        <v>516</v>
+      </c>
+      <c r="D30" t="s">
+        <v>517</v>
+      </c>
+      <c r="E30" t="s">
+        <v>158</v>
+      </c>
+      <c r="F30" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="11">
         <v>44316</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>137</v>
+      </c>
+      <c r="C31" t="s">
+        <v>519</v>
+      </c>
+      <c r="D31" t="s">
+        <v>520</v>
+      </c>
+      <c r="E31" t="s">
+        <v>521</v>
+      </c>
+      <c r="F31" t="s">
+        <v>522</v>
+      </c>
+      <c r="H31" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="11"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="11"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B34">
         <f>COUNTIF(E2:E32,"自己做出")</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="11" t="s">
         <v>18</v>
       </c>
@@ -10209,7 +11518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="11" t="s">
         <v>161</v>
       </c>
@@ -10218,122 +11527,122 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="11" t="s">
         <v>159</v>
       </c>
       <c r="B37">
         <f>COUNTIF(E2:E32,"CV后没看懂")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="11"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="11"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="11"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="11"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="11" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="11" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="11"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="11"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="11"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="11"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="11"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="11"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="11"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="11"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="11"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="11"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="11"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="11"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="11"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="11"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="11"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="11"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="11"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="11"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="11"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="11"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="11"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="11"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="11"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="11"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="11"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="11"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="11"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="11"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="11"/>
     </row>
   </sheetData>
@@ -10356,6 +11665,445 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C4189D3-F1C2-41D5-AFF0-50166F4BC652}">
+  <dimension ref="A1:H72"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="13">
+        <v>44317</v>
+      </c>
+      <c r="B2">
+        <v>690</v>
+      </c>
+      <c r="C2" t="s">
+        <v>524</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="13">
+        <v>44318</v>
+      </c>
+      <c r="B3">
+        <v>554</v>
+      </c>
+      <c r="C3" t="s">
+        <v>526</v>
+      </c>
+      <c r="D3" t="s">
+        <v>527</v>
+      </c>
+      <c r="E3" t="s">
+        <v>528</v>
+      </c>
+      <c r="F3" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="13">
+        <v>44319</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>530</v>
+      </c>
+      <c r="D4" t="s">
+        <v>531</v>
+      </c>
+      <c r="E4" t="s">
+        <v>532</v>
+      </c>
+      <c r="F4" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="13">
+        <v>44320</v>
+      </c>
+      <c r="B5">
+        <v>1473</v>
+      </c>
+      <c r="C5" t="s">
+        <v>534</v>
+      </c>
+      <c r="D5" t="s">
+        <v>535</v>
+      </c>
+      <c r="E5" t="s">
+        <v>536</v>
+      </c>
+      <c r="F5" t="s">
+        <v>537</v>
+      </c>
+      <c r="H5" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="13">
+        <v>44321</v>
+      </c>
+      <c r="B6">
+        <v>740</v>
+      </c>
+      <c r="C6" t="s">
+        <v>538</v>
+      </c>
+      <c r="D6" t="s">
+        <v>539</v>
+      </c>
+      <c r="E6" t="s">
+        <v>540</v>
+      </c>
+      <c r="F6" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="13">
+        <v>44322</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="13">
+        <v>44323</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="13">
+        <v>44324</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="13">
+        <v>44325</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="13">
+        <v>44326</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="13">
+        <v>44327</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="13">
+        <v>44328</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="13">
+        <v>44329</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="13">
+        <v>44330</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="13">
+        <v>44331</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="13">
+        <v>44332</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="13">
+        <v>44333</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="13">
+        <v>44334</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="13">
+        <v>44335</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="13">
+        <v>44336</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="13">
+        <v>44337</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="13">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="13">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="13">
+        <v>44340</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="13">
+        <v>44341</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="13">
+        <v>44342</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="13">
+        <v>44343</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="13">
+        <v>44344</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="13">
+        <v>44345</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="13">
+        <v>44346</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" s="13">
+        <v>44347</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" s="13"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34">
+        <f>COUNTIF(E2:E32,"自己做出")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35">
+        <f>COUNTIF(E2:E32,"看思路写出")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="B36">
+        <f>COUNTIF(E2:E32,"CV后看懂")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="B37">
+        <f>COUNTIF(E2:E32,"CV后没看懂")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38" s="13"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39" s="13"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40" s="13"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41" s="13"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42" s="13"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A43" s="13"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A44" s="13"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A45" s="13"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A46" s="13"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A47" s="13"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A48" s="13"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A49" s="13"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A50" s="13"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A51" s="13"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A52" s="13"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A53" s="13"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A54" s="13"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A55" s="13"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A56" s="13"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A57" s="13"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A58" s="13"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A59" s="13"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A60" s="13"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A61" s="13"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A62" s="13"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A63" s="13"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A64" s="13"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A65" s="13"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A66" s="13"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A67" s="13"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A68" s="13"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A69" s="13"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A70" s="13"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A71" s="13"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A72" s="13"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E32" xr:uid="{4C643D9F-7EF8-45F0-B6E8-32A475C63D51}">
+      <formula1>"自己做出,CV后看懂,CV后没看懂,看思路写出"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E33:E1048576" xr:uid="{4F04613B-0038-4CEA-972C-F80C33D66987}">
+      <formula1>"自己做出,CV,看思路写出"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{4BFE6AF7-9796-4B2A-936C-BC253D8D6253}">
+      <formula1>"简单,中等,困难"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{331E5CE9-5CE4-4273-8853-6A1A1E6D1622}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -10363,14 +12111,14 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7E155D1-3726-47FD-AAAF-A8D96547A548}">
   <dimension ref="A1:G18"/>
   <sheetViews>
@@ -10378,16 +12126,16 @@
       <selection activeCell="B14" sqref="B14:F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.88671875" customWidth="1"/>
-    <col min="6" max="6" width="43.77734375" customWidth="1"/>
-    <col min="7" max="7" width="38.77734375" customWidth="1"/>
+    <col min="2" max="2" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.875" customWidth="1"/>
+    <col min="6" max="6" width="43.75" customWidth="1"/>
+    <col min="7" max="7" width="38.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -10401,7 +12149,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -10424,7 +12172,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1800</v>
       </c>
@@ -10438,7 +12186,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1801</v>
       </c>
@@ -10455,7 +12203,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>1802</v>
       </c>
@@ -10475,7 +12223,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>1803</v>
       </c>
@@ -10492,7 +12240,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>324</v>
       </c>
@@ -10506,45 +12254,45 @@
         <v>5009</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>323</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="17" t="s">
         <v>338</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10567,7 +12315,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7779A6DF-2966-4199-813B-6E8194F79931}">
   <dimension ref="A1:G18"/>
   <sheetViews>
@@ -10575,16 +12323,16 @@
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.88671875" customWidth="1"/>
-    <col min="6" max="6" width="43.77734375" customWidth="1"/>
-    <col min="7" max="7" width="38.77734375" customWidth="1"/>
+    <col min="2" max="2" width="33.375" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.875" customWidth="1"/>
+    <col min="6" max="6" width="43.75" customWidth="1"/>
+    <col min="7" max="7" width="38.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -10598,7 +12346,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -10621,7 +12369,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>5713</v>
       </c>
@@ -10641,7 +12389,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>5715</v>
       </c>
@@ -10658,7 +12406,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5714</v>
       </c>
@@ -10675,7 +12423,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5716</v>
       </c>
@@ -10692,7 +12440,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>324</v>
       </c>
@@ -10706,45 +12454,45 @@
         <v>4996</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>87</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="17" t="s">
         <v>367</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10767,7 +12515,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A5BDCBD-1A6C-41BE-A9E5-23901AEFD8F1}">
   <dimension ref="A1:G18"/>
   <sheetViews>
@@ -10775,16 +12523,16 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.88671875" customWidth="1"/>
-    <col min="6" max="6" width="43.77734375" customWidth="1"/>
-    <col min="7" max="7" width="38.77734375" customWidth="1"/>
+    <col min="2" max="2" width="33.375" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.875" customWidth="1"/>
+    <col min="6" max="6" width="43.75" customWidth="1"/>
+    <col min="7" max="7" width="38.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -10798,7 +12546,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -10821,7 +12569,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>400</v>
       </c>
@@ -10838,7 +12586,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>401</v>
       </c>
@@ -10855,7 +12603,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>402</v>
       </c>
@@ -10872,7 +12620,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>403</v>
       </c>
@@ -10889,7 +12637,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>404</v>
       </c>
@@ -10906,7 +12654,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>324</v>
       </c>
@@ -10920,45 +12668,45 @@
         <v>9932</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>87</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="17" t="s">
         <v>413</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10979,304 +12727,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5F7AB7F-19BA-433D-94B4-F40C8CC2BB92}">
-  <dimension ref="A1:H72"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>43831</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34">
-        <f>COUNTIF(E2:E32,"自己做出")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B35">
-        <f>COUNTIF(E2:E32,"看思路写出")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="B36">
-        <f>COUNTIF(E2:E32,"CV后看懂")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="B37">
-        <f>COUNTIF(E2:E32,"CV后没看懂")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="1"/>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="1"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="1"/>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1"/>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="1"/>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="1"/>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="1"/>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="1"/>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{FF29E0C6-E887-4957-96EF-1F199E40E8A8}">
-      <formula1>"简单,中等,困难"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E33:E1048576" xr:uid="{1A6BD387-3659-417D-8E16-F3AF85EA8DF3}">
-      <formula1>"自己做出,CV,看思路写出"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E32" xr:uid="{66893934-AAC3-4E3F-B2CE-391DF2E56630}">
-      <formula1>"自己做出,CV后看懂,CV后没看懂,看思路写出"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/力扣做题情况.xlsx
+++ b/力扣做题情况.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20373"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{233AC92C-4AE4-426F-BDDA-C7A365ED982F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD36B34-DC5D-4630-9471-25747AD2ED51}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="16152" windowHeight="8508" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="21年1月" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="570">
   <si>
     <t>种花问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2177,6 +2177,118 @@
   </si>
   <si>
     <t>动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解码异或后的数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异或</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组异或操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟/异或性质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x^(x+1)^(x+2)^(x+3)=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制作m支花所需的最少天数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二分法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成所有工作的最短时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>困难</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二分法&amp;回溯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶子相似的树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dfs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解码异或后的排列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异或</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1^2^..^n=n(n%4=0);1(n%4=1);n+1,(n%4=2),0(n%4=3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子数组异或查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前缀数组</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3527,16 +3639,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7833,17 +7945,17 @@
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="52.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="52.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -7869,7 +7981,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44197</v>
       </c>
@@ -7892,7 +8004,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>44198</v>
       </c>
@@ -7918,7 +8030,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>44199</v>
       </c>
@@ -7935,7 +8047,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>44200</v>
       </c>
@@ -7952,7 +8064,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>44201</v>
       </c>
@@ -7969,7 +8081,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>44202</v>
       </c>
@@ -7995,7 +8107,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>44203</v>
       </c>
@@ -8021,7 +8133,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>44204</v>
       </c>
@@ -8041,7 +8153,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>44205</v>
       </c>
@@ -8064,7 +8176,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>44206</v>
       </c>
@@ -8081,7 +8193,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>44207</v>
       </c>
@@ -8107,7 +8219,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>44208</v>
       </c>
@@ -8130,7 +8242,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>44209</v>
       </c>
@@ -8153,7 +8265,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>44210</v>
       </c>
@@ -8170,7 +8282,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>44211</v>
       </c>
@@ -8193,7 +8305,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>44212</v>
       </c>
@@ -8216,7 +8328,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>44213</v>
       </c>
@@ -8236,7 +8348,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>44214</v>
       </c>
@@ -8259,7 +8371,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>44215</v>
       </c>
@@ -8282,7 +8394,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>44216</v>
       </c>
@@ -8302,7 +8414,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>44217</v>
       </c>
@@ -8328,7 +8440,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>44218</v>
       </c>
@@ -8348,7 +8460,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>44219</v>
       </c>
@@ -8368,7 +8480,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>44220</v>
       </c>
@@ -8388,7 +8500,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>44221</v>
       </c>
@@ -8408,7 +8520,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>44222</v>
       </c>
@@ -8431,7 +8543,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>44223</v>
       </c>
@@ -8451,7 +8563,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>44224</v>
       </c>
@@ -8468,7 +8580,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>44225</v>
       </c>
@@ -8494,7 +8606,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>44226</v>
       </c>
@@ -8511,7 +8623,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>44227</v>
       </c>
@@ -8531,10 +8643,10 @@
         <v>126</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>17</v>
       </c>
@@ -8543,7 +8655,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>18</v>
       </c>
@@ -8552,7 +8664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>161</v>
       </c>
@@ -8561,7 +8673,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>159</v>
       </c>
@@ -8570,18 +8682,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
         <v>127</v>
       </c>
@@ -8590,36 +8702,36 @@
       <c r="D41" s="14"/>
       <c r="E41" s="14"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="14"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
       <c r="D42" s="14"/>
       <c r="E42" s="14"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="14"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
       <c r="D43" s="14"/>
       <c r="E43" s="14"/>
     </row>
-    <row r="44" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="14"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>
       <c r="E44" s="14"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
         <v>121</v>
       </c>
@@ -8628,96 +8740,96 @@
       <c r="D47" s="15"/>
       <c r="E47" s="15"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="15"/>
       <c r="B48" s="15"/>
       <c r="C48" s="15"/>
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="15"/>
       <c r="B49" s="15"/>
       <c r="C49" s="15"/>
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="15"/>
       <c r="B50" s="15"/>
       <c r="C50" s="15"/>
       <c r="D50" s="15"/>
       <c r="E50" s="15"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
     </row>
   </sheetData>
@@ -8751,16 +8863,16 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -8786,105 +8898,105 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43831</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>12</v>
       </c>
@@ -8893,7 +9005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>18</v>
       </c>
@@ -8902,7 +9014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>161</v>
       </c>
@@ -8911,7 +9023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>159</v>
       </c>
@@ -8920,109 +9032,109 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
     </row>
   </sheetData>
@@ -9051,16 +9163,16 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.375" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.875" customWidth="1"/>
-    <col min="6" max="6" width="43.75" customWidth="1"/>
-    <col min="7" max="7" width="38.75" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.88671875" customWidth="1"/>
+    <col min="6" max="6" width="43.77734375" customWidth="1"/>
+    <col min="7" max="7" width="38.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -9072,7 +9184,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -9095,7 +9207,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>324</v>
       </c>
@@ -9103,7 +9215,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>323</v>
       </c>
@@ -9113,28 +9225,28 @@
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
@@ -9170,17 +9282,17 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -9206,7 +9318,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44228</v>
       </c>
@@ -9226,7 +9338,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>44229</v>
       </c>
@@ -9246,7 +9358,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>44230</v>
       </c>
@@ -9272,7 +9384,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>44231</v>
       </c>
@@ -9292,7 +9404,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>44232</v>
       </c>
@@ -9312,7 +9424,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>44233</v>
       </c>
@@ -9335,7 +9447,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>44234</v>
       </c>
@@ -9355,7 +9467,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>44235</v>
       </c>
@@ -9375,7 +9487,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>44236</v>
       </c>
@@ -9395,7 +9507,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>44237</v>
       </c>
@@ -9415,7 +9527,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>44238</v>
       </c>
@@ -9438,7 +9550,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>44239</v>
       </c>
@@ -9455,7 +9567,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>44240</v>
       </c>
@@ -9478,7 +9590,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>44241</v>
       </c>
@@ -9501,7 +9613,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>44242</v>
       </c>
@@ -9518,7 +9630,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>44243</v>
       </c>
@@ -9535,7 +9647,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>44244</v>
       </c>
@@ -9558,7 +9670,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>44245</v>
       </c>
@@ -9578,7 +9690,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>44246</v>
       </c>
@@ -9595,7 +9707,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>44247</v>
       </c>
@@ -9615,7 +9727,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>44248</v>
       </c>
@@ -9635,7 +9747,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>44249</v>
       </c>
@@ -9652,7 +9764,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>44250</v>
       </c>
@@ -9670,7 +9782,7 @@
       </c>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>44251</v>
       </c>
@@ -9687,7 +9799,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>44252</v>
       </c>
@@ -9704,7 +9816,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>44253</v>
       </c>
@@ -9730,7 +9842,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>44254</v>
       </c>
@@ -9753,7 +9865,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>44255</v>
       </c>
@@ -9773,19 +9885,19 @@
         <v>154</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>12</v>
       </c>
@@ -9794,7 +9906,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>18</v>
       </c>
@@ -9803,7 +9915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>161</v>
       </c>
@@ -9812,7 +9924,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>159</v>
       </c>
@@ -9821,18 +9933,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
         <v>225</v>
       </c>
@@ -9841,105 +9953,105 @@
       <c r="D41" s="16"/>
       <c r="E41" s="16"/>
     </row>
-    <row r="42" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="16"/>
       <c r="B42" s="16"/>
       <c r="C42" s="16"/>
       <c r="D42" s="16"/>
       <c r="E42" s="16"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
     </row>
   </sheetData>
@@ -9972,17 +10084,17 @@
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -10008,7 +10120,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>44256</v>
       </c>
@@ -10031,7 +10143,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>44257</v>
       </c>
@@ -10054,7 +10166,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>44258</v>
       </c>
@@ -10080,7 +10192,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>44259</v>
       </c>
@@ -10103,7 +10215,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>44260</v>
       </c>
@@ -10123,7 +10235,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>44261</v>
       </c>
@@ -10143,7 +10255,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>44262</v>
       </c>
@@ -10166,7 +10278,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>44263</v>
       </c>
@@ -10186,7 +10298,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>44264</v>
       </c>
@@ -10206,7 +10318,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>44265</v>
       </c>
@@ -10226,7 +10338,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>44266</v>
       </c>
@@ -10246,7 +10358,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>44267</v>
       </c>
@@ -10266,7 +10378,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>44268</v>
       </c>
@@ -10289,7 +10401,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>44269</v>
       </c>
@@ -10312,7 +10424,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>44270</v>
       </c>
@@ -10329,7 +10441,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>44271</v>
       </c>
@@ -10346,7 +10458,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>44272</v>
       </c>
@@ -10366,7 +10478,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>44273</v>
       </c>
@@ -10386,7 +10498,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>44274</v>
       </c>
@@ -10403,7 +10515,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>44275</v>
       </c>
@@ -10423,7 +10535,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>44276</v>
       </c>
@@ -10440,7 +10552,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>44277</v>
       </c>
@@ -10460,7 +10572,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>44278</v>
       </c>
@@ -10480,7 +10592,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>44279</v>
       </c>
@@ -10500,7 +10612,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>44280</v>
       </c>
@@ -10520,7 +10632,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>44281</v>
       </c>
@@ -10540,7 +10652,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>44282</v>
       </c>
@@ -10560,7 +10672,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>44283</v>
       </c>
@@ -10580,7 +10692,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>44284</v>
       </c>
@@ -10603,7 +10715,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>44285</v>
       </c>
@@ -10626,7 +10738,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>44286</v>
       </c>
@@ -10646,10 +10758,10 @@
         <v>381</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>12</v>
       </c>
@@ -10658,7 +10770,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>18</v>
       </c>
@@ -10667,7 +10779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>161</v>
       </c>
@@ -10676,7 +10788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>159</v>
       </c>
@@ -10685,113 +10797,113 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="7"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="7"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="7"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="7"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="7"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="7"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="7"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="7"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="7"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="7"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="7"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="7"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="7"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="7"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="7"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="7"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="7"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="7"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="7"/>
     </row>
   </sheetData>
@@ -10821,18 +10933,18 @@
       <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="66.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="52.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="66.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="52.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -10858,7 +10970,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>44287</v>
       </c>
@@ -10878,7 +10990,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>44288</v>
       </c>
@@ -10898,7 +11010,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>44289</v>
       </c>
@@ -10918,7 +11030,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>44290</v>
       </c>
@@ -10938,7 +11050,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>44291</v>
       </c>
@@ -10958,7 +11070,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>44292</v>
       </c>
@@ -10978,7 +11090,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>44293</v>
       </c>
@@ -11001,7 +11113,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>44294</v>
       </c>
@@ -11021,7 +11133,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>44295</v>
       </c>
@@ -11041,7 +11153,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>44296</v>
       </c>
@@ -11058,7 +11170,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>44297</v>
       </c>
@@ -11081,7 +11193,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>44298</v>
       </c>
@@ -11104,7 +11216,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>44299</v>
       </c>
@@ -11124,7 +11236,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>44300</v>
       </c>
@@ -11144,7 +11256,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>44301</v>
       </c>
@@ -11164,7 +11276,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>44302</v>
       </c>
@@ -11187,7 +11299,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>44303</v>
       </c>
@@ -11213,7 +11325,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>44304</v>
       </c>
@@ -11233,7 +11345,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>44305</v>
       </c>
@@ -11256,7 +11368,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>44306</v>
       </c>
@@ -11279,7 +11391,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>44307</v>
       </c>
@@ -11302,7 +11414,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>44308</v>
       </c>
@@ -11328,7 +11440,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>44309</v>
       </c>
@@ -11348,7 +11460,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>44310</v>
       </c>
@@ -11368,7 +11480,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>44311</v>
       </c>
@@ -11388,7 +11500,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>44312</v>
       </c>
@@ -11408,7 +11520,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>44313</v>
       </c>
@@ -11428,7 +11540,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>44314</v>
       </c>
@@ -11451,7 +11563,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>44315</v>
       </c>
@@ -11471,7 +11583,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>44316</v>
       </c>
@@ -11494,13 +11606,13 @@
         <v>523</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>12</v>
       </c>
@@ -11509,7 +11621,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>18</v>
       </c>
@@ -11518,7 +11630,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>161</v>
       </c>
@@ -11527,7 +11639,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>159</v>
       </c>
@@ -11536,113 +11648,113 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="11"/>
     </row>
   </sheetData>
@@ -11668,20 +11780,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C4189D3-F1C2-41D5-AFF0-50166F4BC652}">
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="52.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -11707,7 +11820,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
         <v>44317</v>
       </c>
@@ -11727,7 +11840,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>44318</v>
       </c>
@@ -11747,7 +11860,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>44319</v>
       </c>
@@ -11767,7 +11880,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>44320</v>
       </c>
@@ -11790,7 +11903,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>44321</v>
       </c>
@@ -11810,158 +11923,269 @@
         <v>541</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>44322</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B7">
+        <v>1720</v>
+      </c>
+      <c r="C7" t="s">
+        <v>542</v>
+      </c>
+      <c r="D7" t="s">
+        <v>543</v>
+      </c>
+      <c r="E7" t="s">
+        <v>544</v>
+      </c>
+      <c r="F7" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>44323</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B8">
+        <v>1486</v>
+      </c>
+      <c r="C8" t="s">
+        <v>546</v>
+      </c>
+      <c r="D8" t="s">
+        <v>547</v>
+      </c>
+      <c r="E8" t="s">
+        <v>548</v>
+      </c>
+      <c r="F8" t="s">
+        <v>549</v>
+      </c>
+      <c r="G8" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>44324</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B9">
+        <v>1723</v>
+      </c>
+      <c r="C9" t="s">
+        <v>555</v>
+      </c>
+      <c r="D9" t="s">
+        <v>556</v>
+      </c>
+      <c r="E9" t="s">
+        <v>159</v>
+      </c>
+      <c r="F9" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>44325</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B10">
+        <v>1482</v>
+      </c>
+      <c r="C10" t="s">
+        <v>551</v>
+      </c>
+      <c r="D10" t="s">
+        <v>552</v>
+      </c>
+      <c r="E10" t="s">
+        <v>553</v>
+      </c>
+      <c r="F10" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>44326</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B11">
+        <v>872</v>
+      </c>
+      <c r="C11" t="s">
+        <v>558</v>
+      </c>
+      <c r="D11" t="s">
+        <v>559</v>
+      </c>
+      <c r="E11" t="s">
+        <v>560</v>
+      </c>
+      <c r="F11" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>44327</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B12">
+        <v>1734</v>
+      </c>
+      <c r="C12" t="s">
+        <v>562</v>
+      </c>
+      <c r="D12" t="s">
+        <v>563</v>
+      </c>
+      <c r="E12" t="s">
+        <v>102</v>
+      </c>
+      <c r="F12" t="s">
+        <v>564</v>
+      </c>
+      <c r="G12" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>44328</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B13">
+        <v>1310</v>
+      </c>
+      <c r="C13" t="s">
+        <v>566</v>
+      </c>
+      <c r="D13" t="s">
+        <v>567</v>
+      </c>
+      <c r="E13" t="s">
+        <v>568</v>
+      </c>
+      <c r="F13" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>44329</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>44330</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>44331</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>44332</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>44333</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>44334</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>44335</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>44336</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
         <v>44337</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>44338</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>44339</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <v>44340</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <v>44341</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>44342</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <v>44343</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
         <v>44344</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
         <v>44345</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
         <v>44346</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
         <v>44347</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>12</v>
       </c>
       <c r="B34">
         <f>COUNTIF(E2:E32,"自己做出")</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>18</v>
       </c>
       <c r="B35">
         <f>COUNTIF(E2:E32,"看思路写出")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>161</v>
       </c>
@@ -11970,118 +12194,118 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>159</v>
       </c>
       <c r="B37">
         <f>COUNTIF(E2:E32,"CV后没看懂")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="13"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="13"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="13"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="13"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="13"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="13"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="13"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="13"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="13"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="13"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="13"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="13"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="13"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="13"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="13"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="13"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="13"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="13"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="13"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="13"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="13"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="13"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="13"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="13"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="13"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="13"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="13"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="13"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="13"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="13"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="13"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="13"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="13"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="13"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="13"/>
     </row>
   </sheetData>
@@ -12111,7 +12335,7 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12126,16 +12350,16 @@
       <selection activeCell="B14" sqref="B14:F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.875" customWidth="1"/>
-    <col min="6" max="6" width="43.75" customWidth="1"/>
-    <col min="7" max="7" width="38.75" customWidth="1"/>
+    <col min="2" max="2" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.88671875" customWidth="1"/>
+    <col min="6" max="6" width="43.77734375" customWidth="1"/>
+    <col min="7" max="7" width="38.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -12149,7 +12373,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -12172,7 +12396,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1800</v>
       </c>
@@ -12186,7 +12410,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1801</v>
       </c>
@@ -12203,7 +12427,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1802</v>
       </c>
@@ -12223,7 +12447,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1803</v>
       </c>
@@ -12240,7 +12464,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>324</v>
       </c>
@@ -12254,7 +12478,7 @@
         <v>5009</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>323</v>
       </c>
@@ -12266,28 +12490,28 @@
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
@@ -12323,16 +12547,16 @@
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.375" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.875" customWidth="1"/>
-    <col min="6" max="6" width="43.75" customWidth="1"/>
-    <col min="7" max="7" width="38.75" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.88671875" customWidth="1"/>
+    <col min="6" max="6" width="43.77734375" customWidth="1"/>
+    <col min="7" max="7" width="38.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -12346,7 +12570,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -12369,7 +12593,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5713</v>
       </c>
@@ -12389,7 +12613,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5715</v>
       </c>
@@ -12406,7 +12630,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5714</v>
       </c>
@@ -12423,7 +12647,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5716</v>
       </c>
@@ -12440,7 +12664,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>324</v>
       </c>
@@ -12454,7 +12678,7 @@
         <v>4996</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>87</v>
       </c>
@@ -12466,28 +12690,28 @@
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
@@ -12523,16 +12747,16 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.375" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.875" customWidth="1"/>
-    <col min="6" max="6" width="43.75" customWidth="1"/>
-    <col min="7" max="7" width="38.75" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.88671875" customWidth="1"/>
+    <col min="6" max="6" width="43.77734375" customWidth="1"/>
+    <col min="7" max="7" width="38.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -12546,7 +12770,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -12569,7 +12793,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>400</v>
       </c>
@@ -12586,7 +12810,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>401</v>
       </c>
@@ -12603,7 +12827,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>402</v>
       </c>
@@ -12620,7 +12844,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>403</v>
       </c>
@@ -12637,7 +12861,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>404</v>
       </c>
@@ -12654,7 +12878,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>324</v>
       </c>
@@ -12668,7 +12892,7 @@
         <v>9932</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>87</v>
       </c>
@@ -12680,28 +12904,28 @@
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>

--- a/力扣做题情况.xlsx
+++ b/力扣做题情况.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20373"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20374"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD36B34-DC5D-4630-9471-25747AD2ED51}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A55A9F-D43B-4E19-9019-BD79558B8878}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16152" windowHeight="8508" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="21年1月" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="585">
   <si>
     <t>种花问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2289,6 +2289,66 @@
   </si>
   <si>
     <t>前缀数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整数转罗马数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>停在原地的方案数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>困难</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pairs&lt;&gt;[]pairs数组运用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗马数字转整数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组中两个数的最大异或值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈希表/字典树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gcc __builtin_clz函数可以用来求最高位位置和前导零个数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3639,13 +3699,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2</c:v>
@@ -7945,17 +8005,17 @@
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="52.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="52.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -7981,7 +8041,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>44197</v>
       </c>
@@ -8004,7 +8064,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="6">
         <v>44198</v>
       </c>
@@ -8030,7 +8090,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>44199</v>
       </c>
@@ -8047,7 +8107,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>44200</v>
       </c>
@@ -8064,7 +8124,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>44201</v>
       </c>
@@ -8081,7 +8141,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>44202</v>
       </c>
@@ -8107,7 +8167,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>44203</v>
       </c>
@@ -8133,7 +8193,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <v>44204</v>
       </c>
@@ -8153,7 +8213,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>44205</v>
       </c>
@@ -8176,7 +8236,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>44206</v>
       </c>
@@ -8193,7 +8253,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>44207</v>
       </c>
@@ -8219,7 +8279,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>44208</v>
       </c>
@@ -8242,7 +8302,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>44209</v>
       </c>
@@ -8265,7 +8325,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
         <v>44210</v>
       </c>
@@ -8282,7 +8342,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
         <v>44211</v>
       </c>
@@ -8305,7 +8365,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
         <v>44212</v>
       </c>
@@ -8328,7 +8388,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
         <v>44213</v>
       </c>
@@ -8348,7 +8408,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="6">
         <v>44214</v>
       </c>
@@ -8371,7 +8431,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="6">
         <v>44215</v>
       </c>
@@ -8394,7 +8454,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="6">
         <v>44216</v>
       </c>
@@ -8414,7 +8474,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="6">
         <v>44217</v>
       </c>
@@ -8440,7 +8500,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="6">
         <v>44218</v>
       </c>
@@ -8460,7 +8520,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="6">
         <v>44219</v>
       </c>
@@ -8480,7 +8540,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="6">
         <v>44220</v>
       </c>
@@ -8500,7 +8560,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="6">
         <v>44221</v>
       </c>
@@ -8520,7 +8580,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="6">
         <v>44222</v>
       </c>
@@ -8543,7 +8603,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="6">
         <v>44223</v>
       </c>
@@ -8563,7 +8623,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="6">
         <v>44224</v>
       </c>
@@ -8580,7 +8640,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="6">
         <v>44225</v>
       </c>
@@ -8606,7 +8666,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="6">
         <v>44226</v>
       </c>
@@ -8623,7 +8683,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="6">
         <v>44227</v>
       </c>
@@ -8643,10 +8703,10 @@
         <v>126</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>17</v>
       </c>
@@ -8655,7 +8715,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>18</v>
       </c>
@@ -8664,7 +8724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>161</v>
       </c>
@@ -8673,7 +8733,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>159</v>
       </c>
@@ -8682,18 +8742,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="14" t="s">
         <v>127</v>
       </c>
@@ -8702,36 +8762,36 @@
       <c r="D41" s="14"/>
       <c r="E41" s="14"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="14"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
       <c r="D42" s="14"/>
       <c r="E42" s="14"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="14"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
       <c r="D43" s="14"/>
       <c r="E43" s="14"/>
     </row>
-    <row r="44" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="14"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>
       <c r="E44" s="14"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="15" t="s">
         <v>121</v>
       </c>
@@ -8740,96 +8800,96 @@
       <c r="D47" s="15"/>
       <c r="E47" s="15"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="15"/>
       <c r="B48" s="15"/>
       <c r="C48" s="15"/>
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" s="15"/>
       <c r="B49" s="15"/>
       <c r="C49" s="15"/>
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" s="15"/>
       <c r="B50" s="15"/>
       <c r="C50" s="15"/>
       <c r="D50" s="15"/>
       <c r="E50" s="15"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" s="1"/>
       <c r="B52" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="1"/>
     </row>
   </sheetData>
@@ -8863,16 +8923,16 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -8898,105 +8958,105 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>43831</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
         <v>12</v>
       </c>
@@ -9005,7 +9065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
         <v>18</v>
       </c>
@@ -9014,7 +9074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
         <v>161</v>
       </c>
@@ -9023,7 +9083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
         <v>159</v>
       </c>
@@ -9032,109 +9092,109 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="1"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="1"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="1"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="1"/>
     </row>
   </sheetData>
@@ -9163,16 +9223,16 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.88671875" customWidth="1"/>
-    <col min="6" max="6" width="43.77734375" customWidth="1"/>
-    <col min="7" max="7" width="38.77734375" customWidth="1"/>
+    <col min="2" max="2" width="33.375" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.875" customWidth="1"/>
+    <col min="6" max="6" width="43.75" customWidth="1"/>
+    <col min="7" max="7" width="38.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -9184,7 +9244,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -9207,7 +9267,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>324</v>
       </c>
@@ -9215,7 +9275,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>323</v>
       </c>
@@ -9225,28 +9285,28 @@
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
@@ -9282,17 +9342,17 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -9318,7 +9378,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>44228</v>
       </c>
@@ -9338,7 +9398,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="6">
         <v>44229</v>
       </c>
@@ -9358,7 +9418,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>44230</v>
       </c>
@@ -9384,7 +9444,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>44231</v>
       </c>
@@ -9404,7 +9464,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>44232</v>
       </c>
@@ -9424,7 +9484,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>44233</v>
       </c>
@@ -9447,7 +9507,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>44234</v>
       </c>
@@ -9467,7 +9527,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <v>44235</v>
       </c>
@@ -9487,7 +9547,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>44236</v>
       </c>
@@ -9507,7 +9567,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>44237</v>
       </c>
@@ -9527,7 +9587,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>44238</v>
       </c>
@@ -9550,7 +9610,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>44239</v>
       </c>
@@ -9567,7 +9627,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>44240</v>
       </c>
@@ -9590,7 +9650,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
         <v>44241</v>
       </c>
@@ -9613,7 +9673,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
         <v>44242</v>
       </c>
@@ -9630,7 +9690,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
         <v>44243</v>
       </c>
@@ -9647,7 +9707,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
         <v>44244</v>
       </c>
@@ -9670,7 +9730,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="6">
         <v>44245</v>
       </c>
@@ -9690,7 +9750,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="6">
         <v>44246</v>
       </c>
@@ -9707,7 +9767,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="6">
         <v>44247</v>
       </c>
@@ -9727,7 +9787,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="6">
         <v>44248</v>
       </c>
@@ -9747,7 +9807,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="6">
         <v>44249</v>
       </c>
@@ -9764,7 +9824,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="6">
         <v>44250</v>
       </c>
@@ -9782,7 +9842,7 @@
       </c>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="6">
         <v>44251</v>
       </c>
@@ -9799,7 +9859,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="6">
         <v>44252</v>
       </c>
@@ -9816,7 +9876,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="6">
         <v>44253</v>
       </c>
@@ -9842,7 +9902,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="6">
         <v>44254</v>
       </c>
@@ -9865,7 +9925,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="6">
         <v>44255</v>
       </c>
@@ -9885,19 +9945,19 @@
         <v>154</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="2"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
         <v>12</v>
       </c>
@@ -9906,7 +9966,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
         <v>18</v>
       </c>
@@ -9915,7 +9975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
         <v>161</v>
       </c>
@@ -9924,7 +9984,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
         <v>159</v>
       </c>
@@ -9933,18 +9993,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="16" t="s">
         <v>225</v>
       </c>
@@ -9953,105 +10013,105 @@
       <c r="D41" s="16"/>
       <c r="E41" s="16"/>
     </row>
-    <row r="42" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="16"/>
       <c r="B42" s="16"/>
       <c r="C42" s="16"/>
       <c r="D42" s="16"/>
       <c r="E42" s="16"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="1"/>
     </row>
   </sheetData>
@@ -10084,17 +10144,17 @@
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -10120,7 +10180,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="7">
         <v>44256</v>
       </c>
@@ -10143,7 +10203,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="7">
         <v>44257</v>
       </c>
@@ -10166,7 +10226,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
         <v>44258</v>
       </c>
@@ -10192,7 +10252,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
         <v>44259</v>
       </c>
@@ -10215,7 +10275,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
         <v>44260</v>
       </c>
@@ -10235,7 +10295,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
         <v>44261</v>
       </c>
@@ -10255,7 +10315,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="7">
         <v>44262</v>
       </c>
@@ -10278,7 +10338,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
         <v>44263</v>
       </c>
@@ -10298,7 +10358,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
         <v>44264</v>
       </c>
@@ -10318,7 +10378,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
         <v>44265</v>
       </c>
@@ -10338,7 +10398,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="7">
         <v>44266</v>
       </c>
@@ -10358,7 +10418,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
         <v>44267</v>
       </c>
@@ -10378,7 +10438,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="7">
         <v>44268</v>
       </c>
@@ -10401,7 +10461,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="7">
         <v>44269</v>
       </c>
@@ -10424,7 +10484,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="7">
         <v>44270</v>
       </c>
@@ -10441,7 +10501,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="7">
         <v>44271</v>
       </c>
@@ -10458,7 +10518,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="7">
         <v>44272</v>
       </c>
@@ -10478,7 +10538,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="7">
         <v>44273</v>
       </c>
@@ -10498,7 +10558,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="7">
         <v>44274</v>
       </c>
@@ -10515,7 +10575,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="7">
         <v>44275</v>
       </c>
@@ -10535,7 +10595,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="7">
         <v>44276</v>
       </c>
@@ -10552,7 +10612,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="7">
         <v>44277</v>
       </c>
@@ -10572,7 +10632,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="7">
         <v>44278</v>
       </c>
@@ -10592,7 +10652,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="7">
         <v>44279</v>
       </c>
@@ -10612,7 +10672,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="7">
         <v>44280</v>
       </c>
@@ -10632,7 +10692,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="7">
         <v>44281</v>
       </c>
@@ -10652,7 +10712,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="7">
         <v>44282</v>
       </c>
@@ -10672,7 +10732,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="7">
         <v>44283</v>
       </c>
@@ -10692,7 +10752,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="7">
         <v>44284</v>
       </c>
@@ -10715,7 +10775,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="7">
         <v>44285</v>
       </c>
@@ -10738,7 +10798,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="7">
         <v>44286</v>
       </c>
@@ -10758,10 +10818,10 @@
         <v>381</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="7"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="7" t="s">
         <v>12</v>
       </c>
@@ -10770,7 +10830,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="7" t="s">
         <v>18</v>
       </c>
@@ -10779,7 +10839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="7" t="s">
         <v>161</v>
       </c>
@@ -10788,7 +10848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="7" t="s">
         <v>159</v>
       </c>
@@ -10797,113 +10857,113 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="7"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="7"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="7"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="7"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="7" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="7" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="7"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="7"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="7"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="7"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="7"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="7"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="7"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="7"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="7"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="7"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="7"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="7"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="7"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="7"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="7"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="7"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="7"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="7"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="7"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="7"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="7"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="7"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="7"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="7"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="7"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="7"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="7"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="7"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="7"/>
     </row>
   </sheetData>
@@ -10933,18 +10993,18 @@
       <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="66.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="52.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="66.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="52.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -10970,7 +11030,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="11">
         <v>44287</v>
       </c>
@@ -10990,7 +11050,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="11">
         <v>44288</v>
       </c>
@@ -11010,7 +11070,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="11">
         <v>44289</v>
       </c>
@@ -11030,7 +11090,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="11">
         <v>44290</v>
       </c>
@@ -11050,7 +11110,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="11">
         <v>44291</v>
       </c>
@@ -11070,7 +11130,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="11">
         <v>44292</v>
       </c>
@@ -11090,7 +11150,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="11">
         <v>44293</v>
       </c>
@@ -11113,7 +11173,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="11">
         <v>44294</v>
       </c>
@@ -11133,7 +11193,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="11">
         <v>44295</v>
       </c>
@@ -11153,7 +11213,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="11">
         <v>44296</v>
       </c>
@@ -11170,7 +11230,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="11">
         <v>44297</v>
       </c>
@@ -11193,7 +11253,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="11">
         <v>44298</v>
       </c>
@@ -11216,7 +11276,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="11">
         <v>44299</v>
       </c>
@@ -11236,7 +11296,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="11">
         <v>44300</v>
       </c>
@@ -11256,7 +11316,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="11">
         <v>44301</v>
       </c>
@@ -11276,7 +11336,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="11">
         <v>44302</v>
       </c>
@@ -11299,7 +11359,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="11">
         <v>44303</v>
       </c>
@@ -11325,7 +11385,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="11">
         <v>44304</v>
       </c>
@@ -11345,7 +11405,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="11">
         <v>44305</v>
       </c>
@@ -11368,7 +11428,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="11">
         <v>44306</v>
       </c>
@@ -11391,7 +11451,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="11">
         <v>44307</v>
       </c>
@@ -11414,7 +11474,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="11">
         <v>44308</v>
       </c>
@@ -11440,7 +11500,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="11">
         <v>44309</v>
       </c>
@@ -11460,7 +11520,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="11">
         <v>44310</v>
       </c>
@@ -11480,7 +11540,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="11">
         <v>44311</v>
       </c>
@@ -11500,7 +11560,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="11">
         <v>44312</v>
       </c>
@@ -11520,7 +11580,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="11">
         <v>44313</v>
       </c>
@@ -11540,7 +11600,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="11">
         <v>44314</v>
       </c>
@@ -11563,7 +11623,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="11">
         <v>44315</v>
       </c>
@@ -11583,7 +11643,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="11">
         <v>44316</v>
       </c>
@@ -11606,13 +11666,13 @@
         <v>523</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="11"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="11"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="11" t="s">
         <v>12</v>
       </c>
@@ -11621,7 +11681,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="11" t="s">
         <v>18</v>
       </c>
@@ -11630,7 +11690,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="11" t="s">
         <v>161</v>
       </c>
@@ -11639,7 +11699,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="11" t="s">
         <v>159</v>
       </c>
@@ -11648,113 +11708,113 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="11"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="11"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="11"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="11"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="11" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="11" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="11"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="11"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="11"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="11"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="11"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="11"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="11"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="11"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="11"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="11"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="11"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="11"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="11"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="11"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="11"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="11"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="11"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="11"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="11"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="11"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="11"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="11"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="11"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="11"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="11"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="11"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="11"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="11"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="11"/>
     </row>
   </sheetData>
@@ -11780,21 +11840,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C4189D3-F1C2-41D5-AFF0-50166F4BC652}">
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="52.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="52.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -11820,7 +11880,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="13">
         <v>44317</v>
       </c>
@@ -11840,7 +11900,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="13">
         <v>44318</v>
       </c>
@@ -11860,7 +11920,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="13">
         <v>44319</v>
       </c>
@@ -11880,7 +11940,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="13">
         <v>44320</v>
       </c>
@@ -11903,7 +11963,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="13">
         <v>44321</v>
       </c>
@@ -11923,7 +11983,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="13">
         <v>44322</v>
       </c>
@@ -11943,7 +12003,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="13">
         <v>44323</v>
       </c>
@@ -11966,7 +12026,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="13">
         <v>44324</v>
       </c>
@@ -11986,7 +12046,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="13">
         <v>44325</v>
       </c>
@@ -12006,7 +12066,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="13">
         <v>44326</v>
       </c>
@@ -12026,7 +12086,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="13">
         <v>44327</v>
       </c>
@@ -12049,7 +12109,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="13">
         <v>44328</v>
       </c>
@@ -12069,114 +12129,177 @@
         <v>569</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="13">
         <v>44329</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>1269</v>
+      </c>
+      <c r="C14" t="s">
+        <v>573</v>
+      </c>
+      <c r="D14" t="s">
+        <v>574</v>
+      </c>
+      <c r="E14" t="s">
+        <v>160</v>
+      </c>
+      <c r="F14" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="13">
         <v>44330</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>570</v>
+      </c>
+      <c r="D15" t="s">
+        <v>571</v>
+      </c>
+      <c r="E15" t="s">
+        <v>572</v>
+      </c>
+      <c r="G15" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="13">
         <v>44331</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>577</v>
+      </c>
+      <c r="D16" t="s">
+        <v>579</v>
+      </c>
+      <c r="E16" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="13">
         <v>44332</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>421</v>
+      </c>
+      <c r="C17" t="s">
+        <v>580</v>
+      </c>
+      <c r="D17" t="s">
+        <v>581</v>
+      </c>
+      <c r="E17" t="s">
+        <v>582</v>
+      </c>
+      <c r="F17" t="s">
+        <v>583</v>
+      </c>
+      <c r="G17" t="s">
+        <v>584</v>
+      </c>
+      <c r="H17" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="13">
         <v>44333</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="13">
         <v>44334</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="13">
         <v>44335</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="13">
         <v>44336</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="13">
         <v>44337</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="13">
         <v>44338</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="13">
         <v>44339</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="13">
         <v>44340</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="13">
         <v>44341</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="13">
         <v>44342</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="13">
         <v>44343</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="13">
         <v>44344</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="13">
         <v>44345</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="13">
         <v>44346</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="13">
         <v>44347</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="13"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="13" t="s">
         <v>12</v>
       </c>
       <c r="B34">
         <f>COUNTIF(E2:E32,"自己做出")</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="13" t="s">
         <v>18</v>
       </c>
@@ -12185,16 +12308,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="13" t="s">
         <v>161</v>
       </c>
       <c r="B36">
         <f>COUNTIF(E2:E32,"CV后看懂")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="13" t="s">
         <v>159</v>
       </c>
@@ -12203,109 +12326,109 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="13"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="13"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="13"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="13"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="13"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="13"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="13"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="13"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="13"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="13"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="13"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="13"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="13"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="13"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="13"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="13"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="13"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="13"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="13"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="13"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="13"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="13"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="13"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="13"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="13"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="13"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="13"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="13"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="13"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="13"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="13"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="13"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="13"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="13"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="13"/>
     </row>
   </sheetData>
@@ -12335,7 +12458,7 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12350,16 +12473,16 @@
       <selection activeCell="B14" sqref="B14:F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.88671875" customWidth="1"/>
-    <col min="6" max="6" width="43.77734375" customWidth="1"/>
-    <col min="7" max="7" width="38.77734375" customWidth="1"/>
+    <col min="2" max="2" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.875" customWidth="1"/>
+    <col min="6" max="6" width="43.75" customWidth="1"/>
+    <col min="7" max="7" width="38.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -12373,7 +12496,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -12396,7 +12519,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1800</v>
       </c>
@@ -12410,7 +12533,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1801</v>
       </c>
@@ -12427,7 +12550,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>1802</v>
       </c>
@@ -12447,7 +12570,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>1803</v>
       </c>
@@ -12464,7 +12587,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>324</v>
       </c>
@@ -12478,7 +12601,7 @@
         <v>5009</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>323</v>
       </c>
@@ -12490,28 +12613,28 @@
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
@@ -12547,16 +12670,16 @@
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.88671875" customWidth="1"/>
-    <col min="6" max="6" width="43.77734375" customWidth="1"/>
-    <col min="7" max="7" width="38.77734375" customWidth="1"/>
+    <col min="2" max="2" width="33.375" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.875" customWidth="1"/>
+    <col min="6" max="6" width="43.75" customWidth="1"/>
+    <col min="7" max="7" width="38.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -12570,7 +12693,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -12593,7 +12716,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>5713</v>
       </c>
@@ -12613,7 +12736,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>5715</v>
       </c>
@@ -12630,7 +12753,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5714</v>
       </c>
@@ -12647,7 +12770,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5716</v>
       </c>
@@ -12664,7 +12787,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>324</v>
       </c>
@@ -12678,7 +12801,7 @@
         <v>4996</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>87</v>
       </c>
@@ -12690,28 +12813,28 @@
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
@@ -12747,16 +12870,16 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.88671875" customWidth="1"/>
-    <col min="6" max="6" width="43.77734375" customWidth="1"/>
-    <col min="7" max="7" width="38.77734375" customWidth="1"/>
+    <col min="2" max="2" width="33.375" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.875" customWidth="1"/>
+    <col min="6" max="6" width="43.75" customWidth="1"/>
+    <col min="7" max="7" width="38.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -12770,7 +12893,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -12793,7 +12916,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>400</v>
       </c>
@@ -12810,7 +12933,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>401</v>
       </c>
@@ -12827,7 +12950,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>402</v>
       </c>
@@ -12844,7 +12967,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>403</v>
       </c>
@@ -12861,7 +12984,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>404</v>
       </c>
@@ -12878,7 +13001,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>324</v>
       </c>
@@ -12892,7 +13015,7 @@
         <v>9932</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>87</v>
       </c>
@@ -12904,28 +13027,28 @@
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>

--- a/力扣做题情况.xlsx
+++ b/力扣做题情况.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20374"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A55A9F-D43B-4E19-9019-BD79558B8878}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C30027-7392-429E-9F76-A42E57C32346}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="16152" windowHeight="8508" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="21年1月" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="594">
   <si>
     <t>种花问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2349,6 +2349,42 @@
   </si>
   <si>
     <t>gcc __builtin_clz函数可以用来求最高位位置和前导零个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二叉树的堂兄弟节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bfs/dfs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>形成两个异或相等数组的三元组数目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异或性质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二重循环/一重循环</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3699,7 +3735,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>12</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -8005,17 +8041,17 @@
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="52.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="52.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -8041,7 +8077,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44197</v>
       </c>
@@ -8064,7 +8100,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>44198</v>
       </c>
@@ -8090,7 +8126,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>44199</v>
       </c>
@@ -8107,7 +8143,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>44200</v>
       </c>
@@ -8124,7 +8160,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>44201</v>
       </c>
@@ -8141,7 +8177,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>44202</v>
       </c>
@@ -8167,7 +8203,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>44203</v>
       </c>
@@ -8193,7 +8229,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>44204</v>
       </c>
@@ -8213,7 +8249,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>44205</v>
       </c>
@@ -8236,7 +8272,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>44206</v>
       </c>
@@ -8253,7 +8289,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>44207</v>
       </c>
@@ -8279,7 +8315,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>44208</v>
       </c>
@@ -8302,7 +8338,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>44209</v>
       </c>
@@ -8325,7 +8361,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>44210</v>
       </c>
@@ -8342,7 +8378,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>44211</v>
       </c>
@@ -8365,7 +8401,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>44212</v>
       </c>
@@ -8388,7 +8424,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>44213</v>
       </c>
@@ -8408,7 +8444,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>44214</v>
       </c>
@@ -8431,7 +8467,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>44215</v>
       </c>
@@ -8454,7 +8490,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>44216</v>
       </c>
@@ -8474,7 +8510,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>44217</v>
       </c>
@@ -8500,7 +8536,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>44218</v>
       </c>
@@ -8520,7 +8556,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>44219</v>
       </c>
@@ -8540,7 +8576,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>44220</v>
       </c>
@@ -8560,7 +8596,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>44221</v>
       </c>
@@ -8580,7 +8616,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>44222</v>
       </c>
@@ -8603,7 +8639,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>44223</v>
       </c>
@@ -8623,7 +8659,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>44224</v>
       </c>
@@ -8640,7 +8676,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>44225</v>
       </c>
@@ -8666,7 +8702,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>44226</v>
       </c>
@@ -8683,7 +8719,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>44227</v>
       </c>
@@ -8703,10 +8739,10 @@
         <v>126</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>17</v>
       </c>
@@ -8715,7 +8751,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>18</v>
       </c>
@@ -8724,7 +8760,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>161</v>
       </c>
@@ -8733,7 +8769,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>159</v>
       </c>
@@ -8742,18 +8778,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
         <v>127</v>
       </c>
@@ -8762,36 +8798,36 @@
       <c r="D41" s="14"/>
       <c r="E41" s="14"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="14"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
       <c r="D42" s="14"/>
       <c r="E42" s="14"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="14"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
       <c r="D43" s="14"/>
       <c r="E43" s="14"/>
     </row>
-    <row r="44" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="14"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>
       <c r="E44" s="14"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
         <v>121</v>
       </c>
@@ -8800,96 +8836,96 @@
       <c r="D47" s="15"/>
       <c r="E47" s="15"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="15"/>
       <c r="B48" s="15"/>
       <c r="C48" s="15"/>
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="15"/>
       <c r="B49" s="15"/>
       <c r="C49" s="15"/>
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="15"/>
       <c r="B50" s="15"/>
       <c r="C50" s="15"/>
       <c r="D50" s="15"/>
       <c r="E50" s="15"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
     </row>
   </sheetData>
@@ -8923,16 +8959,16 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -8958,105 +8994,105 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43831</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>12</v>
       </c>
@@ -9065,7 +9101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>18</v>
       </c>
@@ -9074,7 +9110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>161</v>
       </c>
@@ -9083,7 +9119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>159</v>
       </c>
@@ -9092,109 +9128,109 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
     </row>
   </sheetData>
@@ -9223,16 +9259,16 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.375" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.875" customWidth="1"/>
-    <col min="6" max="6" width="43.75" customWidth="1"/>
-    <col min="7" max="7" width="38.75" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.88671875" customWidth="1"/>
+    <col min="6" max="6" width="43.77734375" customWidth="1"/>
+    <col min="7" max="7" width="38.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -9244,7 +9280,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -9267,7 +9303,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>324</v>
       </c>
@@ -9275,7 +9311,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>323</v>
       </c>
@@ -9285,28 +9321,28 @@
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
@@ -9342,17 +9378,17 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -9378,7 +9414,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44228</v>
       </c>
@@ -9398,7 +9434,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>44229</v>
       </c>
@@ -9418,7 +9454,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>44230</v>
       </c>
@@ -9444,7 +9480,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>44231</v>
       </c>
@@ -9464,7 +9500,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>44232</v>
       </c>
@@ -9484,7 +9520,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>44233</v>
       </c>
@@ -9507,7 +9543,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>44234</v>
       </c>
@@ -9527,7 +9563,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>44235</v>
       </c>
@@ -9547,7 +9583,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>44236</v>
       </c>
@@ -9567,7 +9603,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>44237</v>
       </c>
@@ -9587,7 +9623,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>44238</v>
       </c>
@@ -9610,7 +9646,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>44239</v>
       </c>
@@ -9627,7 +9663,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>44240</v>
       </c>
@@ -9650,7 +9686,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>44241</v>
       </c>
@@ -9673,7 +9709,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>44242</v>
       </c>
@@ -9690,7 +9726,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>44243</v>
       </c>
@@ -9707,7 +9743,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>44244</v>
       </c>
@@ -9730,7 +9766,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>44245</v>
       </c>
@@ -9750,7 +9786,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>44246</v>
       </c>
@@ -9767,7 +9803,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>44247</v>
       </c>
@@ -9787,7 +9823,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>44248</v>
       </c>
@@ -9807,7 +9843,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>44249</v>
       </c>
@@ -9824,7 +9860,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>44250</v>
       </c>
@@ -9842,7 +9878,7 @@
       </c>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>44251</v>
       </c>
@@ -9859,7 +9895,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>44252</v>
       </c>
@@ -9876,7 +9912,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>44253</v>
       </c>
@@ -9902,7 +9938,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>44254</v>
       </c>
@@ -9925,7 +9961,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>44255</v>
       </c>
@@ -9945,19 +9981,19 @@
         <v>154</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>12</v>
       </c>
@@ -9966,7 +10002,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>18</v>
       </c>
@@ -9975,7 +10011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>161</v>
       </c>
@@ -9984,7 +10020,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>159</v>
       </c>
@@ -9993,18 +10029,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
         <v>225</v>
       </c>
@@ -10013,105 +10049,105 @@
       <c r="D41" s="16"/>
       <c r="E41" s="16"/>
     </row>
-    <row r="42" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="16"/>
       <c r="B42" s="16"/>
       <c r="C42" s="16"/>
       <c r="D42" s="16"/>
       <c r="E42" s="16"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
     </row>
   </sheetData>
@@ -10144,17 +10180,17 @@
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -10180,7 +10216,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>44256</v>
       </c>
@@ -10203,7 +10239,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>44257</v>
       </c>
@@ -10226,7 +10262,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>44258</v>
       </c>
@@ -10252,7 +10288,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>44259</v>
       </c>
@@ -10275,7 +10311,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>44260</v>
       </c>
@@ -10295,7 +10331,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>44261</v>
       </c>
@@ -10315,7 +10351,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>44262</v>
       </c>
@@ -10338,7 +10374,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>44263</v>
       </c>
@@ -10358,7 +10394,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>44264</v>
       </c>
@@ -10378,7 +10414,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>44265</v>
       </c>
@@ -10398,7 +10434,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>44266</v>
       </c>
@@ -10418,7 +10454,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>44267</v>
       </c>
@@ -10438,7 +10474,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>44268</v>
       </c>
@@ -10461,7 +10497,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>44269</v>
       </c>
@@ -10484,7 +10520,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>44270</v>
       </c>
@@ -10501,7 +10537,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>44271</v>
       </c>
@@ -10518,7 +10554,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>44272</v>
       </c>
@@ -10538,7 +10574,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>44273</v>
       </c>
@@ -10558,7 +10594,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>44274</v>
       </c>
@@ -10575,7 +10611,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>44275</v>
       </c>
@@ -10595,7 +10631,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>44276</v>
       </c>
@@ -10612,7 +10648,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>44277</v>
       </c>
@@ -10632,7 +10668,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>44278</v>
       </c>
@@ -10652,7 +10688,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>44279</v>
       </c>
@@ -10672,7 +10708,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>44280</v>
       </c>
@@ -10692,7 +10728,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>44281</v>
       </c>
@@ -10712,7 +10748,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>44282</v>
       </c>
@@ -10732,7 +10768,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>44283</v>
       </c>
@@ -10752,7 +10788,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>44284</v>
       </c>
@@ -10775,7 +10811,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>44285</v>
       </c>
@@ -10798,7 +10834,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>44286</v>
       </c>
@@ -10818,10 +10854,10 @@
         <v>381</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>12</v>
       </c>
@@ -10830,7 +10866,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>18</v>
       </c>
@@ -10839,7 +10875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>161</v>
       </c>
@@ -10848,7 +10884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>159</v>
       </c>
@@ -10857,113 +10893,113 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="7"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="7"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="7"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="7"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="7"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="7"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="7"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="7"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="7"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="7"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="7"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="7"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="7"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="7"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="7"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="7"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="7"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="7"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="7"/>
     </row>
   </sheetData>
@@ -10993,18 +11029,18 @@
       <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="66.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="52.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="66.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="52.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -11030,7 +11066,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>44287</v>
       </c>
@@ -11050,7 +11086,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>44288</v>
       </c>
@@ -11070,7 +11106,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>44289</v>
       </c>
@@ -11090,7 +11126,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>44290</v>
       </c>
@@ -11110,7 +11146,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>44291</v>
       </c>
@@ -11130,7 +11166,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>44292</v>
       </c>
@@ -11150,7 +11186,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>44293</v>
       </c>
@@ -11173,7 +11209,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>44294</v>
       </c>
@@ -11193,7 +11229,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>44295</v>
       </c>
@@ -11213,7 +11249,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>44296</v>
       </c>
@@ -11230,7 +11266,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>44297</v>
       </c>
@@ -11253,7 +11289,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>44298</v>
       </c>
@@ -11276,7 +11312,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>44299</v>
       </c>
@@ -11296,7 +11332,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>44300</v>
       </c>
@@ -11316,7 +11352,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>44301</v>
       </c>
@@ -11336,7 +11372,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>44302</v>
       </c>
@@ -11359,7 +11395,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>44303</v>
       </c>
@@ -11385,7 +11421,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>44304</v>
       </c>
@@ -11405,7 +11441,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>44305</v>
       </c>
@@ -11428,7 +11464,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>44306</v>
       </c>
@@ -11451,7 +11487,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>44307</v>
       </c>
@@ -11474,7 +11510,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>44308</v>
       </c>
@@ -11500,7 +11536,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>44309</v>
       </c>
@@ -11520,7 +11556,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>44310</v>
       </c>
@@ -11540,7 +11576,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>44311</v>
       </c>
@@ -11560,7 +11596,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>44312</v>
       </c>
@@ -11580,7 +11616,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>44313</v>
       </c>
@@ -11600,7 +11636,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>44314</v>
       </c>
@@ -11623,7 +11659,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>44315</v>
       </c>
@@ -11643,7 +11679,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>44316</v>
       </c>
@@ -11666,13 +11702,13 @@
         <v>523</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>12</v>
       </c>
@@ -11681,7 +11717,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>18</v>
       </c>
@@ -11690,7 +11726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>161</v>
       </c>
@@ -11699,7 +11735,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>159</v>
       </c>
@@ -11708,113 +11744,113 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="11"/>
     </row>
   </sheetData>
@@ -11841,20 +11877,20 @@
   <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="52.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="58.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -11880,7 +11916,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
         <v>44317</v>
       </c>
@@ -11900,7 +11936,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>44318</v>
       </c>
@@ -11920,7 +11956,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>44319</v>
       </c>
@@ -11940,7 +11976,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>44320</v>
       </c>
@@ -11963,7 +11999,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>44321</v>
       </c>
@@ -11983,7 +12019,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>44322</v>
       </c>
@@ -12003,7 +12039,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>44323</v>
       </c>
@@ -12026,7 +12062,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>44324</v>
       </c>
@@ -12046,7 +12082,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>44325</v>
       </c>
@@ -12066,7 +12102,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>44326</v>
       </c>
@@ -12086,7 +12122,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>44327</v>
       </c>
@@ -12109,7 +12145,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>44328</v>
       </c>
@@ -12129,7 +12165,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>44329</v>
       </c>
@@ -12149,7 +12185,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>44330</v>
       </c>
@@ -12169,7 +12205,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>44331</v>
       </c>
@@ -12186,7 +12222,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>44332</v>
       </c>
@@ -12212,94 +12248,127 @@
         <v>583</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>44333</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B18">
+        <v>993</v>
+      </c>
+      <c r="C18" t="s">
+        <v>585</v>
+      </c>
+      <c r="D18" t="s">
+        <v>586</v>
+      </c>
+      <c r="E18" t="s">
+        <v>587</v>
+      </c>
+      <c r="F18" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>44334</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B19">
+        <v>1442</v>
+      </c>
+      <c r="C19" t="s">
+        <v>589</v>
+      </c>
+      <c r="D19" t="s">
+        <v>590</v>
+      </c>
+      <c r="E19" t="s">
+        <v>591</v>
+      </c>
+      <c r="F19" t="s">
+        <v>592</v>
+      </c>
+      <c r="H19" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>44335</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>44336</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
         <v>44337</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>44338</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>44339</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <v>44340</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <v>44341</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>44342</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <v>44343</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
         <v>44344</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
         <v>44345</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
         <v>44346</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
         <v>44347</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>12</v>
       </c>
       <c r="B34">
         <f>COUNTIF(E2:E32,"自己做出")</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>18</v>
       </c>
@@ -12308,7 +12377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>161</v>
       </c>
@@ -12317,7 +12386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>159</v>
       </c>
@@ -12326,109 +12395,109 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="13"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="13"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="13"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="13"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="13"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="13"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="13"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="13"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="13"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="13"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="13"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="13"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="13"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="13"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="13"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="13"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="13"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="13"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="13"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="13"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="13"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="13"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="13"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="13"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="13"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="13"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="13"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="13"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="13"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="13"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="13"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="13"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="13"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="13"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="13"/>
     </row>
   </sheetData>
@@ -12458,7 +12527,7 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12473,16 +12542,16 @@
       <selection activeCell="B14" sqref="B14:F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.875" customWidth="1"/>
-    <col min="6" max="6" width="43.75" customWidth="1"/>
-    <col min="7" max="7" width="38.75" customWidth="1"/>
+    <col min="2" max="2" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.88671875" customWidth="1"/>
+    <col min="6" max="6" width="43.77734375" customWidth="1"/>
+    <col min="7" max="7" width="38.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -12496,7 +12565,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -12519,7 +12588,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1800</v>
       </c>
@@ -12533,7 +12602,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1801</v>
       </c>
@@ -12550,7 +12619,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1802</v>
       </c>
@@ -12570,7 +12639,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1803</v>
       </c>
@@ -12587,7 +12656,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>324</v>
       </c>
@@ -12601,7 +12670,7 @@
         <v>5009</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>323</v>
       </c>
@@ -12613,28 +12682,28 @@
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
@@ -12670,16 +12739,16 @@
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.375" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.875" customWidth="1"/>
-    <col min="6" max="6" width="43.75" customWidth="1"/>
-    <col min="7" max="7" width="38.75" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.88671875" customWidth="1"/>
+    <col min="6" max="6" width="43.77734375" customWidth="1"/>
+    <col min="7" max="7" width="38.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -12693,7 +12762,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -12716,7 +12785,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5713</v>
       </c>
@@ -12736,7 +12805,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5715</v>
       </c>
@@ -12753,7 +12822,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5714</v>
       </c>
@@ -12770,7 +12839,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5716</v>
       </c>
@@ -12787,7 +12856,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>324</v>
       </c>
@@ -12801,7 +12870,7 @@
         <v>4996</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>87</v>
       </c>
@@ -12813,28 +12882,28 @@
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
@@ -12870,16 +12939,16 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.375" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.875" customWidth="1"/>
-    <col min="6" max="6" width="43.75" customWidth="1"/>
-    <col min="7" max="7" width="38.75" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.88671875" customWidth="1"/>
+    <col min="6" max="6" width="43.77734375" customWidth="1"/>
+    <col min="7" max="7" width="38.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -12893,7 +12962,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -12916,7 +12985,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>400</v>
       </c>
@@ -12933,7 +13002,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>401</v>
       </c>
@@ -12950,7 +13019,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>402</v>
       </c>
@@ -12967,7 +13036,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>403</v>
       </c>
@@ -12984,7 +13053,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>404</v>
       </c>
@@ -13001,7 +13070,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>324</v>
       </c>
@@ -13015,7 +13084,7 @@
         <v>9932</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>87</v>
       </c>
@@ -13027,28 +13096,28 @@
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>

--- a/力扣做题情况.xlsx
+++ b/力扣做题情况.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20374"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C30027-7392-429E-9F76-A42E57C32346}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{223C4C9C-A6D9-468C-B648-94E417F9E66B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="16152" windowHeight="8508" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="604">
   <si>
     <t>种花问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2385,6 +2385,46 @@
   </si>
   <si>
     <t>二重循环/一重循环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前k个高频单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈希表&amp;排序/优先级队列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decltype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找出第K大的异或坐标值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二维前缀和&amp;排序/快速选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++STL库nth_element()选择第n大元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个月主要有关异或，最主要是学习异或性质。当然零碎的内容也很多，比如gcc的许多内置函数（尚未了解完），STL库学习了nth_element()</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3735,7 +3775,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>14</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -11876,8 +11916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C4189D3-F1C2-41D5-AFF0-50166F4BC652}">
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -11887,7 +11927,7 @@
     <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="58.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -12295,11 +12335,47 @@
       <c r="A20" s="13">
         <v>44335</v>
       </c>
+      <c r="B20">
+        <v>1738</v>
+      </c>
+      <c r="C20" t="s">
+        <v>599</v>
+      </c>
+      <c r="D20" t="s">
+        <v>595</v>
+      </c>
+      <c r="E20" t="s">
+        <v>596</v>
+      </c>
+      <c r="F20" t="s">
+        <v>600</v>
+      </c>
+      <c r="G20" t="s">
+        <v>601</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>44336</v>
       </c>
+      <c r="B21">
+        <v>692</v>
+      </c>
+      <c r="C21" t="s">
+        <v>594</v>
+      </c>
+      <c r="D21" t="s">
+        <v>595</v>
+      </c>
+      <c r="E21" t="s">
+        <v>596</v>
+      </c>
+      <c r="F21" t="s">
+        <v>597</v>
+      </c>
+      <c r="H21" t="s">
+        <v>598</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
@@ -12365,7 +12441,7 @@
       </c>
       <c r="B34">
         <f>COUNTIF(E2:E32,"自己做出")</f>
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -12401,17 +12477,18 @@
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="13"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="13"/>
-    </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="13"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="13"/>
+      <c r="A42" s="13" t="s">
+        <v>602</v>
+      </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="13"/>
+      <c r="A43" s="13" t="s">
+        <v>603</v>
+      </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="13"/>

--- a/力扣做题情况.xlsx
+++ b/力扣做题情况.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20374"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{223C4C9C-A6D9-468C-B648-94E417F9E66B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93644A9-7715-4BD7-B270-C80D7C55D4D7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16152" windowHeight="8508" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="21年1月" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="615">
   <si>
     <t>种花问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2425,6 +2425,50 @@
   </si>
   <si>
     <t>这个月主要有关异或，最主要是学习异或性质。当然零碎的内容也很多，比如gcc的许多内置函数（尚未了解完），STL库学习了nth_element()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不相交的线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看思路写出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑板异或游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>困难</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异或性质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与数组中元素的最大异或值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>困难</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CV后没看懂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典树</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3778,13 +3822,13 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8081,17 +8125,17 @@
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="52.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="52.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -8117,7 +8161,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>44197</v>
       </c>
@@ -8140,7 +8184,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="6">
         <v>44198</v>
       </c>
@@ -8166,7 +8210,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>44199</v>
       </c>
@@ -8183,7 +8227,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>44200</v>
       </c>
@@ -8200,7 +8244,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>44201</v>
       </c>
@@ -8217,7 +8261,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>44202</v>
       </c>
@@ -8243,7 +8287,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>44203</v>
       </c>
@@ -8269,7 +8313,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <v>44204</v>
       </c>
@@ -8289,7 +8333,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>44205</v>
       </c>
@@ -8312,7 +8356,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>44206</v>
       </c>
@@ -8329,7 +8373,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>44207</v>
       </c>
@@ -8355,7 +8399,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>44208</v>
       </c>
@@ -8378,7 +8422,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>44209</v>
       </c>
@@ -8401,7 +8445,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
         <v>44210</v>
       </c>
@@ -8418,7 +8462,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
         <v>44211</v>
       </c>
@@ -8441,7 +8485,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
         <v>44212</v>
       </c>
@@ -8464,7 +8508,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
         <v>44213</v>
       </c>
@@ -8484,7 +8528,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="6">
         <v>44214</v>
       </c>
@@ -8507,7 +8551,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="6">
         <v>44215</v>
       </c>
@@ -8530,7 +8574,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="6">
         <v>44216</v>
       </c>
@@ -8550,7 +8594,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="6">
         <v>44217</v>
       </c>
@@ -8576,7 +8620,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="6">
         <v>44218</v>
       </c>
@@ -8596,7 +8640,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="6">
         <v>44219</v>
       </c>
@@ -8616,7 +8660,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="6">
         <v>44220</v>
       </c>
@@ -8636,7 +8680,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="6">
         <v>44221</v>
       </c>
@@ -8656,7 +8700,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="6">
         <v>44222</v>
       </c>
@@ -8679,7 +8723,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="6">
         <v>44223</v>
       </c>
@@ -8699,7 +8743,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="6">
         <v>44224</v>
       </c>
@@ -8716,7 +8760,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="6">
         <v>44225</v>
       </c>
@@ -8742,7 +8786,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="6">
         <v>44226</v>
       </c>
@@ -8759,7 +8803,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="6">
         <v>44227</v>
       </c>
@@ -8779,10 +8823,10 @@
         <v>126</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>17</v>
       </c>
@@ -8791,7 +8835,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>18</v>
       </c>
@@ -8800,7 +8844,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>161</v>
       </c>
@@ -8809,7 +8853,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>159</v>
       </c>
@@ -8818,18 +8862,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="14" t="s">
         <v>127</v>
       </c>
@@ -8838,36 +8882,36 @@
       <c r="D41" s="14"/>
       <c r="E41" s="14"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="14"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
       <c r="D42" s="14"/>
       <c r="E42" s="14"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="14"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
       <c r="D43" s="14"/>
       <c r="E43" s="14"/>
     </row>
-    <row r="44" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="14"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>
       <c r="E44" s="14"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="15" t="s">
         <v>121</v>
       </c>
@@ -8876,96 +8920,96 @@
       <c r="D47" s="15"/>
       <c r="E47" s="15"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="15"/>
       <c r="B48" s="15"/>
       <c r="C48" s="15"/>
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" s="15"/>
       <c r="B49" s="15"/>
       <c r="C49" s="15"/>
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" s="15"/>
       <c r="B50" s="15"/>
       <c r="C50" s="15"/>
       <c r="D50" s="15"/>
       <c r="E50" s="15"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" s="1"/>
       <c r="B52" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="1"/>
     </row>
   </sheetData>
@@ -8999,16 +9043,16 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -9034,105 +9078,105 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>43831</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
         <v>12</v>
       </c>
@@ -9141,7 +9185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
         <v>18</v>
       </c>
@@ -9150,7 +9194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
         <v>161</v>
       </c>
@@ -9159,7 +9203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
         <v>159</v>
       </c>
@@ -9168,109 +9212,109 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="1"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="1"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="1"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="1"/>
     </row>
   </sheetData>
@@ -9299,16 +9343,16 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.88671875" customWidth="1"/>
-    <col min="6" max="6" width="43.77734375" customWidth="1"/>
-    <col min="7" max="7" width="38.77734375" customWidth="1"/>
+    <col min="2" max="2" width="33.375" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.875" customWidth="1"/>
+    <col min="6" max="6" width="43.75" customWidth="1"/>
+    <col min="7" max="7" width="38.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -9320,7 +9364,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -9343,7 +9387,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>324</v>
       </c>
@@ -9351,7 +9395,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>323</v>
       </c>
@@ -9361,28 +9405,28 @@
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
@@ -9418,17 +9462,17 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -9454,7 +9498,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>44228</v>
       </c>
@@ -9474,7 +9518,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="6">
         <v>44229</v>
       </c>
@@ -9494,7 +9538,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>44230</v>
       </c>
@@ -9520,7 +9564,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>44231</v>
       </c>
@@ -9540,7 +9584,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>44232</v>
       </c>
@@ -9560,7 +9604,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>44233</v>
       </c>
@@ -9583,7 +9627,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>44234</v>
       </c>
@@ -9603,7 +9647,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <v>44235</v>
       </c>
@@ -9623,7 +9667,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>44236</v>
       </c>
@@ -9643,7 +9687,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>44237</v>
       </c>
@@ -9663,7 +9707,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>44238</v>
       </c>
@@ -9686,7 +9730,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>44239</v>
       </c>
@@ -9703,7 +9747,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>44240</v>
       </c>
@@ -9726,7 +9770,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
         <v>44241</v>
       </c>
@@ -9749,7 +9793,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
         <v>44242</v>
       </c>
@@ -9766,7 +9810,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
         <v>44243</v>
       </c>
@@ -9783,7 +9827,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
         <v>44244</v>
       </c>
@@ -9806,7 +9850,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="6">
         <v>44245</v>
       </c>
@@ -9826,7 +9870,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="6">
         <v>44246</v>
       </c>
@@ -9843,7 +9887,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="6">
         <v>44247</v>
       </c>
@@ -9863,7 +9907,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="6">
         <v>44248</v>
       </c>
@@ -9883,7 +9927,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="6">
         <v>44249</v>
       </c>
@@ -9900,7 +9944,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="6">
         <v>44250</v>
       </c>
@@ -9918,7 +9962,7 @@
       </c>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="6">
         <v>44251</v>
       </c>
@@ -9935,7 +9979,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="6">
         <v>44252</v>
       </c>
@@ -9952,7 +9996,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="6">
         <v>44253</v>
       </c>
@@ -9978,7 +10022,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="6">
         <v>44254</v>
       </c>
@@ -10001,7 +10045,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="6">
         <v>44255</v>
       </c>
@@ -10021,19 +10065,19 @@
         <v>154</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="2"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
         <v>12</v>
       </c>
@@ -10042,7 +10086,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
         <v>18</v>
       </c>
@@ -10051,7 +10095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
         <v>161</v>
       </c>
@@ -10060,7 +10104,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
         <v>159</v>
       </c>
@@ -10069,18 +10113,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="16" t="s">
         <v>225</v>
       </c>
@@ -10089,105 +10133,105 @@
       <c r="D41" s="16"/>
       <c r="E41" s="16"/>
     </row>
-    <row r="42" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="16"/>
       <c r="B42" s="16"/>
       <c r="C42" s="16"/>
       <c r="D42" s="16"/>
       <c r="E42" s="16"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="1"/>
     </row>
   </sheetData>
@@ -10220,17 +10264,17 @@
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -10256,7 +10300,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="7">
         <v>44256</v>
       </c>
@@ -10279,7 +10323,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="7">
         <v>44257</v>
       </c>
@@ -10302,7 +10346,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
         <v>44258</v>
       </c>
@@ -10328,7 +10372,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
         <v>44259</v>
       </c>
@@ -10351,7 +10395,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
         <v>44260</v>
       </c>
@@ -10371,7 +10415,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
         <v>44261</v>
       </c>
@@ -10391,7 +10435,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="7">
         <v>44262</v>
       </c>
@@ -10414,7 +10458,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
         <v>44263</v>
       </c>
@@ -10434,7 +10478,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
         <v>44264</v>
       </c>
@@ -10454,7 +10498,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
         <v>44265</v>
       </c>
@@ -10474,7 +10518,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="7">
         <v>44266</v>
       </c>
@@ -10494,7 +10538,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
         <v>44267</v>
       </c>
@@ -10514,7 +10558,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="7">
         <v>44268</v>
       </c>
@@ -10537,7 +10581,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="7">
         <v>44269</v>
       </c>
@@ -10560,7 +10604,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="7">
         <v>44270</v>
       </c>
@@ -10577,7 +10621,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="7">
         <v>44271</v>
       </c>
@@ -10594,7 +10638,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="7">
         <v>44272</v>
       </c>
@@ -10614,7 +10658,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="7">
         <v>44273</v>
       </c>
@@ -10634,7 +10678,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="7">
         <v>44274</v>
       </c>
@@ -10651,7 +10695,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="7">
         <v>44275</v>
       </c>
@@ -10671,7 +10715,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="7">
         <v>44276</v>
       </c>
@@ -10688,7 +10732,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="7">
         <v>44277</v>
       </c>
@@ -10708,7 +10752,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="7">
         <v>44278</v>
       </c>
@@ -10728,7 +10772,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="7">
         <v>44279</v>
       </c>
@@ -10748,7 +10792,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="7">
         <v>44280</v>
       </c>
@@ -10768,7 +10812,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="7">
         <v>44281</v>
       </c>
@@ -10788,7 +10832,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="7">
         <v>44282</v>
       </c>
@@ -10808,7 +10852,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="7">
         <v>44283</v>
       </c>
@@ -10828,7 +10872,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="7">
         <v>44284</v>
       </c>
@@ -10851,7 +10895,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="7">
         <v>44285</v>
       </c>
@@ -10874,7 +10918,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="7">
         <v>44286</v>
       </c>
@@ -10894,10 +10938,10 @@
         <v>381</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="7"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="7" t="s">
         <v>12</v>
       </c>
@@ -10906,7 +10950,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="7" t="s">
         <v>18</v>
       </c>
@@ -10915,7 +10959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="7" t="s">
         <v>161</v>
       </c>
@@ -10924,7 +10968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="7" t="s">
         <v>159</v>
       </c>
@@ -10933,113 +10977,113 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="7"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="7"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="7"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="7"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="7" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="7" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="7"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="7"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="7"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="7"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="7"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="7"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="7"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="7"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="7"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="7"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="7"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="7"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="7"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="7"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="7"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="7"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="7"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="7"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="7"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="7"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="7"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="7"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="7"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="7"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="7"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="7"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="7"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="7"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="7"/>
     </row>
   </sheetData>
@@ -11069,18 +11113,18 @@
       <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="66.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="52.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="66.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="52.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -11106,7 +11150,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="11">
         <v>44287</v>
       </c>
@@ -11126,7 +11170,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="11">
         <v>44288</v>
       </c>
@@ -11146,7 +11190,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="11">
         <v>44289</v>
       </c>
@@ -11166,7 +11210,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="11">
         <v>44290</v>
       </c>
@@ -11186,7 +11230,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="11">
         <v>44291</v>
       </c>
@@ -11206,7 +11250,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="11">
         <v>44292</v>
       </c>
@@ -11226,7 +11270,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="11">
         <v>44293</v>
       </c>
@@ -11249,7 +11293,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="11">
         <v>44294</v>
       </c>
@@ -11269,7 +11313,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="11">
         <v>44295</v>
       </c>
@@ -11289,7 +11333,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="11">
         <v>44296</v>
       </c>
@@ -11306,7 +11350,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="11">
         <v>44297</v>
       </c>
@@ -11329,7 +11373,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="11">
         <v>44298</v>
       </c>
@@ -11352,7 +11396,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="11">
         <v>44299</v>
       </c>
@@ -11372,7 +11416,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="11">
         <v>44300</v>
       </c>
@@ -11392,7 +11436,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="11">
         <v>44301</v>
       </c>
@@ -11412,7 +11456,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="11">
         <v>44302</v>
       </c>
@@ -11435,7 +11479,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="11">
         <v>44303</v>
       </c>
@@ -11461,7 +11505,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="11">
         <v>44304</v>
       </c>
@@ -11481,7 +11525,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="11">
         <v>44305</v>
       </c>
@@ -11504,7 +11548,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="11">
         <v>44306</v>
       </c>
@@ -11527,7 +11571,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="11">
         <v>44307</v>
       </c>
@@ -11550,7 +11594,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="11">
         <v>44308</v>
       </c>
@@ -11576,7 +11620,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="11">
         <v>44309</v>
       </c>
@@ -11596,7 +11640,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="11">
         <v>44310</v>
       </c>
@@ -11616,7 +11660,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="11">
         <v>44311</v>
       </c>
@@ -11636,7 +11680,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="11">
         <v>44312</v>
       </c>
@@ -11656,7 +11700,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="11">
         <v>44313</v>
       </c>
@@ -11676,7 +11720,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="11">
         <v>44314</v>
       </c>
@@ -11699,7 +11743,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="11">
         <v>44315</v>
       </c>
@@ -11719,7 +11763,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="11">
         <v>44316</v>
       </c>
@@ -11742,13 +11786,13 @@
         <v>523</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="11"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="11"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="11" t="s">
         <v>12</v>
       </c>
@@ -11757,7 +11801,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="11" t="s">
         <v>18</v>
       </c>
@@ -11766,7 +11810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="11" t="s">
         <v>161</v>
       </c>
@@ -11775,7 +11819,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="11" t="s">
         <v>159</v>
       </c>
@@ -11784,113 +11828,113 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="11"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="11"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="11"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="11"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="11" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="11" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="11"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="11"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="11"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="11"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="11"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="11"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="11"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="11"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="11"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="11"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="11"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="11"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="11"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="11"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="11"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="11"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="11"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="11"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="11"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="11"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="11"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="11"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="11"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="11"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="11"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="11"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="11"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="11"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="11"/>
     </row>
   </sheetData>
@@ -11917,20 +11961,20 @@
   <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="58.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="58.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -11956,7 +12000,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="13">
         <v>44317</v>
       </c>
@@ -11976,7 +12020,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="13">
         <v>44318</v>
       </c>
@@ -11996,7 +12040,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="13">
         <v>44319</v>
       </c>
@@ -12016,7 +12060,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="13">
         <v>44320</v>
       </c>
@@ -12039,7 +12083,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="13">
         <v>44321</v>
       </c>
@@ -12059,7 +12103,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="13">
         <v>44322</v>
       </c>
@@ -12079,7 +12123,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="13">
         <v>44323</v>
       </c>
@@ -12102,7 +12146,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="13">
         <v>44324</v>
       </c>
@@ -12122,7 +12166,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="13">
         <v>44325</v>
       </c>
@@ -12142,7 +12186,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="13">
         <v>44326</v>
       </c>
@@ -12162,7 +12206,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="13">
         <v>44327</v>
       </c>
@@ -12185,7 +12229,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="13">
         <v>44328</v>
       </c>
@@ -12205,7 +12249,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="13">
         <v>44329</v>
       </c>
@@ -12225,7 +12269,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="13">
         <v>44330</v>
       </c>
@@ -12245,7 +12289,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="13">
         <v>44331</v>
       </c>
@@ -12262,7 +12306,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="13">
         <v>44332</v>
       </c>
@@ -12288,7 +12332,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="13">
         <v>44333</v>
       </c>
@@ -12308,7 +12352,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="13">
         <v>44334</v>
       </c>
@@ -12331,7 +12375,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="13">
         <v>44335</v>
       </c>
@@ -12354,7 +12398,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="13">
         <v>44336</v>
       </c>
@@ -12377,65 +12421,110 @@
         <v>598</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="13">
         <v>44337</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>1035</v>
+      </c>
+      <c r="C22" t="s">
+        <v>604</v>
+      </c>
+      <c r="D22" t="s">
+        <v>605</v>
+      </c>
+      <c r="E22" t="s">
+        <v>606</v>
+      </c>
+      <c r="F22" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="13">
         <v>44338</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>810</v>
+      </c>
+      <c r="C23" t="s">
+        <v>608</v>
+      </c>
+      <c r="D23" t="s">
+        <v>609</v>
+      </c>
+      <c r="E23" t="s">
+        <v>158</v>
+      </c>
+      <c r="F23" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="13">
         <v>44339</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>1707</v>
+      </c>
+      <c r="C24" t="s">
+        <v>611</v>
+      </c>
+      <c r="D24" t="s">
+        <v>612</v>
+      </c>
+      <c r="E24" t="s">
+        <v>613</v>
+      </c>
+      <c r="F24" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="13">
         <v>44340</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="13">
         <v>44341</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="13">
         <v>44342</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="13">
         <v>44343</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="13">
         <v>44344</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="13">
         <v>44345</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="13">
         <v>44346</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="13">
         <v>44347</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="13"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="13" t="s">
         <v>12</v>
       </c>
@@ -12444,16 +12533,16 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="13" t="s">
         <v>18</v>
       </c>
       <c r="B35">
         <f>COUNTIF(E2:E32,"看思路写出")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="13" t="s">
         <v>161</v>
       </c>
@@ -12462,119 +12551,119 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="13" t="s">
         <v>159</v>
       </c>
       <c r="B37">
         <f>COUNTIF(E2:E32,"CV后没看懂")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="13"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="13"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="13"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="13" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="13" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="13"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="13"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="13"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="13"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="13"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="13"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="13"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="13"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="13"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="13"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="13"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="13"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="13"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="13"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="13"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="13"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="13"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="13"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="13"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="13"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="13"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="13"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="13"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="13"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="13"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="13"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="13"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="13"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="13"/>
     </row>
   </sheetData>
@@ -12604,7 +12693,7 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12619,16 +12708,16 @@
       <selection activeCell="B14" sqref="B14:F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.88671875" customWidth="1"/>
-    <col min="6" max="6" width="43.77734375" customWidth="1"/>
-    <col min="7" max="7" width="38.77734375" customWidth="1"/>
+    <col min="2" max="2" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.875" customWidth="1"/>
+    <col min="6" max="6" width="43.75" customWidth="1"/>
+    <col min="7" max="7" width="38.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -12642,7 +12731,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -12665,7 +12754,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1800</v>
       </c>
@@ -12679,7 +12768,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1801</v>
       </c>
@@ -12696,7 +12785,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>1802</v>
       </c>
@@ -12716,7 +12805,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>1803</v>
       </c>
@@ -12733,7 +12822,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>324</v>
       </c>
@@ -12747,7 +12836,7 @@
         <v>5009</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>323</v>
       </c>
@@ -12759,28 +12848,28 @@
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
@@ -12816,16 +12905,16 @@
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.88671875" customWidth="1"/>
-    <col min="6" max="6" width="43.77734375" customWidth="1"/>
-    <col min="7" max="7" width="38.77734375" customWidth="1"/>
+    <col min="2" max="2" width="33.375" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.875" customWidth="1"/>
+    <col min="6" max="6" width="43.75" customWidth="1"/>
+    <col min="7" max="7" width="38.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -12839,7 +12928,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -12862,7 +12951,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>5713</v>
       </c>
@@ -12882,7 +12971,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>5715</v>
       </c>
@@ -12899,7 +12988,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5714</v>
       </c>
@@ -12916,7 +13005,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5716</v>
       </c>
@@ -12933,7 +13022,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>324</v>
       </c>
@@ -12947,7 +13036,7 @@
         <v>4996</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>87</v>
       </c>
@@ -12959,28 +13048,28 @@
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
@@ -13016,16 +13105,16 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.88671875" customWidth="1"/>
-    <col min="6" max="6" width="43.77734375" customWidth="1"/>
-    <col min="7" max="7" width="38.77734375" customWidth="1"/>
+    <col min="2" max="2" width="33.375" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.875" customWidth="1"/>
+    <col min="6" max="6" width="43.75" customWidth="1"/>
+    <col min="7" max="7" width="38.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -13039,7 +13128,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -13062,7 +13151,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>400</v>
       </c>
@@ -13079,7 +13168,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>401</v>
       </c>
@@ -13096,7 +13185,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>402</v>
       </c>
@@ -13113,7 +13202,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>403</v>
       </c>
@@ -13130,7 +13219,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>404</v>
       </c>
@@ -13147,7 +13236,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>324</v>
       </c>
@@ -13161,7 +13250,7 @@
         <v>9932</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>87</v>
       </c>
@@ -13173,28 +13262,28 @@
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>

--- a/力扣做题情况.xlsx
+++ b/力扣做题情况.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20374"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93644A9-7715-4BD7-B270-C80D7C55D4D7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B065B47C-EA17-4D9A-BACF-6225436B8EBD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="16152" windowHeight="8508" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="21年1月" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="632">
   <si>
     <t>种花问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2469,6 +2469,86 @@
   </si>
   <si>
     <t>字典树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇怪的打印机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>困难</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CV后没看懂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使所有区间的异或结果为零</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>困难</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CV后没看懂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反转每对括号间的子串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方法3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉明距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Brian Kernighan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>算法：通过循环计算x&amp;(x-1)，循环次数即为x中1的个数</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2476,7 +2556,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2500,6 +2580,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3819,7 +3906,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>16</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
@@ -3828,7 +3915,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8125,17 +8212,17 @@
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="52.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="52.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -8161,7 +8248,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44197</v>
       </c>
@@ -8184,7 +8271,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>44198</v>
       </c>
@@ -8210,7 +8297,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>44199</v>
       </c>
@@ -8227,7 +8314,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>44200</v>
       </c>
@@ -8244,7 +8331,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>44201</v>
       </c>
@@ -8261,7 +8348,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>44202</v>
       </c>
@@ -8287,7 +8374,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>44203</v>
       </c>
@@ -8313,7 +8400,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>44204</v>
       </c>
@@ -8333,7 +8420,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>44205</v>
       </c>
@@ -8356,7 +8443,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>44206</v>
       </c>
@@ -8373,7 +8460,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>44207</v>
       </c>
@@ -8399,7 +8486,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>44208</v>
       </c>
@@ -8422,7 +8509,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>44209</v>
       </c>
@@ -8445,7 +8532,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>44210</v>
       </c>
@@ -8462,7 +8549,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>44211</v>
       </c>
@@ -8485,7 +8572,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>44212</v>
       </c>
@@ -8508,7 +8595,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>44213</v>
       </c>
@@ -8528,7 +8615,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>44214</v>
       </c>
@@ -8551,7 +8638,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>44215</v>
       </c>
@@ -8574,7 +8661,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>44216</v>
       </c>
@@ -8594,7 +8681,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>44217</v>
       </c>
@@ -8620,7 +8707,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>44218</v>
       </c>
@@ -8640,7 +8727,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>44219</v>
       </c>
@@ -8660,7 +8747,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>44220</v>
       </c>
@@ -8680,7 +8767,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>44221</v>
       </c>
@@ -8700,7 +8787,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>44222</v>
       </c>
@@ -8723,7 +8810,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>44223</v>
       </c>
@@ -8743,7 +8830,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>44224</v>
       </c>
@@ -8760,7 +8847,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>44225</v>
       </c>
@@ -8786,7 +8873,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>44226</v>
       </c>
@@ -8803,7 +8890,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>44227</v>
       </c>
@@ -8823,10 +8910,10 @@
         <v>126</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>17</v>
       </c>
@@ -8835,7 +8922,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>18</v>
       </c>
@@ -8844,7 +8931,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>161</v>
       </c>
@@ -8853,7 +8940,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>159</v>
       </c>
@@ -8862,18 +8949,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
         <v>127</v>
       </c>
@@ -8882,36 +8969,36 @@
       <c r="D41" s="14"/>
       <c r="E41" s="14"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="14"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
       <c r="D42" s="14"/>
       <c r="E42" s="14"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="14"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
       <c r="D43" s="14"/>
       <c r="E43" s="14"/>
     </row>
-    <row r="44" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="14"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>
       <c r="E44" s="14"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
         <v>121</v>
       </c>
@@ -8920,96 +9007,96 @@
       <c r="D47" s="15"/>
       <c r="E47" s="15"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="15"/>
       <c r="B48" s="15"/>
       <c r="C48" s="15"/>
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="15"/>
       <c r="B49" s="15"/>
       <c r="C49" s="15"/>
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="15"/>
       <c r="B50" s="15"/>
       <c r="C50" s="15"/>
       <c r="D50" s="15"/>
       <c r="E50" s="15"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
     </row>
   </sheetData>
@@ -9043,16 +9130,16 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -9078,105 +9165,105 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43831</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>12</v>
       </c>
@@ -9185,7 +9272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>18</v>
       </c>
@@ -9194,7 +9281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>161</v>
       </c>
@@ -9203,7 +9290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>159</v>
       </c>
@@ -9212,109 +9299,109 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
     </row>
   </sheetData>
@@ -9343,16 +9430,16 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.375" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.875" customWidth="1"/>
-    <col min="6" max="6" width="43.75" customWidth="1"/>
-    <col min="7" max="7" width="38.75" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.88671875" customWidth="1"/>
+    <col min="6" max="6" width="43.77734375" customWidth="1"/>
+    <col min="7" max="7" width="38.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -9364,7 +9451,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -9387,7 +9474,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>324</v>
       </c>
@@ -9395,7 +9482,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>323</v>
       </c>
@@ -9405,28 +9492,28 @@
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
@@ -9462,17 +9549,17 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -9498,7 +9585,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44228</v>
       </c>
@@ -9518,7 +9605,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>44229</v>
       </c>
@@ -9538,7 +9625,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>44230</v>
       </c>
@@ -9564,7 +9651,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>44231</v>
       </c>
@@ -9584,7 +9671,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>44232</v>
       </c>
@@ -9604,7 +9691,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>44233</v>
       </c>
@@ -9627,7 +9714,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>44234</v>
       </c>
@@ -9647,7 +9734,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>44235</v>
       </c>
@@ -9667,7 +9754,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>44236</v>
       </c>
@@ -9687,7 +9774,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>44237</v>
       </c>
@@ -9707,7 +9794,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>44238</v>
       </c>
@@ -9730,7 +9817,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>44239</v>
       </c>
@@ -9747,7 +9834,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>44240</v>
       </c>
@@ -9770,7 +9857,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>44241</v>
       </c>
@@ -9793,7 +9880,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>44242</v>
       </c>
@@ -9810,7 +9897,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>44243</v>
       </c>
@@ -9827,7 +9914,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>44244</v>
       </c>
@@ -9850,7 +9937,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>44245</v>
       </c>
@@ -9870,7 +9957,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>44246</v>
       </c>
@@ -9887,7 +9974,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>44247</v>
       </c>
@@ -9907,7 +9994,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>44248</v>
       </c>
@@ -9927,7 +10014,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>44249</v>
       </c>
@@ -9944,7 +10031,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>44250</v>
       </c>
@@ -9962,7 +10049,7 @@
       </c>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>44251</v>
       </c>
@@ -9979,7 +10066,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>44252</v>
       </c>
@@ -9996,7 +10083,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>44253</v>
       </c>
@@ -10022,7 +10109,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>44254</v>
       </c>
@@ -10045,7 +10132,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>44255</v>
       </c>
@@ -10065,19 +10152,19 @@
         <v>154</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>12</v>
       </c>
@@ -10086,7 +10173,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>18</v>
       </c>
@@ -10095,7 +10182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>161</v>
       </c>
@@ -10104,7 +10191,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>159</v>
       </c>
@@ -10113,18 +10200,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
         <v>225</v>
       </c>
@@ -10133,105 +10220,105 @@
       <c r="D41" s="16"/>
       <c r="E41" s="16"/>
     </row>
-    <row r="42" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="16"/>
       <c r="B42" s="16"/>
       <c r="C42" s="16"/>
       <c r="D42" s="16"/>
       <c r="E42" s="16"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
     </row>
   </sheetData>
@@ -10264,17 +10351,17 @@
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -10300,7 +10387,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>44256</v>
       </c>
@@ -10323,7 +10410,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>44257</v>
       </c>
@@ -10346,7 +10433,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>44258</v>
       </c>
@@ -10372,7 +10459,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>44259</v>
       </c>
@@ -10395,7 +10482,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>44260</v>
       </c>
@@ -10415,7 +10502,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>44261</v>
       </c>
@@ -10435,7 +10522,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>44262</v>
       </c>
@@ -10458,7 +10545,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>44263</v>
       </c>
@@ -10478,7 +10565,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>44264</v>
       </c>
@@ -10498,7 +10585,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>44265</v>
       </c>
@@ -10518,7 +10605,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>44266</v>
       </c>
@@ -10538,7 +10625,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>44267</v>
       </c>
@@ -10558,7 +10645,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>44268</v>
       </c>
@@ -10581,7 +10668,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>44269</v>
       </c>
@@ -10604,7 +10691,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>44270</v>
       </c>
@@ -10621,7 +10708,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>44271</v>
       </c>
@@ -10638,7 +10725,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>44272</v>
       </c>
@@ -10658,7 +10745,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>44273</v>
       </c>
@@ -10678,7 +10765,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>44274</v>
       </c>
@@ -10695,7 +10782,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>44275</v>
       </c>
@@ -10715,7 +10802,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>44276</v>
       </c>
@@ -10732,7 +10819,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>44277</v>
       </c>
@@ -10752,7 +10839,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>44278</v>
       </c>
@@ -10772,7 +10859,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>44279</v>
       </c>
@@ -10792,7 +10879,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>44280</v>
       </c>
@@ -10812,7 +10899,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>44281</v>
       </c>
@@ -10832,7 +10919,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>44282</v>
       </c>
@@ -10852,7 +10939,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>44283</v>
       </c>
@@ -10872,7 +10959,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>44284</v>
       </c>
@@ -10895,7 +10982,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>44285</v>
       </c>
@@ -10918,7 +11005,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>44286</v>
       </c>
@@ -10938,10 +11025,10 @@
         <v>381</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>12</v>
       </c>
@@ -10950,7 +11037,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>18</v>
       </c>
@@ -10959,7 +11046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>161</v>
       </c>
@@ -10968,7 +11055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>159</v>
       </c>
@@ -10977,113 +11064,113 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="7"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="7"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="7"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="7"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="7"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="7"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="7"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="7"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="7"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="7"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="7"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="7"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="7"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="7"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="7"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="7"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="7"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="7"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="7"/>
     </row>
   </sheetData>
@@ -11113,18 +11200,18 @@
       <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="66.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="52.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="66.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="52.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -11150,7 +11237,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>44287</v>
       </c>
@@ -11170,7 +11257,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>44288</v>
       </c>
@@ -11190,7 +11277,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>44289</v>
       </c>
@@ -11210,7 +11297,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>44290</v>
       </c>
@@ -11230,7 +11317,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>44291</v>
       </c>
@@ -11250,7 +11337,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>44292</v>
       </c>
@@ -11270,7 +11357,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>44293</v>
       </c>
@@ -11293,7 +11380,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>44294</v>
       </c>
@@ -11313,7 +11400,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>44295</v>
       </c>
@@ -11333,7 +11420,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>44296</v>
       </c>
@@ -11350,7 +11437,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>44297</v>
       </c>
@@ -11373,7 +11460,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>44298</v>
       </c>
@@ -11396,7 +11483,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>44299</v>
       </c>
@@ -11416,7 +11503,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>44300</v>
       </c>
@@ -11436,7 +11523,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>44301</v>
       </c>
@@ -11456,7 +11543,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>44302</v>
       </c>
@@ -11479,7 +11566,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>44303</v>
       </c>
@@ -11505,7 +11592,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>44304</v>
       </c>
@@ -11525,7 +11612,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>44305</v>
       </c>
@@ -11548,7 +11635,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>44306</v>
       </c>
@@ -11571,7 +11658,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>44307</v>
       </c>
@@ -11594,7 +11681,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>44308</v>
       </c>
@@ -11620,7 +11707,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>44309</v>
       </c>
@@ -11640,7 +11727,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>44310</v>
       </c>
@@ -11660,7 +11747,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>44311</v>
       </c>
@@ -11680,7 +11767,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>44312</v>
       </c>
@@ -11700,7 +11787,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>44313</v>
       </c>
@@ -11720,7 +11807,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>44314</v>
       </c>
@@ -11743,7 +11830,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>44315</v>
       </c>
@@ -11763,7 +11850,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>44316</v>
       </c>
@@ -11786,13 +11873,13 @@
         <v>523</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>12</v>
       </c>
@@ -11801,7 +11888,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>18</v>
       </c>
@@ -11810,7 +11897,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>161</v>
       </c>
@@ -11819,7 +11906,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>159</v>
       </c>
@@ -11828,113 +11915,113 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="11"/>
     </row>
   </sheetData>
@@ -11961,20 +12048,20 @@
   <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="58.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="69.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -12000,7 +12087,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
         <v>44317</v>
       </c>
@@ -12020,7 +12107,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>44318</v>
       </c>
@@ -12040,7 +12127,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>44319</v>
       </c>
@@ -12060,7 +12147,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>44320</v>
       </c>
@@ -12083,7 +12170,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>44321</v>
       </c>
@@ -12103,7 +12190,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>44322</v>
       </c>
@@ -12123,7 +12210,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>44323</v>
       </c>
@@ -12146,7 +12233,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>44324</v>
       </c>
@@ -12166,7 +12253,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>44325</v>
       </c>
@@ -12186,7 +12273,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>44326</v>
       </c>
@@ -12206,7 +12293,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>44327</v>
       </c>
@@ -12229,7 +12316,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>44328</v>
       </c>
@@ -12249,7 +12336,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>44329</v>
       </c>
@@ -12269,7 +12356,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>44330</v>
       </c>
@@ -12289,7 +12376,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>44331</v>
       </c>
@@ -12306,7 +12393,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>44332</v>
       </c>
@@ -12332,7 +12419,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>44333</v>
       </c>
@@ -12352,7 +12439,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>44334</v>
       </c>
@@ -12375,7 +12462,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>44335</v>
       </c>
@@ -12398,7 +12485,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>44336</v>
       </c>
@@ -12421,7 +12508,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
         <v>44337</v>
       </c>
@@ -12441,7 +12528,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>44338</v>
       </c>
@@ -12461,7 +12548,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>44339</v>
       </c>
@@ -12481,59 +12568,122 @@
         <v>614</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <v>44340</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B25">
+        <v>664</v>
+      </c>
+      <c r="C25" t="s">
+        <v>615</v>
+      </c>
+      <c r="D25" t="s">
+        <v>616</v>
+      </c>
+      <c r="E25" t="s">
+        <v>617</v>
+      </c>
+      <c r="F25" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <v>44341</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B26">
+        <v>1787</v>
+      </c>
+      <c r="C26" t="s">
+        <v>619</v>
+      </c>
+      <c r="D26" t="s">
+        <v>620</v>
+      </c>
+      <c r="E26" t="s">
+        <v>621</v>
+      </c>
+      <c r="F26" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>44342</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B27">
+        <v>1190</v>
+      </c>
+      <c r="C27" t="s">
+        <v>623</v>
+      </c>
+      <c r="D27" t="s">
+        <v>624</v>
+      </c>
+      <c r="E27" t="s">
+        <v>625</v>
+      </c>
+      <c r="F27" t="s">
+        <v>626</v>
+      </c>
+      <c r="H27" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <v>44343</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B28">
+        <v>461</v>
+      </c>
+      <c r="C28" t="s">
+        <v>628</v>
+      </c>
+      <c r="D28" t="s">
+        <v>629</v>
+      </c>
+      <c r="E28" t="s">
+        <v>630</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
         <v>44344</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
         <v>44345</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
         <v>44346</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
         <v>44347</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>12</v>
       </c>
       <c r="B34">
         <f>COUNTIF(E2:E32,"自己做出")</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>18</v>
       </c>
@@ -12542,7 +12692,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>161</v>
       </c>
@@ -12551,119 +12701,119 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>159</v>
       </c>
       <c r="B37">
         <f>COUNTIF(E2:E32,"CV后没看懂")</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="13"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="13"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="13"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="13"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="13"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="13"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="13"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="13"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="13"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="13"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="13"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="13"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="13"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="13"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="13"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="13"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="13"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="13"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="13"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="13"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="13"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="13"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="13"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="13"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="13"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="13"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="13"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="13"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="13"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="13"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="13"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="13"/>
     </row>
   </sheetData>
@@ -12693,7 +12843,7 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12708,16 +12858,16 @@
       <selection activeCell="B14" sqref="B14:F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.875" customWidth="1"/>
-    <col min="6" max="6" width="43.75" customWidth="1"/>
-    <col min="7" max="7" width="38.75" customWidth="1"/>
+    <col min="2" max="2" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.88671875" customWidth="1"/>
+    <col min="6" max="6" width="43.77734375" customWidth="1"/>
+    <col min="7" max="7" width="38.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -12731,7 +12881,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -12754,7 +12904,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1800</v>
       </c>
@@ -12768,7 +12918,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1801</v>
       </c>
@@ -12785,7 +12935,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1802</v>
       </c>
@@ -12805,7 +12955,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1803</v>
       </c>
@@ -12822,7 +12972,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>324</v>
       </c>
@@ -12836,7 +12986,7 @@
         <v>5009</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>323</v>
       </c>
@@ -12848,28 +12998,28 @@
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
@@ -12905,16 +13055,16 @@
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.375" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.875" customWidth="1"/>
-    <col min="6" max="6" width="43.75" customWidth="1"/>
-    <col min="7" max="7" width="38.75" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.88671875" customWidth="1"/>
+    <col min="6" max="6" width="43.77734375" customWidth="1"/>
+    <col min="7" max="7" width="38.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -12928,7 +13078,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -12951,7 +13101,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5713</v>
       </c>
@@ -12971,7 +13121,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5715</v>
       </c>
@@ -12988,7 +13138,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5714</v>
       </c>
@@ -13005,7 +13155,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5716</v>
       </c>
@@ -13022,7 +13172,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>324</v>
       </c>
@@ -13036,7 +13186,7 @@
         <v>4996</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>87</v>
       </c>
@@ -13048,28 +13198,28 @@
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
@@ -13105,16 +13255,16 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.375" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.875" customWidth="1"/>
-    <col min="6" max="6" width="43.75" customWidth="1"/>
-    <col min="7" max="7" width="38.75" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.88671875" customWidth="1"/>
+    <col min="6" max="6" width="43.77734375" customWidth="1"/>
+    <col min="7" max="7" width="38.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -13128,7 +13278,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -13151,7 +13301,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>400</v>
       </c>
@@ -13168,7 +13318,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>401</v>
       </c>
@@ -13185,7 +13335,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>402</v>
       </c>
@@ -13202,7 +13352,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>403</v>
       </c>
@@ -13219,7 +13369,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>404</v>
       </c>
@@ -13236,7 +13386,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>324</v>
       </c>
@@ -13250,7 +13400,7 @@
         <v>9932</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>87</v>
       </c>
@@ -13262,28 +13412,28 @@
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>

--- a/力扣做题情况.xlsx
+++ b/力扣做题情况.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20374"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B065B47C-EA17-4D9A-BACF-6225436B8EBD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC7B594-3677-4842-9FDB-E7EFA6E6986E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16152" windowHeight="8508" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="21年1月" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="643">
   <si>
     <t>种花问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2549,6 +2549,50 @@
       </rPr>
       <t>算法：通过循环计算x&amp;(x-1)，循环次数即为x中1的个数</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉明距离总和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素值为目标值得子矩阵数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>困难</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CV后看懂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2的幂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位运算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断2的幂n&amp;(n-1)==0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3906,13 +3950,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>18</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>6</c:v>
@@ -8212,17 +8256,17 @@
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="52.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="52.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -8248,7 +8292,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>44197</v>
       </c>
@@ -8271,7 +8315,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="6">
         <v>44198</v>
       </c>
@@ -8297,7 +8341,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>44199</v>
       </c>
@@ -8314,7 +8358,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>44200</v>
       </c>
@@ -8331,7 +8375,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>44201</v>
       </c>
@@ -8348,7 +8392,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>44202</v>
       </c>
@@ -8374,7 +8418,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>44203</v>
       </c>
@@ -8400,7 +8444,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <v>44204</v>
       </c>
@@ -8420,7 +8464,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>44205</v>
       </c>
@@ -8443,7 +8487,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>44206</v>
       </c>
@@ -8460,7 +8504,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>44207</v>
       </c>
@@ -8486,7 +8530,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>44208</v>
       </c>
@@ -8509,7 +8553,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>44209</v>
       </c>
@@ -8532,7 +8576,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
         <v>44210</v>
       </c>
@@ -8549,7 +8593,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
         <v>44211</v>
       </c>
@@ -8572,7 +8616,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
         <v>44212</v>
       </c>
@@ -8595,7 +8639,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
         <v>44213</v>
       </c>
@@ -8615,7 +8659,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="6">
         <v>44214</v>
       </c>
@@ -8638,7 +8682,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="6">
         <v>44215</v>
       </c>
@@ -8661,7 +8705,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="6">
         <v>44216</v>
       </c>
@@ -8681,7 +8725,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="6">
         <v>44217</v>
       </c>
@@ -8707,7 +8751,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="6">
         <v>44218</v>
       </c>
@@ -8727,7 +8771,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="6">
         <v>44219</v>
       </c>
@@ -8747,7 +8791,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="6">
         <v>44220</v>
       </c>
@@ -8767,7 +8811,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="6">
         <v>44221</v>
       </c>
@@ -8787,7 +8831,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="6">
         <v>44222</v>
       </c>
@@ -8810,7 +8854,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="6">
         <v>44223</v>
       </c>
@@ -8830,7 +8874,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="6">
         <v>44224</v>
       </c>
@@ -8847,7 +8891,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="6">
         <v>44225</v>
       </c>
@@ -8873,7 +8917,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="6">
         <v>44226</v>
       </c>
@@ -8890,7 +8934,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="6">
         <v>44227</v>
       </c>
@@ -8910,10 +8954,10 @@
         <v>126</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>17</v>
       </c>
@@ -8922,7 +8966,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>18</v>
       </c>
@@ -8931,7 +8975,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>161</v>
       </c>
@@ -8940,7 +8984,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>159</v>
       </c>
@@ -8949,18 +8993,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="14" t="s">
         <v>127</v>
       </c>
@@ -8969,36 +9013,36 @@
       <c r="D41" s="14"/>
       <c r="E41" s="14"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="14"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
       <c r="D42" s="14"/>
       <c r="E42" s="14"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="14"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
       <c r="D43" s="14"/>
       <c r="E43" s="14"/>
     </row>
-    <row r="44" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="14"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>
       <c r="E44" s="14"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="15" t="s">
         <v>121</v>
       </c>
@@ -9007,96 +9051,96 @@
       <c r="D47" s="15"/>
       <c r="E47" s="15"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="15"/>
       <c r="B48" s="15"/>
       <c r="C48" s="15"/>
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" s="15"/>
       <c r="B49" s="15"/>
       <c r="C49" s="15"/>
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" s="15"/>
       <c r="B50" s="15"/>
       <c r="C50" s="15"/>
       <c r="D50" s="15"/>
       <c r="E50" s="15"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" s="1"/>
       <c r="B52" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="1"/>
     </row>
   </sheetData>
@@ -9130,16 +9174,16 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -9165,105 +9209,105 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>43831</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
         <v>12</v>
       </c>
@@ -9272,7 +9316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
         <v>18</v>
       </c>
@@ -9281,7 +9325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
         <v>161</v>
       </c>
@@ -9290,7 +9334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
         <v>159</v>
       </c>
@@ -9299,109 +9343,109 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="1"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="1"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="1"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="1"/>
     </row>
   </sheetData>
@@ -9430,16 +9474,16 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.88671875" customWidth="1"/>
-    <col min="6" max="6" width="43.77734375" customWidth="1"/>
-    <col min="7" max="7" width="38.77734375" customWidth="1"/>
+    <col min="2" max="2" width="33.375" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.875" customWidth="1"/>
+    <col min="6" max="6" width="43.75" customWidth="1"/>
+    <col min="7" max="7" width="38.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -9451,7 +9495,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -9474,7 +9518,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>324</v>
       </c>
@@ -9482,7 +9526,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>323</v>
       </c>
@@ -9492,28 +9536,28 @@
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
@@ -9549,17 +9593,17 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -9585,7 +9629,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>44228</v>
       </c>
@@ -9605,7 +9649,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="6">
         <v>44229</v>
       </c>
@@ -9625,7 +9669,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>44230</v>
       </c>
@@ -9651,7 +9695,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>44231</v>
       </c>
@@ -9671,7 +9715,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>44232</v>
       </c>
@@ -9691,7 +9735,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>44233</v>
       </c>
@@ -9714,7 +9758,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>44234</v>
       </c>
@@ -9734,7 +9778,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <v>44235</v>
       </c>
@@ -9754,7 +9798,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>44236</v>
       </c>
@@ -9774,7 +9818,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>44237</v>
       </c>
@@ -9794,7 +9838,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>44238</v>
       </c>
@@ -9817,7 +9861,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>44239</v>
       </c>
@@ -9834,7 +9878,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>44240</v>
       </c>
@@ -9857,7 +9901,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
         <v>44241</v>
       </c>
@@ -9880,7 +9924,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
         <v>44242</v>
       </c>
@@ -9897,7 +9941,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
         <v>44243</v>
       </c>
@@ -9914,7 +9958,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
         <v>44244</v>
       </c>
@@ -9937,7 +9981,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="6">
         <v>44245</v>
       </c>
@@ -9957,7 +10001,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="6">
         <v>44246</v>
       </c>
@@ -9974,7 +10018,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="6">
         <v>44247</v>
       </c>
@@ -9994,7 +10038,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="6">
         <v>44248</v>
       </c>
@@ -10014,7 +10058,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="6">
         <v>44249</v>
       </c>
@@ -10031,7 +10075,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="6">
         <v>44250</v>
       </c>
@@ -10049,7 +10093,7 @@
       </c>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="6">
         <v>44251</v>
       </c>
@@ -10066,7 +10110,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="6">
         <v>44252</v>
       </c>
@@ -10083,7 +10127,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="6">
         <v>44253</v>
       </c>
@@ -10109,7 +10153,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="6">
         <v>44254</v>
       </c>
@@ -10132,7 +10176,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="6">
         <v>44255</v>
       </c>
@@ -10152,19 +10196,19 @@
         <v>154</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="2"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
         <v>12</v>
       </c>
@@ -10173,7 +10217,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
         <v>18</v>
       </c>
@@ -10182,7 +10226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
         <v>161</v>
       </c>
@@ -10191,7 +10235,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
         <v>159</v>
       </c>
@@ -10200,18 +10244,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="16" t="s">
         <v>225</v>
       </c>
@@ -10220,105 +10264,105 @@
       <c r="D41" s="16"/>
       <c r="E41" s="16"/>
     </row>
-    <row r="42" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="16"/>
       <c r="B42" s="16"/>
       <c r="C42" s="16"/>
       <c r="D42" s="16"/>
       <c r="E42" s="16"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="1"/>
     </row>
   </sheetData>
@@ -10351,17 +10395,17 @@
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -10387,7 +10431,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="7">
         <v>44256</v>
       </c>
@@ -10410,7 +10454,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="7">
         <v>44257</v>
       </c>
@@ -10433,7 +10477,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
         <v>44258</v>
       </c>
@@ -10459,7 +10503,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
         <v>44259</v>
       </c>
@@ -10482,7 +10526,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
         <v>44260</v>
       </c>
@@ -10502,7 +10546,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
         <v>44261</v>
       </c>
@@ -10522,7 +10566,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="7">
         <v>44262</v>
       </c>
@@ -10545,7 +10589,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
         <v>44263</v>
       </c>
@@ -10565,7 +10609,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
         <v>44264</v>
       </c>
@@ -10585,7 +10629,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
         <v>44265</v>
       </c>
@@ -10605,7 +10649,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="7">
         <v>44266</v>
       </c>
@@ -10625,7 +10669,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
         <v>44267</v>
       </c>
@@ -10645,7 +10689,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="7">
         <v>44268</v>
       </c>
@@ -10668,7 +10712,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="7">
         <v>44269</v>
       </c>
@@ -10691,7 +10735,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="7">
         <v>44270</v>
       </c>
@@ -10708,7 +10752,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="7">
         <v>44271</v>
       </c>
@@ -10725,7 +10769,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="7">
         <v>44272</v>
       </c>
@@ -10745,7 +10789,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="7">
         <v>44273</v>
       </c>
@@ -10765,7 +10809,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="7">
         <v>44274</v>
       </c>
@@ -10782,7 +10826,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="7">
         <v>44275</v>
       </c>
@@ -10802,7 +10846,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="7">
         <v>44276</v>
       </c>
@@ -10819,7 +10863,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="7">
         <v>44277</v>
       </c>
@@ -10839,7 +10883,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="7">
         <v>44278</v>
       </c>
@@ -10859,7 +10903,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="7">
         <v>44279</v>
       </c>
@@ -10879,7 +10923,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="7">
         <v>44280</v>
       </c>
@@ -10899,7 +10943,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="7">
         <v>44281</v>
       </c>
@@ -10919,7 +10963,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="7">
         <v>44282</v>
       </c>
@@ -10939,7 +10983,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="7">
         <v>44283</v>
       </c>
@@ -10959,7 +11003,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="7">
         <v>44284</v>
       </c>
@@ -10982,7 +11026,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="7">
         <v>44285</v>
       </c>
@@ -11005,7 +11049,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="7">
         <v>44286</v>
       </c>
@@ -11025,10 +11069,10 @@
         <v>381</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="7"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="7" t="s">
         <v>12</v>
       </c>
@@ -11037,7 +11081,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="7" t="s">
         <v>18</v>
       </c>
@@ -11046,7 +11090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="7" t="s">
         <v>161</v>
       </c>
@@ -11055,7 +11099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="7" t="s">
         <v>159</v>
       </c>
@@ -11064,113 +11108,113 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="7"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="7"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="7"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="7"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="7" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="7" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="7"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="7"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="7"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="7"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="7"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="7"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="7"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="7"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="7"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="7"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="7"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="7"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="7"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="7"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="7"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="7"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="7"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="7"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="7"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="7"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="7"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="7"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="7"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="7"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="7"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="7"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="7"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="7"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="7"/>
     </row>
   </sheetData>
@@ -11200,18 +11244,18 @@
       <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="66.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="52.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="66.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="52.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -11237,7 +11281,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="11">
         <v>44287</v>
       </c>
@@ -11257,7 +11301,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="11">
         <v>44288</v>
       </c>
@@ -11277,7 +11321,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="11">
         <v>44289</v>
       </c>
@@ -11297,7 +11341,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="11">
         <v>44290</v>
       </c>
@@ -11317,7 +11361,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="11">
         <v>44291</v>
       </c>
@@ -11337,7 +11381,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="11">
         <v>44292</v>
       </c>
@@ -11357,7 +11401,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="11">
         <v>44293</v>
       </c>
@@ -11380,7 +11424,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="11">
         <v>44294</v>
       </c>
@@ -11400,7 +11444,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="11">
         <v>44295</v>
       </c>
@@ -11420,7 +11464,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="11">
         <v>44296</v>
       </c>
@@ -11437,7 +11481,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="11">
         <v>44297</v>
       </c>
@@ -11460,7 +11504,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="11">
         <v>44298</v>
       </c>
@@ -11483,7 +11527,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="11">
         <v>44299</v>
       </c>
@@ -11503,7 +11547,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="11">
         <v>44300</v>
       </c>
@@ -11523,7 +11567,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="11">
         <v>44301</v>
       </c>
@@ -11543,7 +11587,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="11">
         <v>44302</v>
       </c>
@@ -11566,7 +11610,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="11">
         <v>44303</v>
       </c>
@@ -11592,7 +11636,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="11">
         <v>44304</v>
       </c>
@@ -11612,7 +11656,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="11">
         <v>44305</v>
       </c>
@@ -11635,7 +11679,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="11">
         <v>44306</v>
       </c>
@@ -11658,7 +11702,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="11">
         <v>44307</v>
       </c>
@@ -11681,7 +11725,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="11">
         <v>44308</v>
       </c>
@@ -11707,7 +11751,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="11">
         <v>44309</v>
       </c>
@@ -11727,7 +11771,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="11">
         <v>44310</v>
       </c>
@@ -11747,7 +11791,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="11">
         <v>44311</v>
       </c>
@@ -11767,7 +11811,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="11">
         <v>44312</v>
       </c>
@@ -11787,7 +11831,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="11">
         <v>44313</v>
       </c>
@@ -11807,7 +11851,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="11">
         <v>44314</v>
       </c>
@@ -11830,7 +11874,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="11">
         <v>44315</v>
       </c>
@@ -11850,7 +11894,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="11">
         <v>44316</v>
       </c>
@@ -11873,13 +11917,13 @@
         <v>523</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="11"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="11"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="11" t="s">
         <v>12</v>
       </c>
@@ -11888,7 +11932,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="11" t="s">
         <v>18</v>
       </c>
@@ -11897,7 +11941,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="11" t="s">
         <v>161</v>
       </c>
@@ -11906,7 +11950,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="11" t="s">
         <v>159</v>
       </c>
@@ -11915,113 +11959,113 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="11"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="11"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="11"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="11"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="11" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="11" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="11"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="11"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="11"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="11"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="11"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="11"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="11"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="11"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="11"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="11"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="11"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="11"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="11"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="11"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="11"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="11"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="11"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="11"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="11"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="11"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="11"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="11"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="11"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="11"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="11"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="11"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="11"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="11"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="11"/>
     </row>
   </sheetData>
@@ -12047,21 +12091,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C4189D3-F1C2-41D5-AFF0-50166F4BC652}">
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="69.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="69.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -12087,7 +12131,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="13">
         <v>44317</v>
       </c>
@@ -12107,7 +12151,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="13">
         <v>44318</v>
       </c>
@@ -12127,7 +12171,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="13">
         <v>44319</v>
       </c>
@@ -12147,7 +12191,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="13">
         <v>44320</v>
       </c>
@@ -12170,7 +12214,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="13">
         <v>44321</v>
       </c>
@@ -12190,7 +12234,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="13">
         <v>44322</v>
       </c>
@@ -12210,7 +12254,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="13">
         <v>44323</v>
       </c>
@@ -12233,7 +12277,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="13">
         <v>44324</v>
       </c>
@@ -12253,7 +12297,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="13">
         <v>44325</v>
       </c>
@@ -12273,7 +12317,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="13">
         <v>44326</v>
       </c>
@@ -12293,7 +12337,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="13">
         <v>44327</v>
       </c>
@@ -12316,7 +12360,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="13">
         <v>44328</v>
       </c>
@@ -12336,7 +12380,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="13">
         <v>44329</v>
       </c>
@@ -12356,7 +12400,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="13">
         <v>44330</v>
       </c>
@@ -12376,7 +12420,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="13">
         <v>44331</v>
       </c>
@@ -12393,7 +12437,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="13">
         <v>44332</v>
       </c>
@@ -12419,7 +12463,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="13">
         <v>44333</v>
       </c>
@@ -12439,7 +12483,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="13">
         <v>44334</v>
       </c>
@@ -12462,7 +12506,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="13">
         <v>44335</v>
       </c>
@@ -12485,7 +12529,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="13">
         <v>44336</v>
       </c>
@@ -12508,7 +12552,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="13">
         <v>44337</v>
       </c>
@@ -12528,7 +12572,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="13">
         <v>44338</v>
       </c>
@@ -12548,7 +12592,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="13">
         <v>44339</v>
       </c>
@@ -12568,7 +12612,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="13">
         <v>44340</v>
       </c>
@@ -12588,7 +12632,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="13">
         <v>44341</v>
       </c>
@@ -12608,7 +12652,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="13">
         <v>44342</v>
       </c>
@@ -12631,7 +12675,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="13">
         <v>44343</v>
       </c>
@@ -12651,39 +12695,84 @@
         <v>631</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="13">
         <v>44344</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>477</v>
+      </c>
+      <c r="C29" t="s">
+        <v>632</v>
+      </c>
+      <c r="D29" t="s">
+        <v>633</v>
+      </c>
+      <c r="E29" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="13">
         <v>44345</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>1074</v>
+      </c>
+      <c r="C30" t="s">
+        <v>635</v>
+      </c>
+      <c r="D30" t="s">
+        <v>636</v>
+      </c>
+      <c r="E30" t="s">
+        <v>637</v>
+      </c>
+      <c r="F30" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="13">
         <v>44346</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>231</v>
+      </c>
+      <c r="C31" t="s">
+        <v>638</v>
+      </c>
+      <c r="D31" t="s">
+        <v>639</v>
+      </c>
+      <c r="E31" t="s">
+        <v>640</v>
+      </c>
+      <c r="F31" t="s">
+        <v>641</v>
+      </c>
+      <c r="G31" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="13">
         <v>44347</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="13"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="13" t="s">
         <v>12</v>
       </c>
       <c r="B34">
         <f>COUNTIF(E2:E32,"自己做出")</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="13" t="s">
         <v>18</v>
       </c>
@@ -12692,16 +12781,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="13" t="s">
         <v>161</v>
       </c>
       <c r="B36">
         <f>COUNTIF(E2:E32,"CV后看懂")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="13" t="s">
         <v>159</v>
       </c>
@@ -12710,110 +12799,110 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="13"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="13"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="13"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="13" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="13" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="13"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="13"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="13"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="13"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="13"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="13"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="13"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="13"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="13"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="13"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="13"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="13"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="13"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="13"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="13"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="13"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="13"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="13"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="13"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="13"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="13"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="13"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="13"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="13"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="13"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="13"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="13"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="13"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="13"/>
     </row>
   </sheetData>
@@ -12843,7 +12932,7 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12858,16 +12947,16 @@
       <selection activeCell="B14" sqref="B14:F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.88671875" customWidth="1"/>
-    <col min="6" max="6" width="43.77734375" customWidth="1"/>
-    <col min="7" max="7" width="38.77734375" customWidth="1"/>
+    <col min="2" max="2" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.875" customWidth="1"/>
+    <col min="6" max="6" width="43.75" customWidth="1"/>
+    <col min="7" max="7" width="38.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -12881,7 +12970,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -12904,7 +12993,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1800</v>
       </c>
@@ -12918,7 +13007,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1801</v>
       </c>
@@ -12935,7 +13024,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>1802</v>
       </c>
@@ -12955,7 +13044,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>1803</v>
       </c>
@@ -12972,7 +13061,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>324</v>
       </c>
@@ -12986,7 +13075,7 @@
         <v>5009</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>323</v>
       </c>
@@ -12998,28 +13087,28 @@
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
@@ -13055,16 +13144,16 @@
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.88671875" customWidth="1"/>
-    <col min="6" max="6" width="43.77734375" customWidth="1"/>
-    <col min="7" max="7" width="38.77734375" customWidth="1"/>
+    <col min="2" max="2" width="33.375" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.875" customWidth="1"/>
+    <col min="6" max="6" width="43.75" customWidth="1"/>
+    <col min="7" max="7" width="38.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -13078,7 +13167,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -13101,7 +13190,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>5713</v>
       </c>
@@ -13121,7 +13210,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>5715</v>
       </c>
@@ -13138,7 +13227,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5714</v>
       </c>
@@ -13155,7 +13244,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5716</v>
       </c>
@@ -13172,7 +13261,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>324</v>
       </c>
@@ -13186,7 +13275,7 @@
         <v>4996</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>87</v>
       </c>
@@ -13198,28 +13287,28 @@
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
@@ -13255,16 +13344,16 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.88671875" customWidth="1"/>
-    <col min="6" max="6" width="43.77734375" customWidth="1"/>
-    <col min="7" max="7" width="38.77734375" customWidth="1"/>
+    <col min="2" max="2" width="33.375" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.875" customWidth="1"/>
+    <col min="6" max="6" width="43.75" customWidth="1"/>
+    <col min="7" max="7" width="38.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -13278,7 +13367,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -13301,7 +13390,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>400</v>
       </c>
@@ -13318,7 +13407,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>401</v>
       </c>
@@ -13335,7 +13424,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>402</v>
       </c>
@@ -13352,7 +13441,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>403</v>
       </c>
@@ -13369,7 +13458,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>404</v>
       </c>
@@ -13386,7 +13475,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>324</v>
       </c>
@@ -13400,7 +13489,7 @@
         <v>9932</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>87</v>
       </c>
@@ -13412,28 +13501,28 @@
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>

--- a/力扣做题情况.xlsx
+++ b/力扣做题情况.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20374"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC7B594-3677-4842-9FDB-E7EFA6E6986E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B6D7FA-3D80-46BA-BEC0-602C1A40758B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="16152" windowHeight="8508" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="21年1月" sheetId="2" r:id="rId1"/>
@@ -13,11 +13,11 @@
     <sheet name="21年3月" sheetId="7" r:id="rId3"/>
     <sheet name="21年4月" sheetId="17" r:id="rId4"/>
     <sheet name="21年5月" sheetId="20" r:id="rId5"/>
-    <sheet name="汇总" sheetId="13" r:id="rId6"/>
-    <sheet name="第233场周赛" sheetId="12" r:id="rId7"/>
-    <sheet name="第234场周赛" sheetId="15" r:id="rId8"/>
-    <sheet name="2021力扣杯" sheetId="18" r:id="rId9"/>
-    <sheet name="模板" sheetId="5" r:id="rId10"/>
+    <sheet name="21年6月" sheetId="5" r:id="rId6"/>
+    <sheet name="汇总" sheetId="13" r:id="rId7"/>
+    <sheet name="第233场周赛" sheetId="12" r:id="rId8"/>
+    <sheet name="第234场周赛" sheetId="15" r:id="rId9"/>
+    <sheet name="2021力扣杯" sheetId="18" r:id="rId10"/>
     <sheet name="竞赛模板" sheetId="9" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="659">
   <si>
     <t>种花问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2592,7 +2592,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>判断2的幂n&amp;(n-1)==0</t>
+    <t>4的幂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位运算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断2的幂：n&gt;0&amp;&amp;n&amp;(n-1)==0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断4的幂：n&gt;0&amp;&amp;(n&amp;(n-1))==0&amp;&amp;n%3==1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你能在你最喜欢的那天吃到你最喜欢的糖果吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前缀和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连续的子数组和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前缀和&amp;哈希表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算连续子数组和的方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连续数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CV后看懂</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2655,7 +2719,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2672,6 +2736,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -3950,7 +4017,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
@@ -4191,7 +4258,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>模板!$A$34:$A$37</c:f>
+              <c:f>'21年6月'!$A$34:$A$37</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -4211,18 +4278,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>模板!$B$34:$B$37</c:f>
+              <c:f>'21年6月'!$B$34:$B$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -8256,17 +8323,17 @@
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="52.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="52.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -8292,7 +8359,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44197</v>
       </c>
@@ -8315,7 +8382,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>44198</v>
       </c>
@@ -8341,7 +8408,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>44199</v>
       </c>
@@ -8358,7 +8425,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>44200</v>
       </c>
@@ -8375,7 +8442,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>44201</v>
       </c>
@@ -8392,7 +8459,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>44202</v>
       </c>
@@ -8418,7 +8485,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>44203</v>
       </c>
@@ -8444,7 +8511,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>44204</v>
       </c>
@@ -8464,7 +8531,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>44205</v>
       </c>
@@ -8487,7 +8554,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>44206</v>
       </c>
@@ -8504,7 +8571,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>44207</v>
       </c>
@@ -8530,7 +8597,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>44208</v>
       </c>
@@ -8553,7 +8620,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>44209</v>
       </c>
@@ -8576,7 +8643,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>44210</v>
       </c>
@@ -8593,7 +8660,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>44211</v>
       </c>
@@ -8616,7 +8683,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>44212</v>
       </c>
@@ -8639,7 +8706,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>44213</v>
       </c>
@@ -8659,7 +8726,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>44214</v>
       </c>
@@ -8682,7 +8749,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>44215</v>
       </c>
@@ -8705,7 +8772,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>44216</v>
       </c>
@@ -8725,7 +8792,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>44217</v>
       </c>
@@ -8751,7 +8818,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>44218</v>
       </c>
@@ -8771,7 +8838,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>44219</v>
       </c>
@@ -8791,7 +8858,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>44220</v>
       </c>
@@ -8811,7 +8878,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>44221</v>
       </c>
@@ -8831,7 +8898,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>44222</v>
       </c>
@@ -8854,7 +8921,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>44223</v>
       </c>
@@ -8874,7 +8941,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>44224</v>
       </c>
@@ -8891,7 +8958,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>44225</v>
       </c>
@@ -8917,7 +8984,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>44226</v>
       </c>
@@ -8934,7 +9001,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>44227</v>
       </c>
@@ -8954,10 +9021,10 @@
         <v>126</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>17</v>
       </c>
@@ -8966,7 +9033,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>18</v>
       </c>
@@ -8975,7 +9042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>161</v>
       </c>
@@ -8984,7 +9051,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>159</v>
       </c>
@@ -8993,154 +9060,154 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A41" s="14" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A42" s="14"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A43" s="14"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-    </row>
-    <row r="44" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="14"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="15"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="15"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+    </row>
+    <row r="44" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="15"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A47" s="15" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A48" s="15"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A49" s="15"/>
-      <c r="B49" s="15"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A50" s="15"/>
-      <c r="B50" s="15"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="16"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="16"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="16"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
     </row>
   </sheetData>
@@ -9167,302 +9234,216 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5F7AB7F-19BA-433D-94B4-F40C8CC2BB92}">
-  <dimension ref="A1:H72"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A5BDCBD-1A6C-41BE-A9E5-23901AEFD8F1}">
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.88671875" customWidth="1"/>
+    <col min="6" max="6" width="43.77734375" customWidth="1"/>
+    <col min="7" max="7" width="38.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="12">
+        <v>44291</v>
+      </c>
+      <c r="D1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C3" t="s">
         <v>20</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E3" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="F3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="G3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>43831</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" s="1"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" s="1"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A28" s="1"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A30" s="1"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A31" s="1"/>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A32" s="1"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34">
-        <f>COUNTIF(E2:E32,"自己做出")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B35">
-        <f>COUNTIF(E2:E32,"看思路写出")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="B36">
-        <f>COUNTIF(E2:E32,"CV后看懂")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="B37">
-        <f>COUNTIF(E2:E32,"CV后没看懂")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" s="1"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" s="1"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" s="1"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" s="1"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="1"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="1"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" s="1"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" s="1"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="1"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" s="1"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" s="1"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A49" s="1"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A50" s="1"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A51" s="1"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A52" s="1"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A53" s="1"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A54" s="1"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A55" s="1"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A56" s="1"/>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A57" s="1"/>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A58" s="1"/>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A59" s="1"/>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A60" s="1"/>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A61" s="1"/>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A62" s="1"/>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A63" s="1"/>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A64" s="1"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A65" s="1"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A66" s="1"/>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A67" s="1"/>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A68" s="1"/>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A69" s="1"/>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A70" s="1"/>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A71" s="1"/>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A72" s="1"/>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>400</v>
+      </c>
+      <c r="B4" t="s">
+        <v>405</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>327</v>
+      </c>
+      <c r="E4" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>401</v>
+      </c>
+      <c r="B5" t="s">
+        <v>406</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>327</v>
+      </c>
+      <c r="E5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>402</v>
+      </c>
+      <c r="B6" t="s">
+        <v>407</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>327</v>
+      </c>
+      <c r="E6" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>403</v>
+      </c>
+      <c r="B7" t="s">
+        <v>408</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E7" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>404</v>
+      </c>
+      <c r="B8" t="s">
+        <v>409</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>158</v>
+      </c>
+      <c r="E8" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>324</v>
+      </c>
+      <c r="B12">
+        <v>807</v>
+      </c>
+      <c r="C12" t="s">
+        <v>325</v>
+      </c>
+      <c r="D12">
+        <v>9932</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>413</v>
+      </c>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B14:F18"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{FF29E0C6-E887-4957-96EF-1F199E40E8A8}">
-      <formula1>"简单,中等,困难"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D10" xr:uid="{B1763431-367D-43B2-9BED-8968A10493E3}">
+      <formula1>"竞赛中自己做出,竞赛后自己做出,CV后看懂,CV后没看懂,看思路写出"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E33:E1048576" xr:uid="{1A6BD387-3659-417D-8E16-F3AF85EA8DF3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3" xr:uid="{D770644D-2970-40F8-A2D8-30F617BAB209}">
       <formula1>"自己做出,CV,看思路写出"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E32" xr:uid="{66893934-AAC3-4E3F-B2CE-391DF2E56630}">
-      <formula1>"自己做出,CV后看懂,CV后没看懂,看思路写出"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C10" xr:uid="{B4B4A96A-3918-42B1-9054-81038B18495B}">
+      <formula1>"简单,中等,困难"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9474,16 +9455,16 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.375" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.875" customWidth="1"/>
-    <col min="6" max="6" width="43.75" customWidth="1"/>
-    <col min="7" max="7" width="38.75" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.88671875" customWidth="1"/>
+    <col min="6" max="6" width="43.77734375" customWidth="1"/>
+    <col min="7" max="7" width="38.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -9495,7 +9476,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -9518,7 +9499,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>324</v>
       </c>
@@ -9526,43 +9507,43 @@
         <v>325</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>323</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9593,17 +9574,17 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -9629,7 +9610,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44228</v>
       </c>
@@ -9649,7 +9630,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>44229</v>
       </c>
@@ -9669,7 +9650,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>44230</v>
       </c>
@@ -9695,7 +9676,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>44231</v>
       </c>
@@ -9715,7 +9696,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>44232</v>
       </c>
@@ -9735,7 +9716,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>44233</v>
       </c>
@@ -9758,7 +9739,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>44234</v>
       </c>
@@ -9778,7 +9759,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>44235</v>
       </c>
@@ -9798,7 +9779,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>44236</v>
       </c>
@@ -9818,7 +9799,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>44237</v>
       </c>
@@ -9838,7 +9819,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>44238</v>
       </c>
@@ -9861,7 +9842,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>44239</v>
       </c>
@@ -9878,7 +9859,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>44240</v>
       </c>
@@ -9901,7 +9882,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>44241</v>
       </c>
@@ -9924,7 +9905,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>44242</v>
       </c>
@@ -9941,7 +9922,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>44243</v>
       </c>
@@ -9958,7 +9939,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>44244</v>
       </c>
@@ -9981,7 +9962,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>44245</v>
       </c>
@@ -10001,7 +9982,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>44246</v>
       </c>
@@ -10018,7 +9999,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>44247</v>
       </c>
@@ -10038,7 +10019,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>44248</v>
       </c>
@@ -10058,7 +10039,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>44249</v>
       </c>
@@ -10075,7 +10056,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>44250</v>
       </c>
@@ -10093,7 +10074,7 @@
       </c>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>44251</v>
       </c>
@@ -10110,7 +10091,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>44252</v>
       </c>
@@ -10127,7 +10108,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>44253</v>
       </c>
@@ -10153,7 +10134,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>44254</v>
       </c>
@@ -10176,7 +10157,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>44255</v>
       </c>
@@ -10196,19 +10177,19 @@
         <v>154</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>12</v>
       </c>
@@ -10217,7 +10198,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>18</v>
       </c>
@@ -10226,7 +10207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>161</v>
       </c>
@@ -10235,7 +10216,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>159</v>
       </c>
@@ -10244,125 +10225,125 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A41" s="16" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-    </row>
-    <row r="42" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="16"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+    </row>
+    <row r="42" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="17"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
     </row>
   </sheetData>
@@ -10395,17 +10376,17 @@
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -10431,7 +10412,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>44256</v>
       </c>
@@ -10454,7 +10435,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>44257</v>
       </c>
@@ -10477,7 +10458,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>44258</v>
       </c>
@@ -10503,7 +10484,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>44259</v>
       </c>
@@ -10526,7 +10507,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>44260</v>
       </c>
@@ -10546,7 +10527,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>44261</v>
       </c>
@@ -10566,7 +10547,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>44262</v>
       </c>
@@ -10589,7 +10570,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>44263</v>
       </c>
@@ -10609,7 +10590,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>44264</v>
       </c>
@@ -10629,7 +10610,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>44265</v>
       </c>
@@ -10649,7 +10630,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>44266</v>
       </c>
@@ -10669,7 +10650,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>44267</v>
       </c>
@@ -10689,7 +10670,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>44268</v>
       </c>
@@ -10712,7 +10693,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>44269</v>
       </c>
@@ -10735,7 +10716,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>44270</v>
       </c>
@@ -10752,7 +10733,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>44271</v>
       </c>
@@ -10769,7 +10750,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>44272</v>
       </c>
@@ -10789,7 +10770,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>44273</v>
       </c>
@@ -10809,7 +10790,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>44274</v>
       </c>
@@ -10826,7 +10807,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>44275</v>
       </c>
@@ -10846,7 +10827,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>44276</v>
       </c>
@@ -10863,7 +10844,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>44277</v>
       </c>
@@ -10883,7 +10864,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>44278</v>
       </c>
@@ -10903,7 +10884,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>44279</v>
       </c>
@@ -10923,7 +10904,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>44280</v>
       </c>
@@ -10943,7 +10924,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>44281</v>
       </c>
@@ -10963,7 +10944,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>44282</v>
       </c>
@@ -10983,7 +10964,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>44283</v>
       </c>
@@ -11003,7 +10984,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>44284</v>
       </c>
@@ -11026,7 +11007,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>44285</v>
       </c>
@@ -11049,7 +11030,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>44286</v>
       </c>
@@ -11069,10 +11050,10 @@
         <v>381</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>12</v>
       </c>
@@ -11081,7 +11062,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>18</v>
       </c>
@@ -11090,7 +11071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>161</v>
       </c>
@@ -11099,7 +11080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>159</v>
       </c>
@@ -11108,113 +11089,113 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="7"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="7"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="7"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="7"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="7"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="7"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="7"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="7"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="7"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="7"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="7"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="7"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="7"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="7"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="7"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="7"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="7"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="7"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="7"/>
     </row>
   </sheetData>
@@ -11244,18 +11225,18 @@
       <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="66.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="52.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="66.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="52.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -11281,7 +11262,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>44287</v>
       </c>
@@ -11301,7 +11282,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>44288</v>
       </c>
@@ -11321,7 +11302,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>44289</v>
       </c>
@@ -11341,7 +11322,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>44290</v>
       </c>
@@ -11361,7 +11342,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>44291</v>
       </c>
@@ -11381,7 +11362,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>44292</v>
       </c>
@@ -11401,7 +11382,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>44293</v>
       </c>
@@ -11424,7 +11405,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>44294</v>
       </c>
@@ -11444,7 +11425,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>44295</v>
       </c>
@@ -11464,7 +11445,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>44296</v>
       </c>
@@ -11481,7 +11462,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>44297</v>
       </c>
@@ -11504,7 +11485,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>44298</v>
       </c>
@@ -11527,7 +11508,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>44299</v>
       </c>
@@ -11547,7 +11528,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>44300</v>
       </c>
@@ -11567,7 +11548,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>44301</v>
       </c>
@@ -11587,7 +11568,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>44302</v>
       </c>
@@ -11610,7 +11591,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>44303</v>
       </c>
@@ -11636,7 +11617,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>44304</v>
       </c>
@@ -11656,7 +11637,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>44305</v>
       </c>
@@ -11679,7 +11660,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>44306</v>
       </c>
@@ -11702,7 +11683,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>44307</v>
       </c>
@@ -11725,7 +11706,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>44308</v>
       </c>
@@ -11751,7 +11732,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>44309</v>
       </c>
@@ -11771,7 +11752,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>44310</v>
       </c>
@@ -11791,7 +11772,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>44311</v>
       </c>
@@ -11811,7 +11792,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>44312</v>
       </c>
@@ -11831,7 +11812,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>44313</v>
       </c>
@@ -11851,7 +11832,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>44314</v>
       </c>
@@ -11874,7 +11855,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>44315</v>
       </c>
@@ -11894,7 +11875,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>44316</v>
       </c>
@@ -11917,13 +11898,13 @@
         <v>523</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>12</v>
       </c>
@@ -11932,7 +11913,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>18</v>
       </c>
@@ -11941,7 +11922,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>161</v>
       </c>
@@ -11950,7 +11931,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>159</v>
       </c>
@@ -11959,113 +11940,113 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="11"/>
     </row>
   </sheetData>
@@ -12091,21 +12072,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C4189D3-F1C2-41D5-AFF0-50166F4BC652}">
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="69.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="69.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -12131,7 +12112,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
         <v>44317</v>
       </c>
@@ -12151,7 +12132,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>44318</v>
       </c>
@@ -12171,7 +12152,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>44319</v>
       </c>
@@ -12191,7 +12172,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>44320</v>
       </c>
@@ -12214,7 +12195,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>44321</v>
       </c>
@@ -12234,7 +12215,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>44322</v>
       </c>
@@ -12254,7 +12235,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>44323</v>
       </c>
@@ -12277,7 +12258,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>44324</v>
       </c>
@@ -12297,7 +12278,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>44325</v>
       </c>
@@ -12317,7 +12298,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>44326</v>
       </c>
@@ -12337,7 +12318,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>44327</v>
       </c>
@@ -12360,7 +12341,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>44328</v>
       </c>
@@ -12380,7 +12361,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>44329</v>
       </c>
@@ -12400,7 +12381,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>44330</v>
       </c>
@@ -12420,7 +12401,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>44331</v>
       </c>
@@ -12437,7 +12418,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>44332</v>
       </c>
@@ -12463,7 +12444,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>44333</v>
       </c>
@@ -12483,7 +12464,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>44334</v>
       </c>
@@ -12506,7 +12487,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>44335</v>
       </c>
@@ -12529,7 +12510,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>44336</v>
       </c>
@@ -12552,7 +12533,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
         <v>44337</v>
       </c>
@@ -12572,7 +12553,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>44338</v>
       </c>
@@ -12592,7 +12573,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>44339</v>
       </c>
@@ -12612,7 +12593,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <v>44340</v>
       </c>
@@ -12632,7 +12613,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <v>44341</v>
       </c>
@@ -12652,7 +12633,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>44342</v>
       </c>
@@ -12675,7 +12656,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <v>44343</v>
       </c>
@@ -12695,7 +12676,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
         <v>44344</v>
       </c>
@@ -12712,7 +12693,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
         <v>44345</v>
       </c>
@@ -12732,7 +12713,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
         <v>44346</v>
       </c>
@@ -12752,27 +12733,45 @@
         <v>641</v>
       </c>
       <c 